--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S518"/>
+  <dimension ref="A1:S519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31039,6 +31039,65 @@
         <v>2.789</v>
       </c>
     </row>
+    <row r="519">
+      <c r="A519" s="2" t="n">
+        <v>44616</v>
+      </c>
+      <c r="B519" t="n">
+        <v>-0.573</v>
+      </c>
+      <c r="C519" t="n">
+        <v>-0.598</v>
+      </c>
+      <c r="D519" t="n">
+        <v>-0.5590000000000001</v>
+      </c>
+      <c r="E519" t="n">
+        <v>-0.5580000000000001</v>
+      </c>
+      <c r="F519" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="G519" t="n">
+        <v>0.057</v>
+      </c>
+      <c r="H519" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I519" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="J519" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="K519" t="n">
+        <v>1.219</v>
+      </c>
+      <c r="L519" t="n">
+        <v>1.385</v>
+      </c>
+      <c r="M519" t="n">
+        <v>1.642</v>
+      </c>
+      <c r="N519" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="O519" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="P519" t="n">
+        <v>2.013</v>
+      </c>
+      <c r="Q519" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="R519" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="S519" t="n">
+        <v>2.713</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S519"/>
+  <dimension ref="A1:S520"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31098,6 +31098,65 @@
         <v>2.713</v>
       </c>
     </row>
+    <row r="520">
+      <c r="A520" s="2" t="n">
+        <v>44617</v>
+      </c>
+      <c r="B520" t="n">
+        <v>-0.5629999999999999</v>
+      </c>
+      <c r="C520" t="n">
+        <v>-0.664</v>
+      </c>
+      <c r="D520" t="n">
+        <v>-0.584</v>
+      </c>
+      <c r="E520" t="n">
+        <v>-0.641</v>
+      </c>
+      <c r="F520" t="n">
+        <v>-0.438</v>
+      </c>
+      <c r="G520" t="n">
+        <v>0.103</v>
+      </c>
+      <c r="H520" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I520" t="n">
+        <v>0.928</v>
+      </c>
+      <c r="J520" t="n">
+        <v>0.995</v>
+      </c>
+      <c r="K520" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="L520" t="n">
+        <v>1.423</v>
+      </c>
+      <c r="M520" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="N520" t="n">
+        <v>1.789</v>
+      </c>
+      <c r="O520" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="P520" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="Q520" t="n">
+        <v>2.263</v>
+      </c>
+      <c r="R520" t="n">
+        <v>2.418</v>
+      </c>
+      <c r="S520" t="n">
+        <v>2.746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S520"/>
+  <dimension ref="A1:S521"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31157,6 +31157,65 @@
         <v>2.746</v>
       </c>
     </row>
+    <row r="521">
+      <c r="A521" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B521" t="n">
+        <v>-0.5639999999999999</v>
+      </c>
+      <c r="C521" t="n">
+        <v>-0.615</v>
+      </c>
+      <c r="D521" t="n">
+        <v>-0.605</v>
+      </c>
+      <c r="E521" t="n">
+        <v>-0.615</v>
+      </c>
+      <c r="F521" t="n">
+        <v>-0.498</v>
+      </c>
+      <c r="G521" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H521" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="I521" t="n">
+        <v>0.829</v>
+      </c>
+      <c r="J521" t="n">
+        <v>0.893</v>
+      </c>
+      <c r="K521" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="L521" t="n">
+        <v>1.326</v>
+      </c>
+      <c r="M521" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="N521" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="O521" t="n">
+        <v>1.758</v>
+      </c>
+      <c r="P521" t="n">
+        <v>2.001</v>
+      </c>
+      <c r="Q521" t="n">
+        <v>2.206</v>
+      </c>
+      <c r="R521" t="n">
+        <v>2.375</v>
+      </c>
+      <c r="S521" t="n">
+        <v>2.74</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S521"/>
+  <dimension ref="A1:S522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31216,6 +31216,65 @@
         <v>2.74</v>
       </c>
     </row>
+    <row r="522">
+      <c r="A522" s="2" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B522" t="n">
+        <v>-0.648</v>
+      </c>
+      <c r="C522" t="n">
+        <v>-0.665</v>
+      </c>
+      <c r="D522" t="n">
+        <v>-0.535</v>
+      </c>
+      <c r="E522" t="n">
+        <v>-0.488</v>
+      </c>
+      <c r="F522" t="n">
+        <v>-0.555</v>
+      </c>
+      <c r="G522" t="n">
+        <v>-0.268</v>
+      </c>
+      <c r="H522" t="n">
+        <v>0.197</v>
+      </c>
+      <c r="I522" t="n">
+        <v>0.478</v>
+      </c>
+      <c r="J522" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="K522" t="n">
+        <v>0.803</v>
+      </c>
+      <c r="L522" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="M522" t="n">
+        <v>1.226</v>
+      </c>
+      <c r="N522" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="O522" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="P522" t="n">
+        <v>1.687</v>
+      </c>
+      <c r="Q522" t="n">
+        <v>1.903</v>
+      </c>
+      <c r="R522" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="S522" t="n">
+        <v>2.49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S522"/>
+  <dimension ref="A1:S523"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31275,6 +31275,65 @@
         <v>2.49</v>
       </c>
     </row>
+    <row r="523">
+      <c r="A523" s="2" t="n">
+        <v>44622</v>
+      </c>
+      <c r="B523" t="n">
+        <v>-0.632</v>
+      </c>
+      <c r="C523" t="n">
+        <v>-0.614</v>
+      </c>
+      <c r="D523" t="n">
+        <v>-0.516</v>
+      </c>
+      <c r="E523" t="n">
+        <v>-0.432</v>
+      </c>
+      <c r="F523" t="n">
+        <v>-0.482</v>
+      </c>
+      <c r="G523" t="n">
+        <v>-0.112</v>
+      </c>
+      <c r="H523" t="n">
+        <v>0.334</v>
+      </c>
+      <c r="I523" t="n">
+        <v>0.603</v>
+      </c>
+      <c r="J523" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="K523" t="n">
+        <v>0.919</v>
+      </c>
+      <c r="L523" t="n">
+        <v>1.092</v>
+      </c>
+      <c r="M523" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="N523" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="O523" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="P523" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="Q523" t="n">
+        <v>2.014</v>
+      </c>
+      <c r="R523" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="S523" t="n">
+        <v>2.594</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S523"/>
+  <dimension ref="A1:S524"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31334,6 +31334,65 @@
         <v>2.594</v>
       </c>
     </row>
+    <row r="524">
+      <c r="A524" s="2" t="n">
+        <v>44623</v>
+      </c>
+      <c r="B524" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="C524" t="n">
+        <v>-0.613</v>
+      </c>
+      <c r="D524" t="n">
+        <v>-0.519</v>
+      </c>
+      <c r="E524" t="n">
+        <v>-0.399</v>
+      </c>
+      <c r="F524" t="n">
+        <v>-0.486</v>
+      </c>
+      <c r="G524" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H524" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="I524" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="J524" t="n">
+        <v>0.709</v>
+      </c>
+      <c r="K524" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="L524" t="n">
+        <v>1.136</v>
+      </c>
+      <c r="M524" t="n">
+        <v>1.398</v>
+      </c>
+      <c r="N524" t="n">
+        <v>1.522</v>
+      </c>
+      <c r="O524" t="n">
+        <v>1.589</v>
+      </c>
+      <c r="P524" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="Q524" t="n">
+        <v>2.063</v>
+      </c>
+      <c r="R524" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="S524" t="n">
+        <v>2.631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S524"/>
+  <dimension ref="A1:S525"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31393,6 +31393,65 @@
         <v>2.631</v>
       </c>
     </row>
+    <row r="525">
+      <c r="A525" s="2" t="n">
+        <v>44624</v>
+      </c>
+      <c r="B525" t="n">
+        <v>-0.622</v>
+      </c>
+      <c r="C525" t="n">
+        <v>-0.637</v>
+      </c>
+      <c r="D525" t="n">
+        <v>-0.552</v>
+      </c>
+      <c r="E525" t="n">
+        <v>-0.455</v>
+      </c>
+      <c r="F525" t="n">
+        <v>-0.521</v>
+      </c>
+      <c r="G525" t="n">
+        <v>-0.142</v>
+      </c>
+      <c r="H525" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="I525" t="n">
+        <v>0.584</v>
+      </c>
+      <c r="J525" t="n">
+        <v>0.647</v>
+      </c>
+      <c r="K525" t="n">
+        <v>0.899</v>
+      </c>
+      <c r="L525" t="n">
+        <v>1.074</v>
+      </c>
+      <c r="M525" t="n">
+        <v>1.333</v>
+      </c>
+      <c r="N525" t="n">
+        <v>1.459</v>
+      </c>
+      <c r="O525" t="n">
+        <v>1.523</v>
+      </c>
+      <c r="P525" t="n">
+        <v>1.779</v>
+      </c>
+      <c r="Q525" t="n">
+        <v>1.996</v>
+      </c>
+      <c r="R525" t="n">
+        <v>2.198</v>
+      </c>
+      <c r="S525" t="n">
+        <v>2.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S525"/>
+  <dimension ref="A1:S526"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31452,6 +31452,65 @@
         <v>2.588</v>
       </c>
     </row>
+    <row r="526">
+      <c r="A526" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B526" t="n">
+        <v>-0.62</v>
+      </c>
+      <c r="C526" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="D526" t="n">
+        <v>-0.543</v>
+      </c>
+      <c r="E526" t="n">
+        <v>-0.443</v>
+      </c>
+      <c r="F526" t="n">
+        <v>-0.505</v>
+      </c>
+      <c r="G526" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="H526" t="n">
+        <v>0.387</v>
+      </c>
+      <c r="I526" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="J526" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="K526" t="n">
+        <v>0.982</v>
+      </c>
+      <c r="L526" t="n">
+        <v>1.157</v>
+      </c>
+      <c r="M526" t="n">
+        <v>1.413</v>
+      </c>
+      <c r="N526" t="n">
+        <v>1.538</v>
+      </c>
+      <c r="O526" t="n">
+        <v>1.601</v>
+      </c>
+      <c r="P526" t="n">
+        <v>1.844</v>
+      </c>
+      <c r="Q526" t="n">
+        <v>2.056</v>
+      </c>
+      <c r="R526" t="n">
+        <v>2.248</v>
+      </c>
+      <c r="S526" t="n">
+        <v>2.649</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S526"/>
+  <dimension ref="A1:S527"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31511,6 +31511,65 @@
         <v>2.649</v>
       </c>
     </row>
+    <row r="527">
+      <c r="A527" s="2" t="n">
+        <v>44628</v>
+      </c>
+      <c r="B527" t="n">
+        <v>-0.646</v>
+      </c>
+      <c r="C527" t="n">
+        <v>-0.604</v>
+      </c>
+      <c r="D527" t="n">
+        <v>-0.5629999999999999</v>
+      </c>
+      <c r="E527" t="n">
+        <v>-0.483</v>
+      </c>
+      <c r="F527" t="n">
+        <v>-0.504</v>
+      </c>
+      <c r="G527" t="n">
+        <v>-0.089</v>
+      </c>
+      <c r="H527" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="I527" t="n">
+        <v>0.641</v>
+      </c>
+      <c r="J527" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K527" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="L527" t="n">
+        <v>1.152</v>
+      </c>
+      <c r="M527" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="N527" t="n">
+        <v>1.531</v>
+      </c>
+      <c r="O527" t="n">
+        <v>1.584</v>
+      </c>
+      <c r="P527" t="n">
+        <v>1.857</v>
+      </c>
+      <c r="Q527" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="R527" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="S527" t="n">
+        <v>2.625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S527"/>
+  <dimension ref="A1:S528"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31516,58 +31516,117 @@
         <v>44628</v>
       </c>
       <c r="B527" t="n">
-        <v>-0.646</v>
+        <v>-0.62</v>
       </c>
       <c r="C527" t="n">
-        <v>-0.604</v>
+        <v>-0.57</v>
       </c>
       <c r="D527" t="n">
-        <v>-0.5629999999999999</v>
+        <v>-0.543</v>
       </c>
       <c r="E527" t="n">
-        <v>-0.483</v>
+        <v>-0.443</v>
       </c>
       <c r="F527" t="n">
-        <v>-0.504</v>
+        <v>-0.505</v>
       </c>
       <c r="G527" t="n">
-        <v>-0.089</v>
+        <v>-0.065</v>
       </c>
       <c r="H527" t="n">
-        <v>0.355</v>
+        <v>0.387</v>
       </c>
       <c r="I527" t="n">
-        <v>0.641</v>
+        <v>0.664</v>
       </c>
       <c r="J527" t="n">
-        <v>0.71</v>
+        <v>0.727</v>
       </c>
       <c r="K527" t="n">
-        <v>0.97</v>
+        <v>0.982</v>
       </c>
       <c r="L527" t="n">
-        <v>1.152</v>
+        <v>1.157</v>
       </c>
       <c r="M527" t="n">
-        <v>1.408</v>
+        <v>1.413</v>
       </c>
       <c r="N527" t="n">
-        <v>1.531</v>
+        <v>1.538</v>
       </c>
       <c r="O527" t="n">
-        <v>1.584</v>
+        <v>1.601</v>
       </c>
       <c r="P527" t="n">
-        <v>1.857</v>
+        <v>1.844</v>
       </c>
       <c r="Q527" t="n">
-        <v>2.066</v>
+        <v>2.056</v>
       </c>
       <c r="R527" t="n">
-        <v>2.267</v>
+        <v>2.248</v>
       </c>
       <c r="S527" t="n">
-        <v>2.625</v>
+        <v>2.649</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="2" t="n">
+        <v>44629</v>
+      </c>
+      <c r="B528" t="n">
+        <v>-0.621</v>
+      </c>
+      <c r="C528" t="n">
+        <v>-0.583</v>
+      </c>
+      <c r="D528" t="n">
+        <v>-0.543</v>
+      </c>
+      <c r="E528" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F528" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="G528" t="n">
+        <v>-0.023</v>
+      </c>
+      <c r="H528" t="n">
+        <v>0.423</v>
+      </c>
+      <c r="I528" t="n">
+        <v>0.703</v>
+      </c>
+      <c r="J528" t="n">
+        <v>0.767</v>
+      </c>
+      <c r="K528" t="n">
+        <v>1.031</v>
+      </c>
+      <c r="L528" t="n">
+        <v>1.209</v>
+      </c>
+      <c r="M528" t="n">
+        <v>1.479</v>
+      </c>
+      <c r="N528" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="O528" t="n">
+        <v>1.668</v>
+      </c>
+      <c r="P528" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="Q528" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="R528" t="n">
+        <v>2.334</v>
+      </c>
+      <c r="S528" t="n">
+        <v>2.72</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S528"/>
+  <dimension ref="A1:S529"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31629,6 +31629,65 @@
         <v>2.72</v>
       </c>
     </row>
+    <row r="529">
+      <c r="A529" s="2" t="n">
+        <v>44630</v>
+      </c>
+      <c r="B529" t="n">
+        <v>-0.653</v>
+      </c>
+      <c r="C529" t="n">
+        <v>-0.629</v>
+      </c>
+      <c r="D529" t="n">
+        <v>-0.524</v>
+      </c>
+      <c r="E529" t="n">
+        <v>-0.394</v>
+      </c>
+      <c r="F529" t="n">
+        <v>-0.418</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.193</v>
+      </c>
+      <c r="H529" t="n">
+        <v>0.663</v>
+      </c>
+      <c r="I529" t="n">
+        <v>0.953</v>
+      </c>
+      <c r="J529" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="K529" t="n">
+        <v>1.288</v>
+      </c>
+      <c r="L529" t="n">
+        <v>1.471</v>
+      </c>
+      <c r="M529" t="n">
+        <v>1.741</v>
+      </c>
+      <c r="N529" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="O529" t="n">
+        <v>1.919</v>
+      </c>
+      <c r="P529" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="Q529" t="n">
+        <v>2.337</v>
+      </c>
+      <c r="R529" t="n">
+        <v>2.487</v>
+      </c>
+      <c r="S529" t="n">
+        <v>2.844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S529"/>
+  <dimension ref="A1:S530"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31688,6 +31688,65 @@
         <v>2.844</v>
       </c>
     </row>
+    <row r="530">
+      <c r="A530" s="2" t="n">
+        <v>44631</v>
+      </c>
+      <c r="B530" t="n">
+        <v>-0.635</v>
+      </c>
+      <c r="C530" t="n">
+        <v>-0.611</v>
+      </c>
+      <c r="D530" t="n">
+        <v>-0.5620000000000001</v>
+      </c>
+      <c r="E530" t="n">
+        <v>-0.388</v>
+      </c>
+      <c r="F530" t="n">
+        <v>-0.458</v>
+      </c>
+      <c r="G530" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="H530" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="I530" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="J530" t="n">
+        <v>1</v>
+      </c>
+      <c r="K530" t="n">
+        <v>1.255</v>
+      </c>
+      <c r="L530" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="M530" t="n">
+        <v>1.699</v>
+      </c>
+      <c r="N530" t="n">
+        <v>1.814</v>
+      </c>
+      <c r="O530" t="n">
+        <v>1.867</v>
+      </c>
+      <c r="P530" t="n">
+        <v>2.072</v>
+      </c>
+      <c r="Q530" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="R530" t="n">
+        <v>2.399</v>
+      </c>
+      <c r="S530" t="n">
+        <v>2.758</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S530"/>
+  <dimension ref="A1:S531"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30670,7 +30670,7 @@
         <v>1.914</v>
       </c>
       <c r="O512" t="n">
-        <v>1.976</v>
+        <v>1.972</v>
       </c>
       <c r="P512" t="n">
         <v>2.175</v>
@@ -30729,7 +30729,7 @@
         <v>1.848</v>
       </c>
       <c r="O513" t="n">
-        <v>1.907</v>
+        <v>1.917</v>
       </c>
       <c r="P513" t="n">
         <v>2.122</v>
@@ -30788,7 +30788,7 @@
         <v>1.785</v>
       </c>
       <c r="O514" t="n">
-        <v>1.847</v>
+        <v>1.84</v>
       </c>
       <c r="P514" t="n">
         <v>2.08</v>
@@ -30847,7 +30847,7 @@
         <v>1.792</v>
       </c>
       <c r="O515" t="n">
-        <v>1.85</v>
+        <v>1.845</v>
       </c>
       <c r="P515" t="n">
         <v>2.094</v>
@@ -30906,7 +30906,7 @@
         <v>1.86</v>
       </c>
       <c r="O516" t="n">
-        <v>1.919</v>
+        <v>1.916</v>
       </c>
       <c r="P516" t="n">
         <v>2.161</v>
@@ -30965,7 +30965,7 @@
         <v>1.876</v>
       </c>
       <c r="O517" t="n">
-        <v>1.932</v>
+        <v>1.934</v>
       </c>
       <c r="P517" t="n">
         <v>2.155</v>
@@ -31024,7 +31024,7 @@
         <v>1.883</v>
       </c>
       <c r="O518" t="n">
-        <v>1.94</v>
+        <v>1.932</v>
       </c>
       <c r="P518" t="n">
         <v>2.116</v>
@@ -31083,7 +31083,7 @@
         <v>1.758</v>
       </c>
       <c r="O519" t="n">
-        <v>1.814</v>
+        <v>1.807</v>
       </c>
       <c r="P519" t="n">
         <v>2.013</v>
@@ -31142,7 +31142,7 @@
         <v>1.789</v>
       </c>
       <c r="O520" t="n">
-        <v>1.847</v>
+        <v>1.842</v>
       </c>
       <c r="P520" t="n">
         <v>2.057</v>
@@ -31201,7 +31201,7 @@
         <v>1.697</v>
       </c>
       <c r="O521" t="n">
-        <v>1.758</v>
+        <v>1.741</v>
       </c>
       <c r="P521" t="n">
         <v>2.001</v>
@@ -31260,7 +31260,7 @@
         <v>1.349</v>
       </c>
       <c r="O522" t="n">
-        <v>1.416</v>
+        <v>1.394</v>
       </c>
       <c r="P522" t="n">
         <v>1.687</v>
@@ -31319,7 +31319,7 @@
         <v>1.471</v>
       </c>
       <c r="O523" t="n">
-        <v>1.533</v>
+        <v>1.553</v>
       </c>
       <c r="P523" t="n">
         <v>1.803</v>
@@ -31378,7 +31378,7 @@
         <v>1.522</v>
       </c>
       <c r="O524" t="n">
-        <v>1.589</v>
+        <v>1.587</v>
       </c>
       <c r="P524" t="n">
         <v>1.842</v>
@@ -31437,7 +31437,7 @@
         <v>1.459</v>
       </c>
       <c r="O525" t="n">
-        <v>1.523</v>
+        <v>1.533</v>
       </c>
       <c r="P525" t="n">
         <v>1.779</v>
@@ -31496,7 +31496,7 @@
         <v>1.538</v>
       </c>
       <c r="O526" t="n">
-        <v>1.601</v>
+        <v>1.597</v>
       </c>
       <c r="P526" t="n">
         <v>1.844</v>
@@ -31745,6 +31745,65 @@
       </c>
       <c r="S530" t="n">
         <v>2.758</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B531" t="n">
+        <v>-0.598</v>
+      </c>
+      <c r="C531" t="n">
+        <v>-0.645</v>
+      </c>
+      <c r="D531" t="n">
+        <v>-0.574</v>
+      </c>
+      <c r="E531" t="n">
+        <v>-0.395</v>
+      </c>
+      <c r="F531" t="n">
+        <v>-0.48</v>
+      </c>
+      <c r="G531" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="H531" t="n">
+        <v>0.695</v>
+      </c>
+      <c r="I531" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="J531" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="K531" t="n">
+        <v>1.338</v>
+      </c>
+      <c r="L531" t="n">
+        <v>1.525</v>
+      </c>
+      <c r="M531" t="n">
+        <v>1.793</v>
+      </c>
+      <c r="N531" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="O531" t="n">
+        <v>1.966</v>
+      </c>
+      <c r="P531" t="n">
+        <v>2.179</v>
+      </c>
+      <c r="Q531" t="n">
+        <v>2.354</v>
+      </c>
+      <c r="R531" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="S531" t="n">
+        <v>2.829</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S531"/>
+  <dimension ref="A1:S532"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31614,7 +31614,7 @@
         <v>1.604</v>
       </c>
       <c r="O528" t="n">
-        <v>1.668</v>
+        <v>1.672</v>
       </c>
       <c r="P528" t="n">
         <v>1.93</v>
@@ -31673,7 +31673,7 @@
         <v>1.865</v>
       </c>
       <c r="O529" t="n">
-        <v>1.919</v>
+        <v>1.908</v>
       </c>
       <c r="P529" t="n">
         <v>2.145</v>
@@ -31804,6 +31804,65 @@
       </c>
       <c r="S531" t="n">
         <v>2.829</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="2" t="n">
+        <v>44635</v>
+      </c>
+      <c r="B532" t="n">
+        <v>-0.708</v>
+      </c>
+      <c r="C532" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="D532" t="n">
+        <v>-0.577</v>
+      </c>
+      <c r="E532" t="n">
+        <v>-0.401</v>
+      </c>
+      <c r="F532" t="n">
+        <v>-0.459</v>
+      </c>
+      <c r="G532" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="H532" t="n">
+        <v>0.627</v>
+      </c>
+      <c r="I532" t="n">
+        <v>0.931</v>
+      </c>
+      <c r="J532" t="n">
+        <v>1.003</v>
+      </c>
+      <c r="K532" t="n">
+        <v>1.271</v>
+      </c>
+      <c r="L532" t="n">
+        <v>1.463</v>
+      </c>
+      <c r="M532" t="n">
+        <v>1.733</v>
+      </c>
+      <c r="N532" t="n">
+        <v>1.855</v>
+      </c>
+      <c r="O532" t="n">
+        <v>1.908</v>
+      </c>
+      <c r="P532" t="n">
+        <v>2.141</v>
+      </c>
+      <c r="Q532" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="R532" t="n">
+        <v>2.458</v>
+      </c>
+      <c r="S532" t="n">
+        <v>2.813</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S532"/>
+  <dimension ref="A1:S533"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31865,6 +31865,65 @@
         <v>2.813</v>
       </c>
     </row>
+    <row r="533">
+      <c r="A533" s="2" t="n">
+        <v>44636</v>
+      </c>
+      <c r="B533" t="n">
+        <v>-0.6889999999999999</v>
+      </c>
+      <c r="C533" t="n">
+        <v>-0.676</v>
+      </c>
+      <c r="D533" t="n">
+        <v>-0.5679999999999999</v>
+      </c>
+      <c r="E533" t="n">
+        <v>-0.349</v>
+      </c>
+      <c r="F533" t="n">
+        <v>-0.465</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.093</v>
+      </c>
+      <c r="H533" t="n">
+        <v>0.628</v>
+      </c>
+      <c r="I533" t="n">
+        <v>0.927</v>
+      </c>
+      <c r="J533" t="n">
+        <v>1.002</v>
+      </c>
+      <c r="K533" t="n">
+        <v>1.272</v>
+      </c>
+      <c r="L533" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M533" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="N533" t="n">
+        <v>1.851</v>
+      </c>
+      <c r="O533" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="P533" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="Q533" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="R533" t="n">
+        <v>2.445</v>
+      </c>
+      <c r="S533" t="n">
+        <v>2.805</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S533"/>
+  <dimension ref="A1:S534"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31924,6 +31924,65 @@
         <v>2.805</v>
       </c>
     </row>
+    <row r="534">
+      <c r="A534" s="2" t="n">
+        <v>44637</v>
+      </c>
+      <c r="B534" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="C534" t="n">
+        <v>-0.671</v>
+      </c>
+      <c r="D534" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="E534" t="n">
+        <v>-0.409</v>
+      </c>
+      <c r="F534" t="n">
+        <v>-0.47</v>
+      </c>
+      <c r="G534" t="n">
+        <v>0.106</v>
+      </c>
+      <c r="H534" t="n">
+        <v>0.639</v>
+      </c>
+      <c r="I534" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="J534" t="n">
+        <v>1.011</v>
+      </c>
+      <c r="K534" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="L534" t="n">
+        <v>1.468</v>
+      </c>
+      <c r="M534" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="N534" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="O534" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="P534" t="n">
+        <v>2.137</v>
+      </c>
+      <c r="Q534" t="n">
+        <v>2.323</v>
+      </c>
+      <c r="R534" t="n">
+        <v>2.444</v>
+      </c>
+      <c r="S534" t="n">
+        <v>2.803</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S534"/>
+  <dimension ref="A1:S535"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31983,6 +31983,65 @@
         <v>2.803</v>
       </c>
     </row>
+    <row r="535">
+      <c r="A535" s="2" t="n">
+        <v>44638</v>
+      </c>
+      <c r="B535" t="n">
+        <v>-0.73</v>
+      </c>
+      <c r="C535" t="n">
+        <v>-0.666</v>
+      </c>
+      <c r="D535" t="n">
+        <v>-0.579</v>
+      </c>
+      <c r="E535" t="n">
+        <v>-0.447</v>
+      </c>
+      <c r="F535" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.077</v>
+      </c>
+      <c r="H535" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="I535" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="J535" t="n">
+        <v>0.985</v>
+      </c>
+      <c r="K535" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="L535" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="M535" t="n">
+        <v>1.713</v>
+      </c>
+      <c r="N535" t="n">
+        <v>1.835</v>
+      </c>
+      <c r="O535" t="n">
+        <v>1.884</v>
+      </c>
+      <c r="P535" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="Q535" t="n">
+        <v>2.306</v>
+      </c>
+      <c r="R535" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="S535" t="n">
+        <v>2.799</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S535"/>
+  <dimension ref="A1:S536"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32042,6 +32042,65 @@
         <v>2.799</v>
       </c>
     </row>
+    <row r="536">
+      <c r="A536" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B536" t="n">
+        <v>-0.709</v>
+      </c>
+      <c r="C536" t="n">
+        <v>-0.647</v>
+      </c>
+      <c r="D536" t="n">
+        <v>-0.576</v>
+      </c>
+      <c r="E536" t="n">
+        <v>-0.429</v>
+      </c>
+      <c r="F536" t="n">
+        <v>-0.458</v>
+      </c>
+      <c r="G536" t="n">
+        <v>0.119</v>
+      </c>
+      <c r="H536" t="n">
+        <v>0.664</v>
+      </c>
+      <c r="I536" t="n">
+        <v>0.969</v>
+      </c>
+      <c r="J536" t="n">
+        <v>1.047</v>
+      </c>
+      <c r="K536" t="n">
+        <v>1.321</v>
+      </c>
+      <c r="L536" t="n">
+        <v>1.519</v>
+      </c>
+      <c r="M536" t="n">
+        <v>1.798</v>
+      </c>
+      <c r="N536" t="n">
+        <v>1.924</v>
+      </c>
+      <c r="O536" t="n">
+        <v>1.974</v>
+      </c>
+      <c r="P536" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="Q536" t="n">
+        <v>2.393</v>
+      </c>
+      <c r="R536" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="S536" t="n">
+        <v>2.863</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S536"/>
+  <dimension ref="A1:S537"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32101,6 +32101,65 @@
         <v>2.863</v>
       </c>
     </row>
+    <row r="537">
+      <c r="A537" s="2" t="n">
+        <v>44642</v>
+      </c>
+      <c r="B537" t="n">
+        <v>-0.735</v>
+      </c>
+      <c r="C537" t="n">
+        <v>-0.641</v>
+      </c>
+      <c r="D537" t="n">
+        <v>-0.571</v>
+      </c>
+      <c r="E537" t="n">
+        <v>-0.429</v>
+      </c>
+      <c r="F537" t="n">
+        <v>-0.446</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.173</v>
+      </c>
+      <c r="H537" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="I537" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="J537" t="n">
+        <v>1.113</v>
+      </c>
+      <c r="K537" t="n">
+        <v>1.387</v>
+      </c>
+      <c r="L537" t="n">
+        <v>1.583</v>
+      </c>
+      <c r="M537" t="n">
+        <v>1.861</v>
+      </c>
+      <c r="N537" t="n">
+        <v>1.986</v>
+      </c>
+      <c r="O537" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="P537" t="n">
+        <v>2.227</v>
+      </c>
+      <c r="Q537" t="n">
+        <v>2.421</v>
+      </c>
+      <c r="R537" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="S537" t="n">
+        <v>2.855</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S537"/>
+  <dimension ref="A1:S538"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32160,6 +32160,65 @@
         <v>2.855</v>
       </c>
     </row>
+    <row r="538">
+      <c r="A538" s="2" t="n">
+        <v>44643</v>
+      </c>
+      <c r="B538" t="n">
+        <v>-0.726</v>
+      </c>
+      <c r="C538" t="n">
+        <v>-0.666</v>
+      </c>
+      <c r="D538" t="n">
+        <v>-0.573</v>
+      </c>
+      <c r="E538" t="n">
+        <v>-0.431</v>
+      </c>
+      <c r="F538" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="G538" t="n">
+        <v>0.146</v>
+      </c>
+      <c r="H538" t="n">
+        <v>0.708</v>
+      </c>
+      <c r="I538" t="n">
+        <v>1.009</v>
+      </c>
+      <c r="J538" t="n">
+        <v>1.087</v>
+      </c>
+      <c r="K538" t="n">
+        <v>1.353</v>
+      </c>
+      <c r="L538" t="n">
+        <v>1.549</v>
+      </c>
+      <c r="M538" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="N538" t="n">
+        <v>1.948</v>
+      </c>
+      <c r="O538" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="P538" t="n">
+        <v>2.186</v>
+      </c>
+      <c r="Q538" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="R538" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="S538" t="n">
+        <v>2.869</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S538"/>
+  <dimension ref="A1:S539"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32171,7 +32171,7 @@
         <v>-0.666</v>
       </c>
       <c r="D538" t="n">
-        <v>-0.573</v>
+        <v>-0.5669999999999999</v>
       </c>
       <c r="E538" t="n">
         <v>-0.431</v>
@@ -32216,6 +32216,65 @@
         <v>2.471</v>
       </c>
       <c r="S538" t="n">
+        <v>2.869</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="2" t="n">
+        <v>44644</v>
+      </c>
+      <c r="B539" t="n">
+        <v>-0.695</v>
+      </c>
+      <c r="C539" t="n">
+        <v>-0.66</v>
+      </c>
+      <c r="D539" t="n">
+        <v>-0.5659999999999999</v>
+      </c>
+      <c r="E539" t="n">
+        <v>-0.425</v>
+      </c>
+      <c r="F539" t="n">
+        <v>-0.441</v>
+      </c>
+      <c r="G539" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H539" t="n">
+        <v>0.768</v>
+      </c>
+      <c r="I539" t="n">
+        <v>1.064</v>
+      </c>
+      <c r="J539" t="n">
+        <v>1.138</v>
+      </c>
+      <c r="K539" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="L539" t="n">
+        <v>1.604</v>
+      </c>
+      <c r="M539" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="N539" t="n">
+        <v>2.003</v>
+      </c>
+      <c r="O539" t="n">
+        <v>2.052</v>
+      </c>
+      <c r="P539" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Q539" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="R539" t="n">
+        <v>2.507</v>
+      </c>
+      <c r="S539" t="n">
         <v>2.869</v>
       </c>
     </row>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S539"/>
+  <dimension ref="A1:S540"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32278,6 +32278,65 @@
         <v>2.869</v>
       </c>
     </row>
+    <row r="540">
+      <c r="A540" s="2" t="n">
+        <v>44645</v>
+      </c>
+      <c r="B540" t="n">
+        <v>-0.725</v>
+      </c>
+      <c r="C540" t="n">
+        <v>-0.617</v>
+      </c>
+      <c r="D540" t="n">
+        <v>-0.5629999999999999</v>
+      </c>
+      <c r="E540" t="n">
+        <v>-0.407</v>
+      </c>
+      <c r="F540" t="n">
+        <v>-0.443</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.202</v>
+      </c>
+      <c r="H540" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="I540" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="J540" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="K540" t="n">
+        <v>1.433</v>
+      </c>
+      <c r="L540" t="n">
+        <v>1.626</v>
+      </c>
+      <c r="M540" t="n">
+        <v>1.902</v>
+      </c>
+      <c r="N540" t="n">
+        <v>2.026</v>
+      </c>
+      <c r="O540" t="n">
+        <v>2.074</v>
+      </c>
+      <c r="P540" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q540" t="n">
+        <v>2.436</v>
+      </c>
+      <c r="R540" t="n">
+        <v>2.522</v>
+      </c>
+      <c r="S540" t="n">
+        <v>2.881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S540"/>
+  <dimension ref="A1:S541"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32337,6 +32337,65 @@
         <v>2.881</v>
       </c>
     </row>
+    <row r="541">
+      <c r="A541" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B541" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="C541" t="n">
+        <v>-0.664</v>
+      </c>
+      <c r="D541" t="n">
+        <v>-0.512</v>
+      </c>
+      <c r="E541" t="n">
+        <v>-0.349</v>
+      </c>
+      <c r="F541" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="H541" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="I541" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="J541" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K541" t="n">
+        <v>1.495</v>
+      </c>
+      <c r="L541" t="n">
+        <v>1.673</v>
+      </c>
+      <c r="M541" t="n">
+        <v>1.936</v>
+      </c>
+      <c r="N541" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="O541" t="n">
+        <v>2.107</v>
+      </c>
+      <c r="P541" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="Q541" t="n">
+        <v>2.442</v>
+      </c>
+      <c r="R541" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="S541" t="n">
+        <v>2.881</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S541"/>
+  <dimension ref="A1:S542"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32396,6 +32396,65 @@
         <v>2.881</v>
       </c>
     </row>
+    <row r="542">
+      <c r="A542" s="2" t="n">
+        <v>44649</v>
+      </c>
+      <c r="B542" t="n">
+        <v>-0.699</v>
+      </c>
+      <c r="C542" t="n">
+        <v>-0.623</v>
+      </c>
+      <c r="D542" t="n">
+        <v>-0.504</v>
+      </c>
+      <c r="E542" t="n">
+        <v>-0.352</v>
+      </c>
+      <c r="F542" t="n">
+        <v>-0.374</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.303</v>
+      </c>
+      <c r="H542" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="I542" t="n">
+        <v>1.213</v>
+      </c>
+      <c r="J542" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="K542" t="n">
+        <v>1.558</v>
+      </c>
+      <c r="L542" t="n">
+        <v>1.724</v>
+      </c>
+      <c r="M542" t="n">
+        <v>1.971</v>
+      </c>
+      <c r="N542" t="n">
+        <v>2.084</v>
+      </c>
+      <c r="O542" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="P542" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="Q542" t="n">
+        <v>2.432</v>
+      </c>
+      <c r="R542" t="n">
+        <v>2.519</v>
+      </c>
+      <c r="S542" t="n">
+        <v>2.89</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S542"/>
+  <dimension ref="A1:S543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32455,6 +32455,65 @@
         <v>2.89</v>
       </c>
     </row>
+    <row r="543">
+      <c r="A543" s="2" t="n">
+        <v>44650</v>
+      </c>
+      <c r="B543" t="n">
+        <v>-0.661</v>
+      </c>
+      <c r="C543" t="n">
+        <v>-0.591</v>
+      </c>
+      <c r="D543" t="n">
+        <v>-0.453</v>
+      </c>
+      <c r="E543" t="n">
+        <v>-0.321</v>
+      </c>
+      <c r="F543" t="n">
+        <v>-0.351</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="H543" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="I543" t="n">
+        <v>1.291</v>
+      </c>
+      <c r="J543" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="K543" t="n">
+        <v>1.618</v>
+      </c>
+      <c r="L543" t="n">
+        <v>1.765</v>
+      </c>
+      <c r="M543" t="n">
+        <v>1.991</v>
+      </c>
+      <c r="N543" t="n">
+        <v>2.096</v>
+      </c>
+      <c r="O543" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="P543" t="n">
+        <v>2.273</v>
+      </c>
+      <c r="Q543" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="R543" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="S543" t="n">
+        <v>2.874</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S543"/>
+  <dimension ref="A1:S544"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32514,6 +32514,65 @@
         <v>2.874</v>
       </c>
     </row>
+    <row r="544">
+      <c r="A544" s="2" t="n">
+        <v>44651</v>
+      </c>
+      <c r="B544" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="C544" t="n">
+        <v>-0.588</v>
+      </c>
+      <c r="D544" t="n">
+        <v>-0.458</v>
+      </c>
+      <c r="E544" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="F544" t="n">
+        <v>-0.395</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.309</v>
+      </c>
+      <c r="H544" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="I544" t="n">
+        <v>1.187</v>
+      </c>
+      <c r="J544" t="n">
+        <v>1.264</v>
+      </c>
+      <c r="K544" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="L544" t="n">
+        <v>1.665</v>
+      </c>
+      <c r="M544" t="n">
+        <v>1.891</v>
+      </c>
+      <c r="N544" t="n">
+        <v>1.997</v>
+      </c>
+      <c r="O544" t="n">
+        <v>2.044</v>
+      </c>
+      <c r="P544" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="Q544" t="n">
+        <v>2.356</v>
+      </c>
+      <c r="R544" t="n">
+        <v>2.424</v>
+      </c>
+      <c r="S544" t="n">
+        <v>2.821</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S544"/>
+  <dimension ref="A1:S545"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32573,6 +32573,65 @@
         <v>2.821</v>
       </c>
     </row>
+    <row r="545">
+      <c r="A545" s="2" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B545" t="n">
+        <v>-0.735</v>
+      </c>
+      <c r="C545" t="n">
+        <v>-0.621</v>
+      </c>
+      <c r="D545" t="n">
+        <v>-0.506</v>
+      </c>
+      <c r="E545" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="F545" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="G545" t="n">
+        <v>0.351</v>
+      </c>
+      <c r="H545" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="I545" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="J545" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="K545" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="L545" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="M545" t="n">
+        <v>1.953</v>
+      </c>
+      <c r="N545" t="n">
+        <v>2.062</v>
+      </c>
+      <c r="O545" t="n">
+        <v>2.109</v>
+      </c>
+      <c r="P545" t="n">
+        <v>2.272</v>
+      </c>
+      <c r="Q545" t="n">
+        <v>2.431</v>
+      </c>
+      <c r="R545" t="n">
+        <v>2.509</v>
+      </c>
+      <c r="S545" t="n">
+        <v>2.826</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -31791,7 +31791,7 @@
         <v>1.912</v>
       </c>
       <c r="O531" t="n">
-        <v>1.966</v>
+        <v>1.968</v>
       </c>
       <c r="P531" t="n">
         <v>2.179</v>
@@ -31850,7 +31850,7 @@
         <v>1.855</v>
       </c>
       <c r="O532" t="n">
-        <v>1.908</v>
+        <v>1.907</v>
       </c>
       <c r="P532" t="n">
         <v>2.141</v>
@@ -31909,7 +31909,7 @@
         <v>1.851</v>
       </c>
       <c r="O533" t="n">
-        <v>1.902</v>
+        <v>1.899</v>
       </c>
       <c r="P533" t="n">
         <v>2.128</v>
@@ -31968,7 +31968,7 @@
         <v>1.86</v>
       </c>
       <c r="O534" t="n">
-        <v>1.91</v>
+        <v>1.905</v>
       </c>
       <c r="P534" t="n">
         <v>2.137</v>
@@ -32027,7 +32027,7 @@
         <v>1.835</v>
       </c>
       <c r="O535" t="n">
-        <v>1.884</v>
+        <v>1.89</v>
       </c>
       <c r="P535" t="n">
         <v>2.105</v>
@@ -32086,7 +32086,7 @@
         <v>1.924</v>
       </c>
       <c r="O536" t="n">
-        <v>1.974</v>
+        <v>1.994</v>
       </c>
       <c r="P536" t="n">
         <v>2.191</v>
@@ -32145,7 +32145,7 @@
         <v>1.986</v>
       </c>
       <c r="O537" t="n">
-        <v>2.037</v>
+        <v>2.028</v>
       </c>
       <c r="P537" t="n">
         <v>2.227</v>
@@ -32204,7 +32204,7 @@
         <v>1.948</v>
       </c>
       <c r="O538" t="n">
-        <v>1.997</v>
+        <v>1.993</v>
       </c>
       <c r="P538" t="n">
         <v>2.186</v>
@@ -32263,7 +32263,7 @@
         <v>2.003</v>
       </c>
       <c r="O539" t="n">
-        <v>2.052</v>
+        <v>2.056</v>
       </c>
       <c r="P539" t="n">
         <v>2.23</v>
@@ -32322,7 +32322,7 @@
         <v>2.026</v>
       </c>
       <c r="O540" t="n">
-        <v>2.074</v>
+        <v>2.078</v>
       </c>
       <c r="P540" t="n">
         <v>2.25</v>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S545"/>
+  <dimension ref="A1:S546"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32440,7 +32440,7 @@
         <v>2.084</v>
       </c>
       <c r="O542" t="n">
-        <v>2.128</v>
+        <v>2.132</v>
       </c>
       <c r="P542" t="n">
         <v>2.277</v>
@@ -32499,7 +32499,7 @@
         <v>2.096</v>
       </c>
       <c r="O543" t="n">
-        <v>2.144</v>
+        <v>2.133</v>
       </c>
       <c r="P543" t="n">
         <v>2.273</v>
@@ -32558,7 +32558,7 @@
         <v>1.997</v>
       </c>
       <c r="O544" t="n">
-        <v>2.044</v>
+        <v>2.042</v>
       </c>
       <c r="P544" t="n">
         <v>2.191</v>
@@ -32617,7 +32617,7 @@
         <v>2.062</v>
       </c>
       <c r="O545" t="n">
-        <v>2.109</v>
+        <v>2.097</v>
       </c>
       <c r="P545" t="n">
         <v>2.272</v>
@@ -32630,6 +32630,65 @@
       </c>
       <c r="S545" t="n">
         <v>2.826</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B546" t="n">
+        <v>-0.734</v>
+      </c>
+      <c r="C546" t="n">
+        <v>-0.609</v>
+      </c>
+      <c r="D546" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="E546" t="n">
+        <v>-0.323</v>
+      </c>
+      <c r="F546" t="n">
+        <v>-0.332</v>
+      </c>
+      <c r="G546" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="H546" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="I546" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="J546" t="n">
+        <v>1.296</v>
+      </c>
+      <c r="K546" t="n">
+        <v>1.553</v>
+      </c>
+      <c r="L546" t="n">
+        <v>1.698</v>
+      </c>
+      <c r="M546" t="n">
+        <v>1.922</v>
+      </c>
+      <c r="N546" t="n">
+        <v>2.033</v>
+      </c>
+      <c r="O546" t="n">
+        <v>2.076</v>
+      </c>
+      <c r="P546" t="n">
+        <v>2.237</v>
+      </c>
+      <c r="Q546" t="n">
+        <v>2.396</v>
+      </c>
+      <c r="R546" t="n">
+        <v>2.485</v>
+      </c>
+      <c r="S546" t="n">
+        <v>2.833</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S546"/>
+  <dimension ref="A1:S547"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32617,7 +32617,7 @@
         <v>2.062</v>
       </c>
       <c r="O545" t="n">
-        <v>2.097</v>
+        <v>2.109</v>
       </c>
       <c r="P545" t="n">
         <v>2.272</v>
@@ -32676,7 +32676,7 @@
         <v>2.033</v>
       </c>
       <c r="O546" t="n">
-        <v>2.076</v>
+        <v>2.078</v>
       </c>
       <c r="P546" t="n">
         <v>2.237</v>
@@ -32689,6 +32689,65 @@
       </c>
       <c r="S546" t="n">
         <v>2.833</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="2" t="n">
+        <v>44656</v>
+      </c>
+      <c r="B547" t="n">
+        <v>-0.7</v>
+      </c>
+      <c r="C547" t="n">
+        <v>-0.602</v>
+      </c>
+      <c r="D547" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="E547" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="F547" t="n">
+        <v>-0.324</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.421</v>
+      </c>
+      <c r="H547" t="n">
+        <v>1.065</v>
+      </c>
+      <c r="I547" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="J547" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="K547" t="n">
+        <v>1.694</v>
+      </c>
+      <c r="L547" t="n">
+        <v>1.848</v>
+      </c>
+      <c r="M547" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="N547" t="n">
+        <v>2.199</v>
+      </c>
+      <c r="O547" t="n">
+        <v>2.243</v>
+      </c>
+      <c r="P547" t="n">
+        <v>2.387</v>
+      </c>
+      <c r="Q547" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="R547" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="S547" t="n">
+        <v>2.862</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S547"/>
+  <dimension ref="A1:S548"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32750,6 +32750,65 @@
         <v>2.862</v>
       </c>
     </row>
+    <row r="548">
+      <c r="A548" s="2" t="n">
+        <v>44657</v>
+      </c>
+      <c r="B548" t="n">
+        <v>-0.712</v>
+      </c>
+      <c r="C548" t="n">
+        <v>-0.583</v>
+      </c>
+      <c r="D548" t="n">
+        <v>-0.495</v>
+      </c>
+      <c r="E548" t="n">
+        <v>-0.292</v>
+      </c>
+      <c r="F548" t="n">
+        <v>-0.334</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="H548" t="n">
+        <v>1.098</v>
+      </c>
+      <c r="I548" t="n">
+        <v>1.382</v>
+      </c>
+      <c r="J548" t="n">
+        <v>1.473</v>
+      </c>
+      <c r="K548" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="L548" t="n">
+        <v>1.914</v>
+      </c>
+      <c r="M548" t="n">
+        <v>2.161</v>
+      </c>
+      <c r="N548" t="n">
+        <v>2.275</v>
+      </c>
+      <c r="O548" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="P548" t="n">
+        <v>2.467</v>
+      </c>
+      <c r="Q548" t="n">
+        <v>2.652</v>
+      </c>
+      <c r="R548" t="n">
+        <v>2.734</v>
+      </c>
+      <c r="S548" t="n">
+        <v>2.922</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S548"/>
+  <dimension ref="A1:S549"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32809,6 +32809,65 @@
         <v>2.922</v>
       </c>
     </row>
+    <row r="549">
+      <c r="A549" s="2" t="n">
+        <v>44658</v>
+      </c>
+      <c r="B549" t="n">
+        <v>-0.677</v>
+      </c>
+      <c r="C549" t="n">
+        <v>-0.584</v>
+      </c>
+      <c r="D549" t="n">
+        <v>-0.461</v>
+      </c>
+      <c r="E549" t="n">
+        <v>-0.314</v>
+      </c>
+      <c r="F549" t="n">
+        <v>-0.371</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.426</v>
+      </c>
+      <c r="H549" t="n">
+        <v>1.124</v>
+      </c>
+      <c r="I549" t="n">
+        <v>1.408</v>
+      </c>
+      <c r="J549" t="n">
+        <v>1.494</v>
+      </c>
+      <c r="K549" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="L549" t="n">
+        <v>1.937</v>
+      </c>
+      <c r="M549" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="N549" t="n">
+        <v>2.294</v>
+      </c>
+      <c r="O549" t="n">
+        <v>2.339</v>
+      </c>
+      <c r="P549" t="n">
+        <v>2.479</v>
+      </c>
+      <c r="Q549" t="n">
+        <v>2.666</v>
+      </c>
+      <c r="R549" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="S549" t="n">
+        <v>2.987</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S549"/>
+  <dimension ref="A1:S550"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32868,6 +32868,65 @@
         <v>2.987</v>
       </c>
     </row>
+    <row r="550">
+      <c r="A550" s="2" t="n">
+        <v>44659</v>
+      </c>
+      <c r="B550" t="n">
+        <v>-0.797</v>
+      </c>
+      <c r="C550" t="n">
+        <v>-0.571</v>
+      </c>
+      <c r="D550" t="n">
+        <v>-0.449</v>
+      </c>
+      <c r="E550" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="F550" t="n">
+        <v>-0.301</v>
+      </c>
+      <c r="G550" t="n">
+        <v>0.463</v>
+      </c>
+      <c r="H550" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="I550" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="J550" t="n">
+        <v>1.533</v>
+      </c>
+      <c r="K550" t="n">
+        <v>1.804</v>
+      </c>
+      <c r="L550" t="n">
+        <v>1.965</v>
+      </c>
+      <c r="M550" t="n">
+        <v>2.204</v>
+      </c>
+      <c r="N550" t="n">
+        <v>2.316</v>
+      </c>
+      <c r="O550" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="P550" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="Q550" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="R550" t="n">
+        <v>2.737</v>
+      </c>
+      <c r="S550" t="n">
+        <v>2.997</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S550"/>
+  <dimension ref="A1:S551"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -754,7 +754,7 @@
         <v>0.696</v>
       </c>
       <c r="N5" t="n">
-        <v>0.845</v>
+        <v>0.851</v>
       </c>
       <c r="O5" t="n">
         <v>0.982</v>
@@ -1344,7 +1344,7 @@
         <v>1.18</v>
       </c>
       <c r="N15" t="n">
-        <v>1.311</v>
+        <v>1.375</v>
       </c>
       <c r="O15" t="n">
         <v>1.408</v>
@@ -1521,7 +1521,7 @@
         <v>1.557</v>
       </c>
       <c r="N18" t="n">
-        <v>1.678</v>
+        <v>1.767</v>
       </c>
       <c r="O18" t="n">
         <v>1.895</v>
@@ -1757,7 +1757,7 @@
         <v>2.092</v>
       </c>
       <c r="N22" t="n">
-        <v>2.295</v>
+        <v>2.447</v>
       </c>
       <c r="O22" t="n">
         <v>2.495</v>
@@ -1875,7 +1875,7 @@
         <v>1.353</v>
       </c>
       <c r="N24" t="n">
-        <v>1.553</v>
+        <v>1.589</v>
       </c>
       <c r="O24" t="n">
         <v>1.635</v>
@@ -3114,7 +3114,7 @@
         <v>2.039</v>
       </c>
       <c r="N45" t="n">
-        <v>2.115</v>
+        <v>2.14</v>
       </c>
       <c r="O45" t="n">
         <v>1.978</v>
@@ -3881,7 +3881,7 @@
         <v>1.713</v>
       </c>
       <c r="N58" t="n">
-        <v>1.783</v>
+        <v>1.832</v>
       </c>
       <c r="O58" t="n">
         <v>1.839</v>
@@ -4825,7 +4825,7 @@
         <v>1.362</v>
       </c>
       <c r="N74" t="n">
-        <v>1.427</v>
+        <v>1.457</v>
       </c>
       <c r="O74" t="n">
         <v>1.469</v>
@@ -6890,7 +6890,7 @@
         <v>0.946</v>
       </c>
       <c r="N109" t="n">
-        <v>1.005</v>
+        <v>1.033</v>
       </c>
       <c r="O109" t="n">
         <v>1.158</v>
@@ -6949,7 +6949,7 @@
         <v>0.9320000000000001</v>
       </c>
       <c r="N110" t="n">
-        <v>0.992</v>
+        <v>1.009</v>
       </c>
       <c r="O110" t="n">
         <v>1.139</v>
@@ -9899,7 +9899,7 @@
         <v>0.625</v>
       </c>
       <c r="N160" t="n">
-        <v>0.6840000000000001</v>
+        <v>0.716</v>
       </c>
       <c r="O160" t="n">
         <v>0.855</v>
@@ -10135,7 +10135,7 @@
         <v>0.591</v>
       </c>
       <c r="N164" t="n">
-        <v>0.653</v>
+        <v>0.659</v>
       </c>
       <c r="O164" t="n">
         <v>0.8</v>
@@ -10371,7 +10371,7 @@
         <v>0.51</v>
       </c>
       <c r="N168" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.576</v>
       </c>
       <c r="O168" t="n">
         <v>0.714</v>
@@ -10548,7 +10548,7 @@
         <v>0.454</v>
       </c>
       <c r="N171" t="n">
-        <v>0.512</v>
+        <v>0.516</v>
       </c>
       <c r="O171" t="n">
         <v>0.658</v>
@@ -10843,7 +10843,7 @@
         <v>0.57</v>
       </c>
       <c r="N176" t="n">
-        <v>0.633</v>
+        <v>0.632</v>
       </c>
       <c r="O176" t="n">
         <v>0.745</v>
@@ -11256,7 +11256,7 @@
         <v>0.514</v>
       </c>
       <c r="N183" t="n">
-        <v>0.572</v>
+        <v>0.579</v>
       </c>
       <c r="O183" t="n">
         <v>0.718</v>
@@ -11610,7 +11610,7 @@
         <v>0.511</v>
       </c>
       <c r="N189" t="n">
-        <v>0.571</v>
+        <v>0.574</v>
       </c>
       <c r="O189" t="n">
         <v>0.72</v>
@@ -11669,7 +11669,7 @@
         <v>0.519</v>
       </c>
       <c r="N190" t="n">
-        <v>0.581</v>
+        <v>0.582</v>
       </c>
       <c r="O190" t="n">
         <v>0.724</v>
@@ -12200,7 +12200,7 @@
         <v>0.375</v>
       </c>
       <c r="N199" t="n">
-        <v>0.435</v>
+        <v>0.433</v>
       </c>
       <c r="O199" t="n">
         <v>0.596</v>
@@ -13852,7 +13852,7 @@
         <v>0.313</v>
       </c>
       <c r="N227" t="n">
-        <v>0.614</v>
+        <v>0.4</v>
       </c>
       <c r="O227" t="n">
         <v>0.521</v>
@@ -13911,7 +13911,7 @@
         <v>0.301</v>
       </c>
       <c r="N228" t="n">
-        <v>0.614</v>
+        <v>0.4</v>
       </c>
       <c r="O228" t="n">
         <v>0.503</v>
@@ -14029,7 +14029,7 @@
         <v>0.326</v>
       </c>
       <c r="N230" t="n">
-        <v>0.395</v>
+        <v>0.402</v>
       </c>
       <c r="O230" t="n">
         <v>0.532</v>
@@ -14383,7 +14383,7 @@
         <v>0.352</v>
       </c>
       <c r="N236" t="n">
-        <v>0.422</v>
+        <v>0.428</v>
       </c>
       <c r="O236" t="n">
         <v>0.5570000000000001</v>
@@ -14619,7 +14619,7 @@
         <v>0.351</v>
       </c>
       <c r="N240" t="n">
-        <v>0.422</v>
+        <v>0.424</v>
       </c>
       <c r="O240" t="n">
         <v>0.5600000000000001</v>
@@ -14678,7 +14678,7 @@
         <v>0.376</v>
       </c>
       <c r="N241" t="n">
-        <v>0.449</v>
+        <v>0.448</v>
       </c>
       <c r="O241" t="n">
         <v>0.585</v>
@@ -14737,7 +14737,7 @@
         <v>0.45</v>
       </c>
       <c r="N242" t="n">
-        <v>0.521</v>
+        <v>0.516</v>
       </c>
       <c r="O242" t="n">
         <v>0.654</v>
@@ -14796,7 +14796,7 @@
         <v>0.502</v>
       </c>
       <c r="N243" t="n">
-        <v>0.572</v>
+        <v>0.578</v>
       </c>
       <c r="O243" t="n">
         <v>0.714</v>
@@ -14855,7 +14855,7 @@
         <v>0.444</v>
       </c>
       <c r="N244" t="n">
-        <v>0.514</v>
+        <v>0.512</v>
       </c>
       <c r="O244" t="n">
         <v>0.647</v>
@@ -14914,7 +14914,7 @@
         <v>0.408</v>
       </c>
       <c r="N245" t="n">
-        <v>0.477</v>
+        <v>0.481</v>
       </c>
       <c r="O245" t="n">
         <v>0.617</v>
@@ -14973,7 +14973,7 @@
         <v>0.407</v>
       </c>
       <c r="N246" t="n">
-        <v>0.478</v>
+        <v>0.486</v>
       </c>
       <c r="O246" t="n">
         <v>0.621</v>
@@ -15032,7 +15032,7 @@
         <v>0.47</v>
       </c>
       <c r="N247" t="n">
-        <v>0.607</v>
+        <v>0.603</v>
       </c>
       <c r="O247" t="n">
         <v>0.639</v>
@@ -15091,7 +15091,7 @@
         <v>0.477</v>
       </c>
       <c r="N248" t="n">
-        <v>0.614</v>
+        <v>0.609</v>
       </c>
       <c r="O248" t="n">
         <v>0.643</v>
@@ -15209,7 +15209,7 @@
         <v>0.482</v>
       </c>
       <c r="N250" t="n">
-        <v>0.619</v>
+        <v>0.622</v>
       </c>
       <c r="O250" t="n">
         <v>0.656</v>
@@ -15268,7 +15268,7 @@
         <v>0.417</v>
       </c>
       <c r="N251" t="n">
-        <v>0.555</v>
+        <v>0.552</v>
       </c>
       <c r="O251" t="n">
         <v>0.586</v>
@@ -15327,7 +15327,7 @@
         <v>0.38</v>
       </c>
       <c r="N252" t="n">
-        <v>0.519</v>
+        <v>0.515</v>
       </c>
       <c r="O252" t="n">
         <v>0.548</v>
@@ -15386,7 +15386,7 @@
         <v>0.37</v>
       </c>
       <c r="N253" t="n">
-        <v>0.51</v>
+        <v>0.509</v>
       </c>
       <c r="O253" t="n">
         <v>0.543</v>
@@ -15445,7 +15445,7 @@
         <v>0.345</v>
       </c>
       <c r="N254" t="n">
-        <v>0.481</v>
+        <v>0.476</v>
       </c>
       <c r="O254" t="n">
         <v>0.511</v>
@@ -15504,7 +15504,7 @@
         <v>0.342</v>
       </c>
       <c r="N255" t="n">
-        <v>0.478</v>
+        <v>0.482</v>
       </c>
       <c r="O255" t="n">
         <v>0.517</v>
@@ -15563,7 +15563,7 @@
         <v>0.334</v>
       </c>
       <c r="N256" t="n">
-        <v>0.47</v>
+        <v>0.471</v>
       </c>
       <c r="O256" t="n">
         <v>0.505</v>
@@ -15622,7 +15622,7 @@
         <v>0.289</v>
       </c>
       <c r="N257" t="n">
-        <v>0.425</v>
+        <v>0.42</v>
       </c>
       <c r="O257" t="n">
         <v>0.454</v>
@@ -15681,7 +15681,7 @@
         <v>0.317</v>
       </c>
       <c r="N258" t="n">
-        <v>0.454</v>
+        <v>0.451</v>
       </c>
       <c r="O258" t="n">
         <v>0.486</v>
@@ -15799,7 +15799,7 @@
         <v>0.391</v>
       </c>
       <c r="N260" t="n">
-        <v>0.532</v>
+        <v>0.535</v>
       </c>
       <c r="O260" t="n">
         <v>0.569</v>
@@ -15917,7 +15917,7 @@
         <v>0.481</v>
       </c>
       <c r="N262" t="n">
-        <v>0.622</v>
+        <v>0.623</v>
       </c>
       <c r="O262" t="n">
         <v>0.655</v>
@@ -15976,7 +15976,7 @@
         <v>0.447</v>
       </c>
       <c r="N263" t="n">
-        <v>0.587</v>
+        <v>0.588</v>
       </c>
       <c r="O263" t="n">
         <v>0.625</v>
@@ -16035,7 +16035,7 @@
         <v>0.422</v>
       </c>
       <c r="N264" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="O264" t="n">
         <v>0.599</v>
@@ -16094,7 +16094,7 @@
         <v>0.47</v>
       </c>
       <c r="N265" t="n">
-        <v>0.608</v>
+        <v>0.609</v>
       </c>
       <c r="O265" t="n">
         <v>0.646</v>
@@ -16153,7 +16153,7 @@
         <v>0.511</v>
       </c>
       <c r="N266" t="n">
-        <v>0.653</v>
+        <v>0.655</v>
       </c>
       <c r="O266" t="n">
         <v>0.697</v>
@@ -16212,7 +16212,7 @@
         <v>0.502</v>
       </c>
       <c r="N267" t="n">
-        <v>0.647</v>
+        <v>0.649</v>
       </c>
       <c r="O267" t="n">
         <v>0.6860000000000001</v>
@@ -16271,7 +16271,7 @@
         <v>0.5659999999999999</v>
       </c>
       <c r="N268" t="n">
-        <v>0.713</v>
+        <v>0.72</v>
       </c>
       <c r="O268" t="n">
         <v>0.759</v>
@@ -16448,7 +16448,7 @@
         <v>0.57</v>
       </c>
       <c r="N271" t="n">
-        <v>0.715</v>
+        <v>0.722</v>
       </c>
       <c r="O271" t="n">
         <v>0.762</v>
@@ -16507,7 +16507,7 @@
         <v>0.518</v>
       </c>
       <c r="N272" t="n">
-        <v>0.663</v>
+        <v>0.665</v>
       </c>
       <c r="O272" t="n">
         <v>0.699</v>
@@ -16566,7 +16566,7 @@
         <v>0.499</v>
       </c>
       <c r="N273" t="n">
-        <v>0.646</v>
+        <v>0.647</v>
       </c>
       <c r="O273" t="n">
         <v>0.6820000000000001</v>
@@ -16625,7 +16625,7 @@
         <v>0.414</v>
       </c>
       <c r="N274" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.572</v>
       </c>
       <c r="O274" t="n">
         <v>0.607</v>
@@ -16684,7 +16684,7 @@
         <v>0.457</v>
       </c>
       <c r="N275" t="n">
-        <v>0.601</v>
+        <v>0.594</v>
       </c>
       <c r="O275" t="n">
         <v>0.632</v>
@@ -16802,7 +16802,7 @@
         <v>0.44</v>
       </c>
       <c r="N277" t="n">
-        <v>0.582</v>
+        <v>0.583</v>
       </c>
       <c r="O277" t="n">
         <v>0.627</v>
@@ -16861,7 +16861,7 @@
         <v>0.517</v>
       </c>
       <c r="N278" t="n">
-        <v>0.662</v>
+        <v>0.664</v>
       </c>
       <c r="O278" t="n">
         <v>0.701</v>
@@ -16920,7 +16920,7 @@
         <v>0.504</v>
       </c>
       <c r="N279" t="n">
-        <v>0.652</v>
+        <v>0.655</v>
       </c>
       <c r="O279" t="n">
         <v>0.6919999999999999</v>
@@ -16979,7 +16979,7 @@
         <v>0.486</v>
       </c>
       <c r="N280" t="n">
-        <v>0.635</v>
+        <v>0.636</v>
       </c>
       <c r="O280" t="n">
         <v>0.672</v>
@@ -17038,7 +17038,7 @@
         <v>0.468</v>
       </c>
       <c r="N281" t="n">
-        <v>0.617</v>
+        <v>0.612</v>
       </c>
       <c r="O281" t="n">
         <v>0.648</v>
@@ -17215,7 +17215,7 @@
         <v>0.393</v>
       </c>
       <c r="N284" t="n">
-        <v>0.547</v>
+        <v>0.544</v>
       </c>
       <c r="O284" t="n">
         <v>0.578</v>
@@ -17333,7 +17333,7 @@
         <v>0.449</v>
       </c>
       <c r="N286" t="n">
-        <v>0.607</v>
+        <v>0.605</v>
       </c>
       <c r="O286" t="n">
         <v>0.641</v>
@@ -17451,7 +17451,7 @@
         <v>0.503</v>
       </c>
       <c r="N288" t="n">
-        <v>0.662</v>
+        <v>0.661</v>
       </c>
       <c r="O288" t="n">
         <v>0.699</v>
@@ -17510,7 +17510,7 @@
         <v>0.511</v>
       </c>
       <c r="N289" t="n">
-        <v>0.667</v>
+        <v>0.661</v>
       </c>
       <c r="O289" t="n">
         <v>0.701</v>
@@ -17569,7 +17569,7 @@
         <v>0.474</v>
       </c>
       <c r="N290" t="n">
-        <v>0.629</v>
+        <v>0.627</v>
       </c>
       <c r="O290" t="n">
         <v>0.666</v>
@@ -17628,7 +17628,7 @@
         <v>0.546</v>
       </c>
       <c r="N291" t="n">
-        <v>0.701</v>
+        <v>0.699</v>
       </c>
       <c r="O291" t="n">
         <v>0.737</v>
@@ -17687,7 +17687,7 @@
         <v>0.546</v>
       </c>
       <c r="N292" t="n">
-        <v>0.701</v>
+        <v>0.702</v>
       </c>
       <c r="O292" t="n">
         <v>0.739</v>
@@ -17746,7 +17746,7 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="N293" t="n">
-        <v>0.72</v>
+        <v>0.709</v>
       </c>
       <c r="O293" t="n">
         <v>0.746</v>
@@ -17923,7 +17923,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="N296" t="n">
-        <v>0.717</v>
+        <v>0.713</v>
       </c>
       <c r="O296" t="n">
         <v>0.748</v>
@@ -17982,7 +17982,7 @@
         <v>0.596</v>
       </c>
       <c r="N297" t="n">
-        <v>0.755</v>
+        <v>0.756</v>
       </c>
       <c r="O297" t="n">
         <v>0.793</v>
@@ -18100,7 +18100,7 @@
         <v>0.5669999999999999</v>
       </c>
       <c r="N299" t="n">
-        <v>0.722</v>
+        <v>0.719</v>
       </c>
       <c r="O299" t="n">
         <v>0.756</v>
@@ -18218,7 +18218,7 @@
         <v>0.591</v>
       </c>
       <c r="N301" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="O301" t="n">
         <v>0.784</v>
@@ -18277,7 +18277,7 @@
         <v>0.608</v>
       </c>
       <c r="N302" t="n">
-        <v>0.765</v>
+        <v>0.766</v>
       </c>
       <c r="O302" t="n">
         <v>0.8</v>
@@ -18336,7 +18336,7 @@
         <v>0.631</v>
       </c>
       <c r="N303" t="n">
-        <v>0.789</v>
+        <v>0.788</v>
       </c>
       <c r="O303" t="n">
         <v>0.822</v>
@@ -18395,7 +18395,7 @@
         <v>0.637</v>
       </c>
       <c r="N304" t="n">
-        <v>0.796</v>
+        <v>0.797</v>
       </c>
       <c r="O304" t="n">
         <v>0.831</v>
@@ -18454,7 +18454,7 @@
         <v>0.676</v>
       </c>
       <c r="N305" t="n">
-        <v>0.839</v>
+        <v>0.84</v>
       </c>
       <c r="O305" t="n">
         <v>0.876</v>
@@ -18513,7 +18513,7 @@
         <v>0.666</v>
       </c>
       <c r="N306" t="n">
-        <v>0.83</v>
+        <v>0.825</v>
       </c>
       <c r="O306" t="n">
         <v>0.86</v>
@@ -18572,7 +18572,7 @@
         <v>0.64</v>
       </c>
       <c r="N307" t="n">
-        <v>0.803</v>
+        <v>0.796</v>
       </c>
       <c r="O307" t="n">
         <v>0.834</v>
@@ -18631,7 +18631,7 @@
         <v>0.617</v>
       </c>
       <c r="N308" t="n">
-        <v>0.78</v>
+        <v>0.783</v>
       </c>
       <c r="O308" t="n">
         <v>0.821</v>
@@ -18690,7 +18690,7 @@
         <v>0.65</v>
       </c>
       <c r="N309" t="n">
-        <v>0.8159999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="O309" t="n">
         <v>0.854</v>
@@ -18749,7 +18749,7 @@
         <v>0.668</v>
       </c>
       <c r="N310" t="n">
-        <v>0.835</v>
+        <v>0.833</v>
       </c>
       <c r="O310" t="n">
         <v>0.872</v>
@@ -18808,7 +18808,7 @@
         <v>0.716</v>
       </c>
       <c r="N311" t="n">
-        <v>0.884</v>
+        <v>0.879</v>
       </c>
       <c r="O311" t="n">
         <v>0.918</v>
@@ -18867,7 +18867,7 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="N312" t="n">
-        <v>0.85</v>
+        <v>0.851</v>
       </c>
       <c r="O312" t="n">
         <v>0.89</v>
@@ -18926,7 +18926,7 @@
         <v>0.737</v>
       </c>
       <c r="N313" t="n">
-        <v>0.904</v>
+        <v>0.91</v>
       </c>
       <c r="O313" t="n">
         <v>0.947</v>
@@ -18985,7 +18985,7 @@
         <v>0.774</v>
       </c>
       <c r="N314" t="n">
-        <v>0.945</v>
+        <v>0.948</v>
       </c>
       <c r="O314" t="n">
         <v>0.984</v>
@@ -19044,7 +19044,7 @@
         <v>0.8070000000000001</v>
       </c>
       <c r="N315" t="n">
-        <v>0.981</v>
+        <v>0.98</v>
       </c>
       <c r="O315" t="n">
         <v>1.018</v>
@@ -19103,7 +19103,7 @@
         <v>0.823</v>
       </c>
       <c r="N316" t="n">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="O316" t="n">
         <v>1.073</v>
@@ -19162,7 +19162,7 @@
         <v>0.856</v>
       </c>
       <c r="N317" t="n">
-        <v>1.034</v>
+        <v>1.03</v>
       </c>
       <c r="O317" t="n">
         <v>1.11</v>
@@ -19221,7 +19221,7 @@
         <v>0.84</v>
       </c>
       <c r="N318" t="n">
-        <v>1.017</v>
+        <v>1.025</v>
       </c>
       <c r="O318" t="n">
         <v>1.107</v>
@@ -19280,7 +19280,7 @@
         <v>0.862</v>
       </c>
       <c r="N319" t="n">
-        <v>1.038</v>
+        <v>1.036</v>
       </c>
       <c r="O319" t="n">
         <v>1.117</v>
@@ -19339,7 +19339,7 @@
         <v>0.799</v>
       </c>
       <c r="N320" t="n">
-        <v>0.975</v>
+        <v>0.974</v>
       </c>
       <c r="O320" t="n">
         <v>1.055</v>
@@ -19398,7 +19398,7 @@
         <v>0.78</v>
       </c>
       <c r="N321" t="n">
-        <v>0.958</v>
+        <v>0.953</v>
       </c>
       <c r="O321" t="n">
         <v>1.034</v>
@@ -19457,7 +19457,7 @@
         <v>0.758</v>
       </c>
       <c r="N322" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="O322" t="n">
         <v>1.02</v>
@@ -19516,7 +19516,7 @@
         <v>0.705</v>
       </c>
       <c r="N323" t="n">
-        <v>0.885</v>
+        <v>0.882</v>
       </c>
       <c r="O323" t="n">
         <v>0.965</v>
@@ -19575,7 +19575,7 @@
         <v>0.661</v>
       </c>
       <c r="N324" t="n">
-        <v>0.844</v>
+        <v>0.843</v>
       </c>
       <c r="O324" t="n">
         <v>0.922</v>
@@ -19634,7 +19634,7 @@
         <v>0.678</v>
       </c>
       <c r="N325" t="n">
-        <v>0.86</v>
+        <v>0.857</v>
       </c>
       <c r="O325" t="n">
         <v>0.9360000000000001</v>
@@ -19752,7 +19752,7 @@
         <v>0.654</v>
       </c>
       <c r="N327" t="n">
-        <v>0.836</v>
+        <v>0.835</v>
       </c>
       <c r="O327" t="n">
         <v>0.916</v>
@@ -19811,7 +19811,7 @@
         <v>0.636</v>
       </c>
       <c r="N328" t="n">
-        <v>0.821</v>
+        <v>0.822</v>
       </c>
       <c r="O328" t="n">
         <v>0.905</v>
@@ -19870,7 +19870,7 @@
         <v>0.617</v>
       </c>
       <c r="N329" t="n">
-        <v>0.8</v>
+        <v>0.795</v>
       </c>
       <c r="O329" t="n">
         <v>0.878</v>
@@ -19929,7 +19929,7 @@
         <v>0.629</v>
       </c>
       <c r="N330" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="O330" t="n">
         <v>0.9</v>
@@ -19988,7 +19988,7 @@
         <v>0.602</v>
       </c>
       <c r="N331" t="n">
-        <v>0.787</v>
+        <v>0.793</v>
       </c>
       <c r="O331" t="n">
         <v>0.879</v>
@@ -20047,7 +20047,7 @@
         <v>0.643</v>
       </c>
       <c r="N332" t="n">
-        <v>0.832</v>
+        <v>0.834</v>
       </c>
       <c r="O332" t="n">
         <v>0.921</v>
@@ -20106,7 +20106,7 @@
         <v>0.595</v>
       </c>
       <c r="N333" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="O333" t="n">
         <v>0.865</v>
@@ -20165,7 +20165,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="N334" t="n">
-        <v>0.748</v>
+        <v>0.746</v>
       </c>
       <c r="O334" t="n">
         <v>0.83</v>
@@ -20224,7 +20224,7 @@
         <v>0.537</v>
       </c>
       <c r="N335" t="n">
-        <v>0.72</v>
+        <v>0.719</v>
       </c>
       <c r="O335" t="n">
         <v>0.804</v>
@@ -20283,7 +20283,7 @@
         <v>0.487</v>
       </c>
       <c r="N336" t="n">
-        <v>0.669</v>
+        <v>0.666</v>
       </c>
       <c r="O336" t="n">
         <v>0.748</v>
@@ -20342,7 +20342,7 @@
         <v>0.511</v>
       </c>
       <c r="N337" t="n">
-        <v>0.694</v>
+        <v>0.697</v>
       </c>
       <c r="O337" t="n">
         <v>0.778</v>
@@ -20401,7 +20401,7 @@
         <v>0.528</v>
       </c>
       <c r="N338" t="n">
-        <v>0.713</v>
+        <v>0.714</v>
       </c>
       <c r="O338" t="n">
         <v>0.792</v>
@@ -20519,7 +20519,7 @@
         <v>0.5639999999999999</v>
       </c>
       <c r="N340" t="n">
-        <v>0.747</v>
+        <v>0.742</v>
       </c>
       <c r="O340" t="n">
         <v>0.822</v>
@@ -20578,7 +20578,7 @@
         <v>0.608</v>
       </c>
       <c r="N341" t="n">
-        <v>0.789</v>
+        <v>0.793</v>
       </c>
       <c r="O341" t="n">
         <v>0.874</v>
@@ -20637,7 +20637,7 @@
         <v>0.619</v>
       </c>
       <c r="N342" t="n">
-        <v>0.796</v>
+        <v>0.798</v>
       </c>
       <c r="O342" t="n">
         <v>0.879</v>
@@ -20696,7 +20696,7 @@
         <v>0.64</v>
       </c>
       <c r="N343" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.821</v>
       </c>
       <c r="O343" t="n">
         <v>0.902</v>
@@ -20755,7 +20755,7 @@
         <v>0.637</v>
       </c>
       <c r="N344" t="n">
-        <v>0.8129999999999999</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="O344" t="n">
         <v>0.898</v>
@@ -20814,7 +20814,7 @@
         <v>0.613</v>
       </c>
       <c r="N345" t="n">
-        <v>0.785</v>
+        <v>0.789</v>
       </c>
       <c r="O345" t="n">
         <v>0.872</v>
@@ -20873,7 +20873,7 @@
         <v>0.667</v>
       </c>
       <c r="N346" t="n">
-        <v>0.841</v>
+        <v>0.84</v>
       </c>
       <c r="O346" t="n">
         <v>0.923</v>
@@ -20932,7 +20932,7 @@
         <v>0.627</v>
       </c>
       <c r="N347" t="n">
-        <v>0.801</v>
+        <v>0.797</v>
       </c>
       <c r="O347" t="n">
         <v>0.878</v>
@@ -20991,7 +20991,7 @@
         <v>0.619</v>
       </c>
       <c r="N348" t="n">
-        <v>0.797</v>
+        <v>0.8</v>
       </c>
       <c r="O348" t="n">
         <v>0.881</v>
@@ -21050,7 +21050,7 @@
         <v>0.57</v>
       </c>
       <c r="N349" t="n">
-        <v>0.746</v>
+        <v>0.743</v>
       </c>
       <c r="O349" t="n">
         <v>0.824</v>
@@ -21109,7 +21109,7 @@
         <v>0.55</v>
       </c>
       <c r="N350" t="n">
-        <v>0.728</v>
+        <v>0.726</v>
       </c>
       <c r="O350" t="n">
         <v>0.8070000000000001</v>
@@ -21168,7 +21168,7 @@
         <v>0.521</v>
       </c>
       <c r="N351" t="n">
-        <v>0.697</v>
+        <v>0.695</v>
       </c>
       <c r="O351" t="n">
         <v>0.775</v>
@@ -21227,7 +21227,7 @@
         <v>0.548</v>
       </c>
       <c r="N352" t="n">
-        <v>0.727</v>
+        <v>0.728</v>
       </c>
       <c r="O352" t="n">
         <v>0.8070000000000001</v>
@@ -21286,7 +21286,7 @@
         <v>0.494</v>
       </c>
       <c r="N353" t="n">
-        <v>0.671</v>
+        <v>0.673</v>
       </c>
       <c r="O353" t="n">
         <v>0.75</v>
@@ -21345,7 +21345,7 @@
         <v>0.496</v>
       </c>
       <c r="N354" t="n">
-        <v>0.669</v>
+        <v>0.663</v>
       </c>
       <c r="O354" t="n">
         <v>0.741</v>
@@ -21404,7 +21404,7 @@
         <v>0.509</v>
       </c>
       <c r="N355" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.6840000000000001</v>
       </c>
       <c r="O355" t="n">
         <v>0.763</v>
@@ -21463,7 +21463,7 @@
         <v>0.511</v>
       </c>
       <c r="N356" t="n">
-        <v>0.6860000000000001</v>
+        <v>0.6879999999999999</v>
       </c>
       <c r="O356" t="n">
         <v>0.767</v>
@@ -21522,7 +21522,7 @@
         <v>0.48</v>
       </c>
       <c r="N357" t="n">
-        <v>0.658</v>
+        <v>0.662</v>
       </c>
       <c r="O357" t="n">
         <v>0.741</v>
@@ -21581,7 +21581,7 @@
         <v>0.459</v>
       </c>
       <c r="N358" t="n">
-        <v>0.635</v>
+        <v>0.643</v>
       </c>
       <c r="O358" t="n">
         <v>0.722</v>
@@ -21640,7 +21640,7 @@
         <v>0.46</v>
       </c>
       <c r="N359" t="n">
-        <v>0.634</v>
+        <v>0.638</v>
       </c>
       <c r="O359" t="n">
         <v>0.718</v>
@@ -21699,7 +21699,7 @@
         <v>0.472</v>
       </c>
       <c r="N360" t="n">
-        <v>0.649</v>
+        <v>0.647</v>
       </c>
       <c r="O360" t="n">
         <v>0.728</v>
@@ -21758,7 +21758,7 @@
         <v>0.443</v>
       </c>
       <c r="N361" t="n">
-        <v>0.619</v>
+        <v>0.632</v>
       </c>
       <c r="O361" t="n">
         <v>0.714</v>
@@ -21817,7 +21817,7 @@
         <v>0.451</v>
       </c>
       <c r="N362" t="n">
-        <v>0.625</v>
+        <v>0.626</v>
       </c>
       <c r="O362" t="n">
         <v>0.709</v>
@@ -21876,7 +21876,7 @@
         <v>0.437</v>
       </c>
       <c r="N363" t="n">
-        <v>0.609</v>
+        <v>0.606</v>
       </c>
       <c r="O363" t="n">
         <v>0.6889999999999999</v>
@@ -21935,7 +21935,7 @@
         <v>0.437</v>
       </c>
       <c r="N364" t="n">
-        <v>0.609</v>
+        <v>0.605</v>
       </c>
       <c r="O364" t="n">
         <v>0.6889999999999999</v>
@@ -21994,7 +21994,7 @@
         <v>0.394</v>
       </c>
       <c r="N365" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="O365" t="n">
         <v>0.647</v>
@@ -22053,7 +22053,7 @@
         <v>0.371</v>
       </c>
       <c r="N366" t="n">
-        <v>0.547</v>
+        <v>0.545</v>
       </c>
       <c r="O366" t="n">
         <v>0.629</v>
@@ -22112,7 +22112,7 @@
         <v>0.376</v>
       </c>
       <c r="N367" t="n">
-        <v>0.552</v>
+        <v>0.546</v>
       </c>
       <c r="O367" t="n">
         <v>0.633</v>
@@ -22171,7 +22171,7 @@
         <v>0.362</v>
       </c>
       <c r="N368" t="n">
-        <v>0.535</v>
+        <v>0.539</v>
       </c>
       <c r="O368" t="n">
         <v>0.626</v>
@@ -22230,7 +22230,7 @@
         <v>0.358</v>
       </c>
       <c r="N369" t="n">
-        <v>0.531</v>
+        <v>0.53</v>
       </c>
       <c r="O369" t="n">
         <v>0.62</v>
@@ -22289,7 +22289,7 @@
         <v>0.354</v>
       </c>
       <c r="N370" t="n">
-        <v>0.528</v>
+        <v>0.53</v>
       </c>
       <c r="O370" t="n">
         <v>0.624</v>
@@ -22348,7 +22348,7 @@
         <v>0.36</v>
       </c>
       <c r="N371" t="n">
-        <v>0.536</v>
+        <v>0.535</v>
       </c>
       <c r="O371" t="n">
         <v>0.627</v>
@@ -22407,7 +22407,7 @@
         <v>0.313</v>
       </c>
       <c r="N372" t="n">
-        <v>0.488</v>
+        <v>0.491</v>
       </c>
       <c r="O372" t="n">
         <v>0.579</v>
@@ -22466,7 +22466,7 @@
         <v>0.306</v>
       </c>
       <c r="N373" t="n">
-        <v>0.483</v>
+        <v>0.481</v>
       </c>
       <c r="O373" t="n">
         <v>0.57</v>
@@ -22525,7 +22525,7 @@
         <v>0.3</v>
       </c>
       <c r="N374" t="n">
-        <v>0.479</v>
+        <v>0.468</v>
       </c>
       <c r="O374" t="n">
         <v>0.556</v>
@@ -22584,7 +22584,7 @@
         <v>0.267</v>
       </c>
       <c r="N375" t="n">
-        <v>0.444</v>
+        <v>0.449</v>
       </c>
       <c r="O375" t="n">
         <v>0.535</v>
@@ -22643,7 +22643,7 @@
         <v>0.306</v>
       </c>
       <c r="N376" t="n">
-        <v>0.484</v>
+        <v>0.487</v>
       </c>
       <c r="O376" t="n">
         <v>0.573</v>
@@ -22702,7 +22702,7 @@
         <v>0.306</v>
       </c>
       <c r="N377" t="n">
-        <v>0.473</v>
+        <v>0.474</v>
       </c>
       <c r="O377" t="n">
         <v>0.5610000000000001</v>
@@ -22761,7 +22761,7 @@
         <v>0.287</v>
       </c>
       <c r="N378" t="n">
-        <v>0.461</v>
+        <v>0.464</v>
       </c>
       <c r="O378" t="n">
         <v>0.552</v>
@@ -22879,7 +22879,7 @@
         <v>0.286</v>
       </c>
       <c r="N380" t="n">
-        <v>0.46</v>
+        <v>0.459</v>
       </c>
       <c r="O380" t="n">
         <v>0.545</v>
@@ -22997,7 +22997,7 @@
         <v>0.303</v>
       </c>
       <c r="N382" t="n">
-        <v>0.478</v>
+        <v>0.481</v>
       </c>
       <c r="O382" t="n">
         <v>0.5679999999999999</v>
@@ -23056,7 +23056,7 @@
         <v>0.314</v>
       </c>
       <c r="N383" t="n">
-        <v>0.491</v>
+        <v>0.492</v>
       </c>
       <c r="O383" t="n">
         <v>0.579</v>
@@ -23115,7 +23115,7 @@
         <v>0.29</v>
       </c>
       <c r="N384" t="n">
-        <v>0.466</v>
+        <v>0.468</v>
       </c>
       <c r="O384" t="n">
         <v>0.556</v>
@@ -23174,7 +23174,7 @@
         <v>0.301</v>
       </c>
       <c r="N385" t="n">
-        <v>0.479</v>
+        <v>0.477</v>
       </c>
       <c r="O385" t="n">
         <v>0.5679999999999999</v>
@@ -23233,7 +23233,7 @@
         <v>0.28</v>
       </c>
       <c r="N386" t="n">
-        <v>0.457</v>
+        <v>0.46</v>
       </c>
       <c r="O386" t="n">
         <v>0.548</v>
@@ -23292,7 +23292,7 @@
         <v>0.317</v>
       </c>
       <c r="N387" t="n">
-        <v>0.499</v>
+        <v>0.495</v>
       </c>
       <c r="O387" t="n">
         <v>0.582</v>
@@ -23351,7 +23351,7 @@
         <v>0.306</v>
       </c>
       <c r="N388" t="n">
-        <v>0.487</v>
+        <v>0.485</v>
       </c>
       <c r="O388" t="n">
         <v>0.572</v>
@@ -23410,7 +23410,7 @@
         <v>0.402</v>
       </c>
       <c r="N389" t="n">
-        <v>0.587</v>
+        <v>0.581</v>
       </c>
       <c r="O389" t="n">
         <v>0.667</v>
@@ -23469,7 +23469,7 @@
         <v>0.398</v>
       </c>
       <c r="N390" t="n">
-        <v>0.581</v>
+        <v>0.584</v>
       </c>
       <c r="O390" t="n">
         <v>0.671</v>
@@ -23528,7 +23528,7 @@
         <v>0.37</v>
       </c>
       <c r="N391" t="n">
-        <v>0.553</v>
+        <v>0.55</v>
       </c>
       <c r="O391" t="n">
         <v>0.639</v>
@@ -23587,7 +23587,7 @@
         <v>0.346</v>
       </c>
       <c r="N392" t="n">
-        <v>0.527</v>
+        <v>0.523</v>
       </c>
       <c r="O392" t="n">
         <v>0.613</v>
@@ -23646,7 +23646,7 @@
         <v>0.437</v>
       </c>
       <c r="N393" t="n">
-        <v>0.62</v>
+        <v>0.621</v>
       </c>
       <c r="O393" t="n">
         <v>0.712</v>
@@ -23705,7 +23705,7 @@
         <v>0.427</v>
       </c>
       <c r="N394" t="n">
-        <v>0.605</v>
+        <v>0.604</v>
       </c>
       <c r="O394" t="n">
         <v>0.695</v>
@@ -23764,7 +23764,7 @@
         <v>0.403</v>
       </c>
       <c r="N395" t="n">
-        <v>0.581</v>
+        <v>0.583</v>
       </c>
       <c r="O395" t="n">
         <v>0.671</v>
@@ -23823,7 +23823,7 @@
         <v>0.438</v>
       </c>
       <c r="N396" t="n">
-        <v>0.62</v>
+        <v>0.623</v>
       </c>
       <c r="O396" t="n">
         <v>0.71</v>
@@ -23882,7 +23882,7 @@
         <v>0.426</v>
       </c>
       <c r="N397" t="n">
-        <v>0.605</v>
+        <v>0.606</v>
       </c>
       <c r="O397" t="n">
         <v>0.6899999999999999</v>
@@ -23941,7 +23941,7 @@
         <v>0.497</v>
       </c>
       <c r="N398" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.678</v>
       </c>
       <c r="O398" t="n">
         <v>0.761</v>
@@ -24000,7 +24000,7 @@
         <v>0.484</v>
       </c>
       <c r="N399" t="n">
-        <v>0.673</v>
+        <v>0.677</v>
       </c>
       <c r="O399" t="n">
         <v>0.758</v>
@@ -24059,7 +24059,7 @@
         <v>0.402</v>
       </c>
       <c r="N400" t="n">
-        <v>0.58</v>
+        <v>0.591</v>
       </c>
       <c r="O400" t="n">
         <v>0.672</v>
@@ -24118,7 +24118,7 @@
         <v>0.441</v>
       </c>
       <c r="N401" t="n">
-        <v>0.626</v>
+        <v>0.627</v>
       </c>
       <c r="O401" t="n">
         <v>0.707</v>
@@ -24177,7 +24177,7 @@
         <v>0.422</v>
       </c>
       <c r="N402" t="n">
-        <v>0.608</v>
+        <v>0.61</v>
       </c>
       <c r="O402" t="n">
         <v>0.6899999999999999</v>
@@ -24236,7 +24236,7 @@
         <v>0.386</v>
       </c>
       <c r="N403" t="n">
-        <v>0.57</v>
+        <v>0.569</v>
       </c>
       <c r="O403" t="n">
         <v>0.649</v>
@@ -24295,7 +24295,7 @@
         <v>0.43</v>
       </c>
       <c r="N404" t="n">
-        <v>0.62</v>
+        <v>0.619</v>
       </c>
       <c r="O404" t="n">
         <v>0.7</v>
@@ -24354,7 +24354,7 @@
         <v>0.422</v>
       </c>
       <c r="N405" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
       <c r="O405" t="n">
         <v>0.695</v>
@@ -24413,7 +24413,7 @@
         <v>0.443</v>
       </c>
       <c r="N406" t="n">
-        <v>0.635</v>
+        <v>0.637</v>
       </c>
       <c r="O406" t="n">
         <v>0.72</v>
@@ -24472,7 +24472,7 @@
         <v>0.44</v>
       </c>
       <c r="N407" t="n">
-        <v>0.633</v>
+        <v>0.637</v>
       </c>
       <c r="O407" t="n">
         <v>0.719</v>
@@ -24531,7 +24531,7 @@
         <v>0.409</v>
       </c>
       <c r="N408" t="n">
-        <v>0.599</v>
+        <v>0.606</v>
       </c>
       <c r="O408" t="n">
         <v>0.6909999999999999</v>
@@ -24590,7 +24590,7 @@
         <v>0.383</v>
       </c>
       <c r="N409" t="n">
-        <v>0.573</v>
+        <v>0.578</v>
       </c>
       <c r="O409" t="n">
         <v>0.663</v>
@@ -24649,7 +24649,7 @@
         <v>0.442</v>
       </c>
       <c r="N410" t="n">
-        <v>0.638</v>
+        <v>0.633</v>
       </c>
       <c r="O410" t="n">
         <v>0.719</v>
@@ -24708,7 +24708,7 @@
         <v>0.502</v>
       </c>
       <c r="N411" t="n">
-        <v>0.702</v>
+        <v>0.698</v>
       </c>
       <c r="O411" t="n">
         <v>0.782</v>
@@ -24767,7 +24767,7 @@
         <v>0.513</v>
       </c>
       <c r="N412" t="n">
-        <v>0.712</v>
+        <v>0.715</v>
       </c>
       <c r="O412" t="n">
         <v>0.798</v>
@@ -24885,7 +24885,7 @@
         <v>0.544</v>
       </c>
       <c r="N414" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="O414" t="n">
         <v>0.829</v>
@@ -24944,7 +24944,7 @@
         <v>0.58</v>
       </c>
       <c r="N415" t="n">
-        <v>0.785</v>
+        <v>0.781</v>
       </c>
       <c r="O415" t="n">
         <v>0.863</v>
@@ -25062,7 +25062,7 @@
         <v>0.55</v>
       </c>
       <c r="N417" t="n">
-        <v>0.75</v>
+        <v>0.746</v>
       </c>
       <c r="O417" t="n">
         <v>0.828</v>
@@ -25121,7 +25121,7 @@
         <v>0.573</v>
       </c>
       <c r="N418" t="n">
-        <v>0.778</v>
+        <v>0.78</v>
       </c>
       <c r="O418" t="n">
         <v>0.862</v>
@@ -25180,7 +25180,7 @@
         <v>0.598</v>
       </c>
       <c r="N419" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="O419" t="n">
         <v>0.893</v>
@@ -25239,7 +25239,7 @@
         <v>0.5629999999999999</v>
       </c>
       <c r="N420" t="n">
-        <v>0.766</v>
+        <v>0.768</v>
       </c>
       <c r="O420" t="n">
         <v>0.851</v>
@@ -25298,7 +25298,7 @@
         <v>0.588</v>
       </c>
       <c r="N421" t="n">
-        <v>0.795</v>
+        <v>0.797</v>
       </c>
       <c r="O421" t="n">
         <v>0.881</v>
@@ -25357,7 +25357,7 @@
         <v>0.62</v>
       </c>
       <c r="N422" t="n">
-        <v>0.828</v>
+        <v>0.829</v>
       </c>
       <c r="O422" t="n">
         <v>0.914</v>
@@ -25416,7 +25416,7 @@
         <v>0.622</v>
       </c>
       <c r="N423" t="n">
-        <v>0.831</v>
+        <v>0.836</v>
       </c>
       <c r="O423" t="n">
         <v>0.921</v>
@@ -25475,7 +25475,7 @@
         <v>0.611</v>
       </c>
       <c r="N424" t="n">
-        <v>0.8139999999999999</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="O424" t="n">
         <v>0.902</v>
@@ -25534,7 +25534,7 @@
         <v>0.5570000000000001</v>
       </c>
       <c r="N425" t="n">
-        <v>0.754</v>
+        <v>0.751</v>
       </c>
       <c r="O425" t="n">
         <v>0.837</v>
@@ -25593,7 +25593,7 @@
         <v>0.582</v>
       </c>
       <c r="N426" t="n">
-        <v>0.781</v>
+        <v>0.785</v>
       </c>
       <c r="O426" t="n">
         <v>0.871</v>
@@ -25711,7 +25711,7 @@
         <v>0.655</v>
       </c>
       <c r="N428" t="n">
-        <v>0.856</v>
+        <v>0.867</v>
       </c>
       <c r="O428" t="n">
         <v>0.948</v>
@@ -25770,7 +25770,7 @@
         <v>0.636</v>
       </c>
       <c r="N429" t="n">
-        <v>0.835</v>
+        <v>0.832</v>
       </c>
       <c r="O429" t="n">
         <v>0.917</v>
@@ -25829,7 +25829,7 @@
         <v>0.669</v>
       </c>
       <c r="N430" t="n">
-        <v>0.87</v>
+        <v>0.869</v>
       </c>
       <c r="O430" t="n">
         <v>0.951</v>
@@ -25888,7 +25888,7 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="N431" t="n">
-        <v>0.884</v>
+        <v>0.877</v>
       </c>
       <c r="O431" t="n">
         <v>0.958</v>
@@ -25947,7 +25947,7 @@
         <v>0.639</v>
       </c>
       <c r="N432" t="n">
-        <v>0.84</v>
+        <v>0.837</v>
       </c>
       <c r="O432" t="n">
         <v>0.917</v>
@@ -26006,7 +26006,7 @@
         <v>0.661</v>
       </c>
       <c r="N433" t="n">
-        <v>0.865</v>
+        <v>0.863</v>
       </c>
       <c r="O433" t="n">
         <v>0.9419999999999999</v>
@@ -26065,7 +26065,7 @@
         <v>0.616</v>
       </c>
       <c r="N434" t="n">
-        <v>0.8110000000000001</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="O434" t="n">
         <v>0.896</v>
@@ -26124,7 +26124,7 @@
         <v>0.717</v>
       </c>
       <c r="N435" t="n">
-        <v>0.906</v>
+        <v>0.926</v>
       </c>
       <c r="O435" t="n">
         <v>1.002</v>
@@ -26183,7 +26183,7 @@
         <v>0.865</v>
       </c>
       <c r="N436" t="n">
-        <v>1.066</v>
+        <v>1.059</v>
       </c>
       <c r="O436" t="n">
         <v>1.134</v>
@@ -26242,7 +26242,7 @@
         <v>0.9</v>
       </c>
       <c r="N437" t="n">
-        <v>1.11</v>
+        <v>1.105</v>
       </c>
       <c r="O437" t="n">
         <v>1.221</v>
@@ -26301,7 +26301,7 @@
         <v>0.755</v>
       </c>
       <c r="N438" t="n">
-        <v>0.966</v>
+        <v>0.969</v>
       </c>
       <c r="O438" t="n">
         <v>1.088</v>
@@ -26360,7 +26360,7 @@
         <v>0.722</v>
       </c>
       <c r="N439" t="n">
-        <v>0.929</v>
+        <v>0.927</v>
       </c>
       <c r="O439" t="n">
         <v>1.048</v>
@@ -26419,7 +26419,7 @@
         <v>0.598</v>
       </c>
       <c r="N440" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="O440" t="n">
         <v>0.9389999999999999</v>
@@ -26478,7 +26478,7 @@
         <v>0.529</v>
       </c>
       <c r="N441" t="n">
-        <v>0.752</v>
+        <v>0.753</v>
       </c>
       <c r="O441" t="n">
         <v>0.88</v>
@@ -26537,7 +26537,7 @@
         <v>0.539</v>
       </c>
       <c r="N442" t="n">
-        <v>0.763</v>
+        <v>0.766</v>
       </c>
       <c r="O442" t="n">
         <v>0.893</v>
@@ -26596,7 +26596,7 @@
         <v>0.507</v>
       </c>
       <c r="N443" t="n">
-        <v>0.721</v>
+        <v>0.719</v>
       </c>
       <c r="O443" t="n">
         <v>0.845</v>
@@ -26655,7 +26655,7 @@
         <v>0.579</v>
       </c>
       <c r="N444" t="n">
-        <v>0.802</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="O444" t="n">
         <v>0.9379999999999999</v>
@@ -26714,7 +26714,7 @@
         <v>0.611</v>
       </c>
       <c r="N445" t="n">
-        <v>0.828</v>
+        <v>0.833</v>
       </c>
       <c r="O445" t="n">
         <v>0.963</v>
@@ -26773,7 +26773,7 @@
         <v>0.611</v>
       </c>
       <c r="N446" t="n">
-        <v>0.828</v>
+        <v>0.827</v>
       </c>
       <c r="O446" t="n">
         <v>0.959</v>
@@ -26832,7 +26832,7 @@
         <v>0.64</v>
       </c>
       <c r="N447" t="n">
-        <v>0.851</v>
+        <v>0.869</v>
       </c>
       <c r="O447" t="n">
         <v>1.003</v>
@@ -26891,7 +26891,7 @@
         <v>0.625</v>
       </c>
       <c r="N448" t="n">
-        <v>0.838</v>
+        <v>0.839</v>
       </c>
       <c r="O448" t="n">
         <v>0.972</v>
@@ -26950,7 +26950,7 @@
         <v>0.634</v>
       </c>
       <c r="N449" t="n">
-        <v>0.848</v>
+        <v>0.846</v>
       </c>
       <c r="O449" t="n">
         <v>0.98</v>
@@ -27009,7 +27009,7 @@
         <v>0.585</v>
       </c>
       <c r="N450" t="n">
-        <v>0.797</v>
+        <v>0.784</v>
       </c>
       <c r="O450" t="n">
         <v>0.919</v>
@@ -27068,7 +27068,7 @@
         <v>0.523</v>
       </c>
       <c r="N451" t="n">
-        <v>0.731</v>
+        <v>0.726</v>
       </c>
       <c r="O451" t="n">
         <v>0.863</v>
@@ -27127,7 +27127,7 @@
         <v>0.588</v>
       </c>
       <c r="N452" t="n">
-        <v>0.805</v>
+        <v>0.8110000000000001</v>
       </c>
       <c r="O452" t="n">
         <v>0.946</v>
@@ -27186,7 +27186,7 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="N453" t="n">
-        <v>0.912</v>
+        <v>0.93</v>
       </c>
       <c r="O453" t="n">
         <v>1.065</v>
@@ -27304,7 +27304,7 @@
         <v>0.709</v>
       </c>
       <c r="N455" t="n">
-        <v>0.931</v>
+        <v>0.93</v>
       </c>
       <c r="O455" t="n">
         <v>1.062</v>
@@ -27363,7 +27363,7 @@
         <v>0.62</v>
       </c>
       <c r="N456" t="n">
-        <v>0.837</v>
+        <v>0.84</v>
       </c>
       <c r="O456" t="n">
         <v>0.974</v>
@@ -27422,7 +27422,7 @@
         <v>0.629</v>
       </c>
       <c r="N457" t="n">
-        <v>0.843</v>
+        <v>0.848</v>
       </c>
       <c r="O457" t="n">
         <v>0.979</v>
@@ -27481,7 +27481,7 @@
         <v>0.62</v>
       </c>
       <c r="N458" t="n">
-        <v>0.832</v>
+        <v>0.848</v>
       </c>
       <c r="O458" t="n">
         <v>0.982</v>
@@ -27540,7 +27540,7 @@
         <v>0.681</v>
       </c>
       <c r="N459" t="n">
-        <v>0.893</v>
+        <v>0.892</v>
       </c>
       <c r="O459" t="n">
         <v>1.024</v>
@@ -27599,7 +27599,7 @@
         <v>0.617</v>
       </c>
       <c r="N460" t="n">
-        <v>0.825</v>
+        <v>0.822</v>
       </c>
       <c r="O460" t="n">
         <v>0.956</v>
@@ -27658,7 +27658,7 @@
         <v>0.589</v>
       </c>
       <c r="N461" t="n">
-        <v>0.788</v>
+        <v>0.792</v>
       </c>
       <c r="O461" t="n">
         <v>0.926</v>
@@ -27717,7 +27717,7 @@
         <v>0.549</v>
       </c>
       <c r="N462" t="n">
-        <v>0.75</v>
+        <v>0.752</v>
       </c>
       <c r="O462" t="n">
         <v>0.885</v>
@@ -27835,7 +27835,7 @@
         <v>0.6879999999999999</v>
       </c>
       <c r="N464" t="n">
-        <v>0.9</v>
+        <v>0.899</v>
       </c>
       <c r="O464" t="n">
         <v>1.032</v>
@@ -27894,7 +27894,7 @@
         <v>0.654</v>
       </c>
       <c r="N465" t="n">
-        <v>0.872</v>
+        <v>0.871</v>
       </c>
       <c r="O465" t="n">
         <v>1.002</v>
@@ -27953,7 +27953,7 @@
         <v>0.605</v>
       </c>
       <c r="N466" t="n">
-        <v>0.825</v>
+        <v>0.839</v>
       </c>
       <c r="O466" t="n">
         <v>0.968</v>
@@ -28012,7 +28012,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="N467" t="n">
-        <v>0.786</v>
+        <v>0.78</v>
       </c>
       <c r="O467" t="n">
         <v>0.912</v>
@@ -28071,7 +28071,7 @@
         <v>0.583</v>
       </c>
       <c r="N468" t="n">
-        <v>0.803</v>
+        <v>0.8090000000000001</v>
       </c>
       <c r="O468" t="n">
         <v>0.9389999999999999</v>
@@ -28130,7 +28130,7 @@
         <v>0.571</v>
       </c>
       <c r="N469" t="n">
-        <v>0.79</v>
+        <v>0.793</v>
       </c>
       <c r="O469" t="n">
         <v>0.923</v>
@@ -28189,7 +28189,7 @@
         <v>0.622</v>
       </c>
       <c r="N470" t="n">
-        <v>0.842</v>
+        <v>0.85</v>
       </c>
       <c r="O470" t="n">
         <v>0.98</v>
@@ -28248,7 +28248,7 @@
         <v>0.5610000000000001</v>
       </c>
       <c r="N471" t="n">
-        <v>0.78</v>
+        <v>0.776</v>
       </c>
       <c r="O471" t="n">
         <v>0.908</v>
@@ -28307,7 +28307,7 @@
         <v>0.584</v>
       </c>
       <c r="N472" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="O472" t="n">
         <v>0.9360000000000001</v>
@@ -28366,7 +28366,7 @@
         <v>0.647</v>
       </c>
       <c r="N473" t="n">
-        <v>0.883</v>
+        <v>0.885</v>
       </c>
       <c r="O473" t="n">
         <v>1.017</v>
@@ -28425,7 +28425,7 @@
         <v>0.6830000000000001</v>
       </c>
       <c r="N474" t="n">
-        <v>0.919</v>
+        <v>0.925</v>
       </c>
       <c r="O474" t="n">
         <v>1.056</v>
@@ -28543,7 +28543,7 @@
         <v>0.766</v>
       </c>
       <c r="N476" t="n">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="O476" t="n">
         <v>1.125</v>
@@ -28661,7 +28661,7 @@
         <v>0.802</v>
       </c>
       <c r="N478" t="n">
-        <v>1.037</v>
+        <v>1.033</v>
       </c>
       <c r="O478" t="n">
         <v>1.161</v>
@@ -28720,7 +28720,7 @@
         <v>0.8169999999999999</v>
       </c>
       <c r="N479" t="n">
-        <v>1.049</v>
+        <v>1.054</v>
       </c>
       <c r="O479" t="n">
         <v>1.18</v>
@@ -28838,7 +28838,7 @@
         <v>0.836</v>
       </c>
       <c r="N481" t="n">
-        <v>1.067</v>
+        <v>1.069</v>
       </c>
       <c r="O481" t="n">
         <v>1.198</v>
@@ -28897,7 +28897,7 @@
         <v>0.853</v>
       </c>
       <c r="N482" t="n">
-        <v>1.088</v>
+        <v>1.093</v>
       </c>
       <c r="O482" t="n">
         <v>1.221</v>
@@ -28956,7 +28956,7 @@
         <v>0.878</v>
       </c>
       <c r="N483" t="n">
-        <v>1.113</v>
+        <v>1.115</v>
       </c>
       <c r="O483" t="n">
         <v>1.244</v>
@@ -29015,7 +29015,7 @@
         <v>0.91</v>
       </c>
       <c r="N484" t="n">
-        <v>1.144</v>
+        <v>1.146</v>
       </c>
       <c r="O484" t="n">
         <v>1.274</v>
@@ -29074,7 +29074,7 @@
         <v>0.952</v>
       </c>
       <c r="N485" t="n">
-        <v>1.194</v>
+        <v>1.192</v>
       </c>
       <c r="O485" t="n">
         <v>1.319</v>
@@ -29133,7 +29133,7 @@
         <v>0.916</v>
       </c>
       <c r="N486" t="n">
-        <v>1.155</v>
+        <v>1.157</v>
       </c>
       <c r="O486" t="n">
         <v>1.285</v>
@@ -29192,7 +29192,7 @@
         <v>1.179</v>
       </c>
       <c r="N487" t="n">
-        <v>1.306</v>
+        <v>1.309</v>
       </c>
       <c r="O487" t="n">
         <v>1.377</v>
@@ -29251,7 +29251,7 @@
         <v>1.131</v>
       </c>
       <c r="N488" t="n">
-        <v>1.26</v>
+        <v>1.263</v>
       </c>
       <c r="O488" t="n">
         <v>1.331</v>
@@ -29310,7 +29310,7 @@
         <v>1.096</v>
       </c>
       <c r="N489" t="n">
-        <v>1.224</v>
+        <v>1.223</v>
       </c>
       <c r="O489" t="n">
         <v>1.29</v>
@@ -29369,7 +29369,7 @@
         <v>1.139</v>
       </c>
       <c r="N490" t="n">
-        <v>1.266</v>
+        <v>1.272</v>
       </c>
       <c r="O490" t="n">
         <v>1.341</v>
@@ -29428,7 +29428,7 @@
         <v>1.171</v>
       </c>
       <c r="N491" t="n">
-        <v>1.298</v>
+        <v>1.296</v>
       </c>
       <c r="O491" t="n">
         <v>1.365</v>
@@ -29487,7 +29487,7 @@
         <v>1.195</v>
       </c>
       <c r="N492" t="n">
-        <v>1.323</v>
+        <v>1.321</v>
       </c>
       <c r="O492" t="n">
         <v>1.388</v>
@@ -29546,7 +29546,7 @@
         <v>1.216</v>
       </c>
       <c r="N493" t="n">
-        <v>1.344</v>
+        <v>1.339</v>
       </c>
       <c r="O493" t="n">
         <v>1.406</v>
@@ -29664,7 +29664,7 @@
         <v>1.162</v>
       </c>
       <c r="N495" t="n">
-        <v>1.289</v>
+        <v>1.288</v>
       </c>
       <c r="O495" t="n">
         <v>1.355</v>
@@ -29723,7 +29723,7 @@
         <v>1.152</v>
       </c>
       <c r="N496" t="n">
-        <v>1.279</v>
+        <v>1.286</v>
       </c>
       <c r="O496" t="n">
         <v>1.355</v>
@@ -29782,7 +29782,7 @@
         <v>1.166</v>
       </c>
       <c r="N497" t="n">
-        <v>1.29</v>
+        <v>1.292</v>
       </c>
       <c r="O497" t="n">
         <v>1.36</v>
@@ -29841,7 +29841,7 @@
         <v>1.2</v>
       </c>
       <c r="N498" t="n">
-        <v>1.327</v>
+        <v>1.338</v>
       </c>
       <c r="O498" t="n">
         <v>1.407</v>
@@ -29900,7 +29900,7 @@
         <v>1.163</v>
       </c>
       <c r="N499" t="n">
-        <v>1.289</v>
+        <v>1.287</v>
       </c>
       <c r="O499" t="n">
         <v>1.358</v>
@@ -29959,7 +29959,7 @@
         <v>1.154</v>
       </c>
       <c r="N500" t="n">
-        <v>1.28</v>
+        <v>1.284</v>
       </c>
       <c r="O500" t="n">
         <v>1.353</v>
@@ -30018,7 +30018,7 @@
         <v>1.172</v>
       </c>
       <c r="N501" t="n">
-        <v>1.298</v>
+        <v>1.303</v>
       </c>
       <c r="O501" t="n">
         <v>1.371</v>
@@ -30136,7 +30136,7 @@
         <v>1.225</v>
       </c>
       <c r="N503" t="n">
-        <v>1.345</v>
+        <v>1.354</v>
       </c>
       <c r="O503" t="n">
         <v>1.427</v>
@@ -30195,7 +30195,7 @@
         <v>1.457</v>
       </c>
       <c r="N504" t="n">
-        <v>1.572</v>
+        <v>1.576</v>
       </c>
       <c r="O504" t="n">
         <v>1.673</v>
@@ -30254,7 +30254,7 @@
         <v>1.577</v>
       </c>
       <c r="N505" t="n">
-        <v>1.684</v>
+        <v>1.689</v>
       </c>
       <c r="O505" t="n">
         <v>1.755</v>
@@ -30313,7 +30313,7 @@
         <v>1.634</v>
       </c>
       <c r="N506" t="n">
-        <v>1.74</v>
+        <v>1.746</v>
       </c>
       <c r="O506" t="n">
         <v>1.813</v>
@@ -30372,7 +30372,7 @@
         <v>1.678</v>
       </c>
       <c r="N507" t="n">
-        <v>1.784</v>
+        <v>1.789</v>
       </c>
       <c r="O507" t="n">
         <v>1.853</v>
@@ -30490,7 +30490,7 @@
         <v>1.757</v>
       </c>
       <c r="N509" t="n">
-        <v>1.855</v>
+        <v>1.832</v>
       </c>
       <c r="O509" t="n">
         <v>1.898</v>
@@ -30549,7 +30549,7 @@
         <v>1.79</v>
       </c>
       <c r="N510" t="n">
-        <v>1.89</v>
+        <v>1.9</v>
       </c>
       <c r="O510" t="n">
         <v>1.962</v>
@@ -30608,7 +30608,7 @@
         <v>1.814</v>
       </c>
       <c r="N511" t="n">
-        <v>1.906</v>
+        <v>1.914</v>
       </c>
       <c r="O511" t="n">
         <v>1.974</v>
@@ -30667,7 +30667,7 @@
         <v>1.82</v>
       </c>
       <c r="N512" t="n">
-        <v>1.914</v>
+        <v>1.91</v>
       </c>
       <c r="O512" t="n">
         <v>1.972</v>
@@ -30726,7 +30726,7 @@
         <v>1.753</v>
       </c>
       <c r="N513" t="n">
-        <v>1.848</v>
+        <v>1.857</v>
       </c>
       <c r="O513" t="n">
         <v>1.917</v>
@@ -30785,7 +30785,7 @@
         <v>1.69</v>
       </c>
       <c r="N514" t="n">
-        <v>1.785</v>
+        <v>1.781</v>
       </c>
       <c r="O514" t="n">
         <v>1.84</v>
@@ -30844,7 +30844,7 @@
         <v>1.69</v>
       </c>
       <c r="N515" t="n">
-        <v>1.792</v>
+        <v>1.787</v>
       </c>
       <c r="O515" t="n">
         <v>1.845</v>
@@ -30903,7 +30903,7 @@
         <v>1.75</v>
       </c>
       <c r="N516" t="n">
-        <v>1.86</v>
+        <v>1.859</v>
       </c>
       <c r="O516" t="n">
         <v>1.916</v>
@@ -30962,7 +30962,7 @@
         <v>1.763</v>
       </c>
       <c r="N517" t="n">
-        <v>1.876</v>
+        <v>1.878</v>
       </c>
       <c r="O517" t="n">
         <v>1.934</v>
@@ -31021,7 +31021,7 @@
         <v>1.77</v>
       </c>
       <c r="N518" t="n">
-        <v>1.883</v>
+        <v>1.877</v>
       </c>
       <c r="O518" t="n">
         <v>1.932</v>
@@ -31080,7 +31080,7 @@
         <v>1.642</v>
       </c>
       <c r="N519" t="n">
-        <v>1.758</v>
+        <v>1.75</v>
       </c>
       <c r="O519" t="n">
         <v>1.807</v>
@@ -31139,7 +31139,7 @@
         <v>1.673</v>
       </c>
       <c r="N520" t="n">
-        <v>1.789</v>
+        <v>1.783</v>
       </c>
       <c r="O520" t="n">
         <v>1.842</v>
@@ -31198,7 +31198,7 @@
         <v>1.577</v>
       </c>
       <c r="N521" t="n">
-        <v>1.697</v>
+        <v>1.683</v>
       </c>
       <c r="O521" t="n">
         <v>1.741</v>
@@ -31257,7 +31257,7 @@
         <v>1.226</v>
       </c>
       <c r="N522" t="n">
-        <v>1.349</v>
+        <v>1.327</v>
       </c>
       <c r="O522" t="n">
         <v>1.394</v>
@@ -31316,7 +31316,7 @@
         <v>1.344</v>
       </c>
       <c r="N523" t="n">
-        <v>1.471</v>
+        <v>1.495</v>
       </c>
       <c r="O523" t="n">
         <v>1.553</v>
@@ -31375,7 +31375,7 @@
         <v>1.398</v>
       </c>
       <c r="N524" t="n">
-        <v>1.522</v>
+        <v>1.529</v>
       </c>
       <c r="O524" t="n">
         <v>1.587</v>
@@ -31434,7 +31434,7 @@
         <v>1.333</v>
       </c>
       <c r="N525" t="n">
-        <v>1.459</v>
+        <v>1.469</v>
       </c>
       <c r="O525" t="n">
         <v>1.533</v>
@@ -31493,7 +31493,7 @@
         <v>1.413</v>
       </c>
       <c r="N526" t="n">
-        <v>1.538</v>
+        <v>1.535</v>
       </c>
       <c r="O526" t="n">
         <v>1.597</v>
@@ -31552,7 +31552,7 @@
         <v>1.413</v>
       </c>
       <c r="N527" t="n">
-        <v>1.538</v>
+        <v>1.543</v>
       </c>
       <c r="O527" t="n">
         <v>1.601</v>
@@ -31611,7 +31611,7 @@
         <v>1.479</v>
       </c>
       <c r="N528" t="n">
-        <v>1.604</v>
+        <v>1.615</v>
       </c>
       <c r="O528" t="n">
         <v>1.672</v>
@@ -31670,7 +31670,7 @@
         <v>1.741</v>
       </c>
       <c r="N529" t="n">
-        <v>1.865</v>
+        <v>1.856</v>
       </c>
       <c r="O529" t="n">
         <v>1.908</v>
@@ -31729,7 +31729,7 @@
         <v>1.699</v>
       </c>
       <c r="N530" t="n">
-        <v>1.814</v>
+        <v>1.815</v>
       </c>
       <c r="O530" t="n">
         <v>1.867</v>
@@ -31788,7 +31788,7 @@
         <v>1.793</v>
       </c>
       <c r="N531" t="n">
-        <v>1.912</v>
+        <v>1.918</v>
       </c>
       <c r="O531" t="n">
         <v>1.968</v>
@@ -31847,7 +31847,7 @@
         <v>1.733</v>
       </c>
       <c r="N532" t="n">
-        <v>1.855</v>
+        <v>1.854</v>
       </c>
       <c r="O532" t="n">
         <v>1.907</v>
@@ -31906,7 +31906,7 @@
         <v>1.73</v>
       </c>
       <c r="N533" t="n">
-        <v>1.851</v>
+        <v>1.85</v>
       </c>
       <c r="O533" t="n">
         <v>1.899</v>
@@ -31965,7 +31965,7 @@
         <v>1.737</v>
       </c>
       <c r="N534" t="n">
-        <v>1.86</v>
+        <v>1.858</v>
       </c>
       <c r="O534" t="n">
         <v>1.905</v>
@@ -32024,7 +32024,7 @@
         <v>1.713</v>
       </c>
       <c r="N535" t="n">
-        <v>1.835</v>
+        <v>1.841</v>
       </c>
       <c r="O535" t="n">
         <v>1.89</v>
@@ -32083,7 +32083,7 @@
         <v>1.798</v>
       </c>
       <c r="N536" t="n">
-        <v>1.924</v>
+        <v>1.944</v>
       </c>
       <c r="O536" t="n">
         <v>1.994</v>
@@ -32142,7 +32142,7 @@
         <v>1.861</v>
       </c>
       <c r="N537" t="n">
-        <v>1.986</v>
+        <v>1.979</v>
       </c>
       <c r="O537" t="n">
         <v>2.028</v>
@@ -32201,7 +32201,7 @@
         <v>1.826</v>
       </c>
       <c r="N538" t="n">
-        <v>1.948</v>
+        <v>1.943</v>
       </c>
       <c r="O538" t="n">
         <v>1.993</v>
@@ -32260,7 +32260,7 @@
         <v>1.88</v>
       </c>
       <c r="N539" t="n">
-        <v>2.003</v>
+        <v>2.008</v>
       </c>
       <c r="O539" t="n">
         <v>2.056</v>
@@ -32319,7 +32319,7 @@
         <v>1.902</v>
       </c>
       <c r="N540" t="n">
-        <v>2.026</v>
+        <v>2.031</v>
       </c>
       <c r="O540" t="n">
         <v>2.078</v>
@@ -32378,7 +32378,7 @@
         <v>1.936</v>
       </c>
       <c r="N541" t="n">
-        <v>2.057</v>
+        <v>2.058</v>
       </c>
       <c r="O541" t="n">
         <v>2.107</v>
@@ -32437,7 +32437,7 @@
         <v>1.971</v>
       </c>
       <c r="N542" t="n">
-        <v>2.084</v>
+        <v>2.087</v>
       </c>
       <c r="O542" t="n">
         <v>2.132</v>
@@ -32496,7 +32496,7 @@
         <v>1.991</v>
       </c>
       <c r="N543" t="n">
-        <v>2.096</v>
+        <v>2.086</v>
       </c>
       <c r="O543" t="n">
         <v>2.133</v>
@@ -32555,7 +32555,7 @@
         <v>1.891</v>
       </c>
       <c r="N544" t="n">
-        <v>1.997</v>
+        <v>1.995</v>
       </c>
       <c r="O544" t="n">
         <v>2.042</v>
@@ -32614,7 +32614,7 @@
         <v>1.953</v>
       </c>
       <c r="N545" t="n">
-        <v>2.062</v>
+        <v>2.051</v>
       </c>
       <c r="O545" t="n">
         <v>2.109</v>
@@ -32673,7 +32673,7 @@
         <v>1.922</v>
       </c>
       <c r="N546" t="n">
-        <v>2.033</v>
+        <v>2.031</v>
       </c>
       <c r="O546" t="n">
         <v>2.078</v>
@@ -32732,7 +32732,7 @@
         <v>2.083</v>
       </c>
       <c r="N547" t="n">
-        <v>2.199</v>
+        <v>2.202</v>
       </c>
       <c r="O547" t="n">
         <v>2.243</v>
@@ -32791,7 +32791,7 @@
         <v>2.161</v>
       </c>
       <c r="N548" t="n">
-        <v>2.275</v>
+        <v>2.257</v>
       </c>
       <c r="O548" t="n">
         <v>2.321</v>
@@ -32850,7 +32850,7 @@
         <v>2.18</v>
       </c>
       <c r="N549" t="n">
-        <v>2.294</v>
+        <v>2.288</v>
       </c>
       <c r="O549" t="n">
         <v>2.339</v>
@@ -32909,7 +32909,7 @@
         <v>2.204</v>
       </c>
       <c r="N550" t="n">
-        <v>2.316</v>
+        <v>2.342</v>
       </c>
       <c r="O550" t="n">
         <v>2.364</v>
@@ -32925,6 +32925,65 @@
       </c>
       <c r="S550" t="n">
         <v>2.997</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B551" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="C551" t="n">
+        <v>-0.572</v>
+      </c>
+      <c r="D551" t="n">
+        <v>-0.433</v>
+      </c>
+      <c r="E551" t="n">
+        <v>-0.231</v>
+      </c>
+      <c r="F551" t="n">
+        <v>-0.311</v>
+      </c>
+      <c r="G551" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H551" t="n">
+        <v>1.258</v>
+      </c>
+      <c r="I551" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="J551" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="K551" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="L551" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="M551" t="n">
+        <v>2.303</v>
+      </c>
+      <c r="N551" t="n">
+        <v>2.422</v>
+      </c>
+      <c r="O551" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="P551" t="n">
+        <v>2.589</v>
+      </c>
+      <c r="Q551" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="R551" t="n">
+        <v>2.827</v>
+      </c>
+      <c r="S551" t="n">
+        <v>3.038</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S551"/>
+  <dimension ref="A1:S552"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32909,7 +32909,7 @@
         <v>2.204</v>
       </c>
       <c r="N550" t="n">
-        <v>2.342</v>
+        <v>2.316</v>
       </c>
       <c r="O550" t="n">
         <v>2.364</v>
@@ -32968,7 +32968,7 @@
         <v>2.303</v>
       </c>
       <c r="N551" t="n">
-        <v>2.422</v>
+        <v>2.417</v>
       </c>
       <c r="O551" t="n">
         <v>2.46</v>
@@ -32984,6 +32984,65 @@
       </c>
       <c r="S551" t="n">
         <v>3.038</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="2" t="n">
+        <v>44663</v>
+      </c>
+      <c r="B552" t="n">
+        <v>-0.574</v>
+      </c>
+      <c r="C552" t="n">
+        <v>-0.572</v>
+      </c>
+      <c r="D552" t="n">
+        <v>-0.405</v>
+      </c>
+      <c r="E552" t="n">
+        <v>-0.335</v>
+      </c>
+      <c r="F552" t="n">
+        <v>-0.311</v>
+      </c>
+      <c r="G552" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="H552" t="n">
+        <v>1.258</v>
+      </c>
+      <c r="I552" t="n">
+        <v>1.541</v>
+      </c>
+      <c r="J552" t="n">
+        <v>1.624</v>
+      </c>
+      <c r="K552" t="n">
+        <v>1.898</v>
+      </c>
+      <c r="L552" t="n">
+        <v>2.061</v>
+      </c>
+      <c r="M552" t="n">
+        <v>2.303</v>
+      </c>
+      <c r="N552" t="n">
+        <v>2.417</v>
+      </c>
+      <c r="O552" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="P552" t="n">
+        <v>2.589</v>
+      </c>
+      <c r="Q552" t="n">
+        <v>2.771</v>
+      </c>
+      <c r="R552" t="n">
+        <v>2.827</v>
+      </c>
+      <c r="S552" t="n">
+        <v>3.081</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S552"/>
+  <dimension ref="A1:S553"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32997,7 +32997,7 @@
         <v>-0.572</v>
       </c>
       <c r="D552" t="n">
-        <v>-0.405</v>
+        <v>-0.392</v>
       </c>
       <c r="E552" t="n">
         <v>-0.335</v>
@@ -33043,6 +33043,65 @@
       </c>
       <c r="S552" t="n">
         <v>3.081</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="2" t="n">
+        <v>44664</v>
+      </c>
+      <c r="B553" t="n">
+        <v>-0.571</v>
+      </c>
+      <c r="C553" t="n">
+        <v>-0.569</v>
+      </c>
+      <c r="D553" t="n">
+        <v>-0.41</v>
+      </c>
+      <c r="E553" t="n">
+        <v>-0.343</v>
+      </c>
+      <c r="F553" t="n">
+        <v>-0.304</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.416</v>
+      </c>
+      <c r="H553" t="n">
+        <v>1.174</v>
+      </c>
+      <c r="I553" t="n">
+        <v>1.442</v>
+      </c>
+      <c r="J553" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="K553" t="n">
+        <v>1.787</v>
+      </c>
+      <c r="L553" t="n">
+        <v>1.969</v>
+      </c>
+      <c r="M553" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="N553" t="n">
+        <v>2.326</v>
+      </c>
+      <c r="O553" t="n">
+        <v>2.369</v>
+      </c>
+      <c r="P553" t="n">
+        <v>2.509</v>
+      </c>
+      <c r="Q553" t="n">
+        <v>2.696</v>
+      </c>
+      <c r="R553" t="n">
+        <v>2.758</v>
+      </c>
+      <c r="S553" t="n">
+        <v>3.041</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S553"/>
+  <dimension ref="A1:S554"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33056,7 +33056,7 @@
         <v>-0.569</v>
       </c>
       <c r="D553" t="n">
-        <v>-0.41</v>
+        <v>-0.373</v>
       </c>
       <c r="E553" t="n">
         <v>-0.343</v>
@@ -33102,6 +33102,65 @@
       </c>
       <c r="S553" t="n">
         <v>3.041</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="2" t="n">
+        <v>44665</v>
+      </c>
+      <c r="B554" t="n">
+        <v>-0.537</v>
+      </c>
+      <c r="C554" t="n">
+        <v>-0.544</v>
+      </c>
+      <c r="D554" t="n">
+        <v>-0.356</v>
+      </c>
+      <c r="E554" t="n">
+        <v>-0.367</v>
+      </c>
+      <c r="F554" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="G554" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="H554" t="n">
+        <v>1.222</v>
+      </c>
+      <c r="I554" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="J554" t="n">
+        <v>1.582</v>
+      </c>
+      <c r="K554" t="n">
+        <v>1.871</v>
+      </c>
+      <c r="L554" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="M554" t="n">
+        <v>2.328</v>
+      </c>
+      <c r="N554" t="n">
+        <v>2.449</v>
+      </c>
+      <c r="O554" t="n">
+        <v>2.493</v>
+      </c>
+      <c r="P554" t="n">
+        <v>2.655</v>
+      </c>
+      <c r="Q554" t="n">
+        <v>2.837</v>
+      </c>
+      <c r="R554" t="n">
+        <v>2.923</v>
+      </c>
+      <c r="S554" t="n">
+        <v>3.042</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S554"/>
+  <dimension ref="A1:S555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33163,6 +33163,65 @@
         <v>3.042</v>
       </c>
     </row>
+    <row r="555">
+      <c r="A555" s="2" t="n">
+        <v>44670</v>
+      </c>
+      <c r="B555" t="n">
+        <v>-0.676</v>
+      </c>
+      <c r="C555" t="n">
+        <v>-0.535</v>
+      </c>
+      <c r="D555" t="n">
+        <v>-0.414</v>
+      </c>
+      <c r="E555" t="n">
+        <v>-0.365</v>
+      </c>
+      <c r="F555" t="n">
+        <v>-0.189</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H555" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I555" t="n">
+        <v>1.521</v>
+      </c>
+      <c r="J555" t="n">
+        <v>1.609</v>
+      </c>
+      <c r="K555" t="n">
+        <v>1.906</v>
+      </c>
+      <c r="L555" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="M555" t="n">
+        <v>2.389</v>
+      </c>
+      <c r="N555" t="n">
+        <v>2.514</v>
+      </c>
+      <c r="O555" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="P555" t="n">
+        <v>2.734</v>
+      </c>
+      <c r="Q555" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="R555" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="S555" t="n">
+        <v>3.165</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S555"/>
+  <dimension ref="A1:S556"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33222,6 +33222,65 @@
         <v>3.165</v>
       </c>
     </row>
+    <row r="556">
+      <c r="A556" s="2" t="n">
+        <v>44671</v>
+      </c>
+      <c r="B556" t="n">
+        <v>-0.701</v>
+      </c>
+      <c r="C556" t="n">
+        <v>-0.658</v>
+      </c>
+      <c r="D556" t="n">
+        <v>-0.411</v>
+      </c>
+      <c r="E556" t="n">
+        <v>-0.362</v>
+      </c>
+      <c r="F556" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="G556" t="n">
+        <v>0.405</v>
+      </c>
+      <c r="H556" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="I556" t="n">
+        <v>1.499</v>
+      </c>
+      <c r="J556" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="K556" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="L556" t="n">
+        <v>2.082</v>
+      </c>
+      <c r="M556" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="N556" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="O556" t="n">
+        <v>2.518</v>
+      </c>
+      <c r="P556" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="Q556" t="n">
+        <v>2.848</v>
+      </c>
+      <c r="R556" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="S556" t="n">
+        <v>3.216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S556"/>
+  <dimension ref="A1:S557"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33281,6 +33281,65 @@
         <v>3.216</v>
       </c>
     </row>
+    <row r="557">
+      <c r="A557" s="2" t="n">
+        <v>44672</v>
+      </c>
+      <c r="B557" t="n">
+        <v>-0.6860000000000001</v>
+      </c>
+      <c r="C557" t="n">
+        <v>-0.651</v>
+      </c>
+      <c r="D557" t="n">
+        <v>-0.387</v>
+      </c>
+      <c r="E557" t="n">
+        <v>-0.337</v>
+      </c>
+      <c r="F557" t="n">
+        <v>-0.183</v>
+      </c>
+      <c r="G557" t="n">
+        <v>0.491</v>
+      </c>
+      <c r="H557" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="I557" t="n">
+        <v>1.586</v>
+      </c>
+      <c r="J557" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="K557" t="n">
+        <v>1.939</v>
+      </c>
+      <c r="L557" t="n">
+        <v>2.155</v>
+      </c>
+      <c r="M557" t="n">
+        <v>2.411</v>
+      </c>
+      <c r="N557" t="n">
+        <v>2.535</v>
+      </c>
+      <c r="O557" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="P557" t="n">
+        <v>2.742</v>
+      </c>
+      <c r="Q557" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="R557" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="S557" t="n">
+        <v>3.151</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S557"/>
+  <dimension ref="A1:S558"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33340,6 +33340,65 @@
         <v>3.151</v>
       </c>
     </row>
+    <row r="558">
+      <c r="A558" s="2" t="n">
+        <v>44673</v>
+      </c>
+      <c r="B558" t="n">
+        <v>-0.643</v>
+      </c>
+      <c r="C558" t="n">
+        <v>-0.621</v>
+      </c>
+      <c r="D558" t="n">
+        <v>-0.378</v>
+      </c>
+      <c r="E558" t="n">
+        <v>-0.308</v>
+      </c>
+      <c r="F558" t="n">
+        <v>-0.133</v>
+      </c>
+      <c r="G558" t="n">
+        <v>0.588</v>
+      </c>
+      <c r="H558" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="I558" t="n">
+        <v>1.688</v>
+      </c>
+      <c r="J558" t="n">
+        <v>1.763</v>
+      </c>
+      <c r="K558" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="L558" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M558" t="n">
+        <v>2.502</v>
+      </c>
+      <c r="N558" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="O558" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="P558" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="Q558" t="n">
+        <v>2.981</v>
+      </c>
+      <c r="R558" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="S558" t="n">
+        <v>3.241</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S558"/>
+  <dimension ref="A1:S559"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33399,6 +33399,65 @@
         <v>3.241</v>
       </c>
     </row>
+    <row r="559">
+      <c r="A559" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B559" t="n">
+        <v>-0.674</v>
+      </c>
+      <c r="C559" t="n">
+        <v>-0.636</v>
+      </c>
+      <c r="D559" t="n">
+        <v>-0.383</v>
+      </c>
+      <c r="E559" t="n">
+        <v>-0.329</v>
+      </c>
+      <c r="F559" t="n">
+        <v>-0.147</v>
+      </c>
+      <c r="G559" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="H559" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="I559" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="J559" t="n">
+        <v>1.669</v>
+      </c>
+      <c r="K559" t="n">
+        <v>1.928</v>
+      </c>
+      <c r="L559" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="M559" t="n">
+        <v>2.417</v>
+      </c>
+      <c r="N559" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="O559" t="n">
+        <v>2.584</v>
+      </c>
+      <c r="P559" t="n">
+        <v>2.761</v>
+      </c>
+      <c r="Q559" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="R559" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="S559" t="n">
+        <v>3.238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S559"/>
+  <dimension ref="A1:S560"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33425,7 +33425,7 @@
         <v>1.344</v>
       </c>
       <c r="I559" t="n">
-        <v>1.59</v>
+        <v>1.597</v>
       </c>
       <c r="J559" t="n">
         <v>1.669</v>
@@ -33456,6 +33456,65 @@
       </c>
       <c r="S559" t="n">
         <v>3.238</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="2" t="n">
+        <v>44677</v>
+      </c>
+      <c r="B560" t="n">
+        <v>-0.6879999999999999</v>
+      </c>
+      <c r="C560" t="n">
+        <v>-0.661</v>
+      </c>
+      <c r="D560" t="n">
+        <v>-0.386</v>
+      </c>
+      <c r="E560" t="n">
+        <v>-0.298</v>
+      </c>
+      <c r="F560" t="n">
+        <v>-0.141</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.524</v>
+      </c>
+      <c r="H560" t="n">
+        <v>1.314</v>
+      </c>
+      <c r="I560" t="n">
+        <v>1.561</v>
+      </c>
+      <c r="J560" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="K560" t="n">
+        <v>1.896</v>
+      </c>
+      <c r="L560" t="n">
+        <v>2.128</v>
+      </c>
+      <c r="M560" t="n">
+        <v>2.374</v>
+      </c>
+      <c r="N560" t="n">
+        <v>2.499</v>
+      </c>
+      <c r="O560" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="P560" t="n">
+        <v>2.717</v>
+      </c>
+      <c r="Q560" t="n">
+        <v>2.884</v>
+      </c>
+      <c r="R560" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="S560" t="n">
+        <v>3.203</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S560"/>
+  <dimension ref="A1:S561"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33407,13 +33407,13 @@
         <v>-0.674</v>
       </c>
       <c r="C559" t="n">
-        <v>-0.636</v>
+        <v>-0.627</v>
       </c>
       <c r="D559" t="n">
         <v>-0.383</v>
       </c>
       <c r="E559" t="n">
-        <v>-0.329</v>
+        <v>-0.318</v>
       </c>
       <c r="F559" t="n">
         <v>-0.147</v>
@@ -33431,7 +33431,7 @@
         <v>1.669</v>
       </c>
       <c r="K559" t="n">
-        <v>1.928</v>
+        <v>1.942</v>
       </c>
       <c r="L559" t="n">
         <v>2.17</v>
@@ -33452,7 +33452,7 @@
         <v>2.931</v>
       </c>
       <c r="R559" t="n">
-        <v>3.016</v>
+        <v>3.015</v>
       </c>
       <c r="S559" t="n">
         <v>3.238</v>
@@ -33478,7 +33478,7 @@
         <v>-0.141</v>
       </c>
       <c r="G560" t="n">
-        <v>0.524</v>
+        <v>0.522</v>
       </c>
       <c r="H560" t="n">
         <v>1.314</v>
@@ -33493,7 +33493,7 @@
         <v>1.896</v>
       </c>
       <c r="L560" t="n">
-        <v>2.128</v>
+        <v>2.126</v>
       </c>
       <c r="M560" t="n">
         <v>2.374</v>
@@ -33505,7 +33505,7 @@
         <v>2.539</v>
       </c>
       <c r="P560" t="n">
-        <v>2.717</v>
+        <v>2.719</v>
       </c>
       <c r="Q560" t="n">
         <v>2.884</v>
@@ -33515,6 +33515,65 @@
       </c>
       <c r="S560" t="n">
         <v>3.203</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="2" t="n">
+        <v>44678</v>
+      </c>
+      <c r="B561" t="n">
+        <v>-0.6820000000000001</v>
+      </c>
+      <c r="C561" t="n">
+        <v>-0.643</v>
+      </c>
+      <c r="D561" t="n">
+        <v>-0.403</v>
+      </c>
+      <c r="E561" t="n">
+        <v>-0.336</v>
+      </c>
+      <c r="F561" t="n">
+        <v>-0.144</v>
+      </c>
+      <c r="G561" t="n">
+        <v>0.513</v>
+      </c>
+      <c r="H561" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="I561" t="n">
+        <v>1.571</v>
+      </c>
+      <c r="J561" t="n">
+        <v>1.641</v>
+      </c>
+      <c r="K561" t="n">
+        <v>1.916</v>
+      </c>
+      <c r="L561" t="n">
+        <v>2.141</v>
+      </c>
+      <c r="M561" t="n">
+        <v>2.402</v>
+      </c>
+      <c r="N561" t="n">
+        <v>2.533</v>
+      </c>
+      <c r="O561" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="P561" t="n">
+        <v>2.747</v>
+      </c>
+      <c r="Q561" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="R561" t="n">
+        <v>2.987</v>
+      </c>
+      <c r="S561" t="n">
+        <v>3.212</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S561"/>
+  <dimension ref="A1:S562"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33463,10 +33463,10 @@
         <v>44677</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.68</v>
       </c>
       <c r="C560" t="n">
-        <v>-0.661</v>
+        <v>-0.615</v>
       </c>
       <c r="D560" t="n">
         <v>-0.386</v>
@@ -33490,7 +33490,7 @@
         <v>1.632</v>
       </c>
       <c r="K560" t="n">
-        <v>1.896</v>
+        <v>1.901</v>
       </c>
       <c r="L560" t="n">
         <v>2.126</v>
@@ -33511,7 +33511,7 @@
         <v>2.884</v>
       </c>
       <c r="R560" t="n">
-        <v>2.986</v>
+        <v>2.976</v>
       </c>
       <c r="S560" t="n">
         <v>3.203</v>
@@ -33528,7 +33528,7 @@
         <v>-0.643</v>
       </c>
       <c r="D561" t="n">
-        <v>-0.403</v>
+        <v>-0.393</v>
       </c>
       <c r="E561" t="n">
         <v>-0.336</v>
@@ -33552,28 +33552,87 @@
         <v>1.916</v>
       </c>
       <c r="L561" t="n">
-        <v>2.141</v>
+        <v>2.147</v>
       </c>
       <c r="M561" t="n">
-        <v>2.402</v>
+        <v>2.405</v>
       </c>
       <c r="N561" t="n">
         <v>2.533</v>
       </c>
       <c r="O561" t="n">
-        <v>2.569</v>
+        <v>2.574</v>
       </c>
       <c r="P561" t="n">
         <v>2.747</v>
       </c>
       <c r="Q561" t="n">
-        <v>2.912</v>
+        <v>2.921</v>
       </c>
       <c r="R561" t="n">
-        <v>2.987</v>
+        <v>3.007</v>
       </c>
       <c r="S561" t="n">
         <v>3.212</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="2" t="n">
+        <v>44679</v>
+      </c>
+      <c r="B562" t="n">
+        <v>-0.6879999999999999</v>
+      </c>
+      <c r="C562" t="n">
+        <v>-0.585</v>
+      </c>
+      <c r="D562" t="n">
+        <v>-0.395</v>
+      </c>
+      <c r="E562" t="n">
+        <v>-0.292</v>
+      </c>
+      <c r="F562" t="n">
+        <v>-0.107</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="H562" t="n">
+        <v>1.438</v>
+      </c>
+      <c r="I562" t="n">
+        <v>1.712</v>
+      </c>
+      <c r="J562" t="n">
+        <v>1.769</v>
+      </c>
+      <c r="K562" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="L562" t="n">
+        <v>2.293</v>
+      </c>
+      <c r="M562" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="N562" t="n">
+        <v>2.685</v>
+      </c>
+      <c r="O562" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="P562" t="n">
+        <v>2.869</v>
+      </c>
+      <c r="Q562" t="n">
+        <v>3.041</v>
+      </c>
+      <c r="R562" t="n">
+        <v>3.096</v>
+      </c>
+      <c r="S562" t="n">
+        <v>3.278</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S562"/>
+  <dimension ref="A1:S563"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33564,7 +33564,7 @@
         <v>2.574</v>
       </c>
       <c r="P561" t="n">
-        <v>2.747</v>
+        <v>2.751</v>
       </c>
       <c r="Q561" t="n">
         <v>2.921</v>
@@ -33593,7 +33593,7 @@
         <v>-0.292</v>
       </c>
       <c r="F562" t="n">
-        <v>-0.107</v>
+        <v>-0.101</v>
       </c>
       <c r="G562" t="n">
         <v>0.632</v>
@@ -33632,7 +33632,66 @@
         <v>3.096</v>
       </c>
       <c r="S562" t="n">
-        <v>3.278</v>
+        <v>3.225</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="2" t="n">
+        <v>44680</v>
+      </c>
+      <c r="B563" t="n">
+        <v>-0.6830000000000001</v>
+      </c>
+      <c r="C563" t="n">
+        <v>-0.639</v>
+      </c>
+      <c r="D563" t="n">
+        <v>-0.395</v>
+      </c>
+      <c r="E563" t="n">
+        <v>-0.299</v>
+      </c>
+      <c r="F563" t="n">
+        <v>-0.068</v>
+      </c>
+      <c r="G563" t="n">
+        <v>0.721</v>
+      </c>
+      <c r="H563" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="I563" t="n">
+        <v>1.776</v>
+      </c>
+      <c r="J563" t="n">
+        <v>1.826</v>
+      </c>
+      <c r="K563" t="n">
+        <v>2.119</v>
+      </c>
+      <c r="L563" t="n">
+        <v>2.346</v>
+      </c>
+      <c r="M563" t="n">
+        <v>2.601</v>
+      </c>
+      <c r="N563" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="O563" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="P563" t="n">
+        <v>2.935</v>
+      </c>
+      <c r="Q563" t="n">
+        <v>3.076</v>
+      </c>
+      <c r="R563" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="S563" t="n">
+        <v>3.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -33508,7 +33508,7 @@
         <v>2.719</v>
       </c>
       <c r="Q560" t="n">
-        <v>2.884</v>
+        <v>2.891</v>
       </c>
       <c r="R560" t="n">
         <v>2.976</v>
@@ -33531,7 +33531,7 @@
         <v>-0.393</v>
       </c>
       <c r="E561" t="n">
-        <v>-0.336</v>
+        <v>-0.325</v>
       </c>
       <c r="F561" t="n">
         <v>-0.144</v>
@@ -33640,7 +33640,7 @@
         <v>44680</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.6830000000000001</v>
+        <v>-0.679</v>
       </c>
       <c r="C563" t="n">
         <v>-0.639</v>
@@ -33649,7 +33649,7 @@
         <v>-0.395</v>
       </c>
       <c r="E563" t="n">
-        <v>-0.299</v>
+        <v>-0.295</v>
       </c>
       <c r="F563" t="n">
         <v>-0.068</v>
@@ -33676,7 +33676,7 @@
         <v>2.601</v>
       </c>
       <c r="N563" t="n">
-        <v>2.73</v>
+        <v>2.743</v>
       </c>
       <c r="O563" t="n">
         <v>2.78</v>
@@ -33685,7 +33685,7 @@
         <v>2.935</v>
       </c>
       <c r="Q563" t="n">
-        <v>3.076</v>
+        <v>3.092</v>
       </c>
       <c r="R563" t="n">
         <v>3.155</v>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -33581,7 +33581,7 @@
         <v>44679</v>
       </c>
       <c r="B562" t="n">
-        <v>-0.6879999999999999</v>
+        <v>-0.659</v>
       </c>
       <c r="C562" t="n">
         <v>-0.585</v>
@@ -33608,7 +33608,7 @@
         <v>1.769</v>
       </c>
       <c r="K562" t="n">
-        <v>2.043</v>
+        <v>2.046</v>
       </c>
       <c r="L562" t="n">
         <v>2.293</v>
@@ -33623,7 +33623,7 @@
         <v>2.727</v>
       </c>
       <c r="P562" t="n">
-        <v>2.869</v>
+        <v>2.873</v>
       </c>
       <c r="Q562" t="n">
         <v>3.041</v>
@@ -33652,19 +33652,19 @@
         <v>-0.295</v>
       </c>
       <c r="F563" t="n">
-        <v>-0.068</v>
+        <v>-0.049</v>
       </c>
       <c r="G563" t="n">
         <v>0.721</v>
       </c>
       <c r="H563" t="n">
-        <v>1.515</v>
+        <v>1.524</v>
       </c>
       <c r="I563" t="n">
         <v>1.776</v>
       </c>
       <c r="J563" t="n">
-        <v>1.826</v>
+        <v>1.843</v>
       </c>
       <c r="K563" t="n">
         <v>2.119</v>
@@ -33691,7 +33691,7 @@
         <v>3.155</v>
       </c>
       <c r="S563" t="n">
-        <v>3.3</v>
+        <v>3.303</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S563"/>
+  <dimension ref="A1:S564"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33587,7 +33587,7 @@
         <v>-0.585</v>
       </c>
       <c r="D562" t="n">
-        <v>-0.395</v>
+        <v>-0.385</v>
       </c>
       <c r="E562" t="n">
         <v>-0.292</v>
@@ -33673,7 +33673,7 @@
         <v>2.346</v>
       </c>
       <c r="M563" t="n">
-        <v>2.601</v>
+        <v>2.609</v>
       </c>
       <c r="N563" t="n">
         <v>2.743</v>
@@ -33692,6 +33692,65 @@
       </c>
       <c r="S563" t="n">
         <v>3.303</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B564" t="n">
+        <v>-0.608</v>
+      </c>
+      <c r="C564" t="n">
+        <v>-0.604</v>
+      </c>
+      <c r="D564" t="n">
+        <v>-0.373</v>
+      </c>
+      <c r="E564" t="n">
+        <v>-0.325</v>
+      </c>
+      <c r="F564" t="n">
+        <v>-0.045</v>
+      </c>
+      <c r="G564" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="H564" t="n">
+        <v>1.564</v>
+      </c>
+      <c r="I564" t="n">
+        <v>1.821</v>
+      </c>
+      <c r="J564" t="n">
+        <v>1.888</v>
+      </c>
+      <c r="K564" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="L564" t="n">
+        <v>2.415</v>
+      </c>
+      <c r="M564" t="n">
+        <v>2.686</v>
+      </c>
+      <c r="N564" t="n">
+        <v>2.818</v>
+      </c>
+      <c r="O564" t="n">
+        <v>2.858</v>
+      </c>
+      <c r="P564" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="Q564" t="n">
+        <v>3.156</v>
+      </c>
+      <c r="R564" t="n">
+        <v>3.214</v>
+      </c>
+      <c r="S564" t="n">
+        <v>3.362</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S564"/>
+  <dimension ref="A1:S565"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33590,7 +33590,7 @@
         <v>-0.385</v>
       </c>
       <c r="E562" t="n">
-        <v>-0.292</v>
+        <v>-0.285</v>
       </c>
       <c r="F562" t="n">
         <v>-0.101</v>
@@ -33714,7 +33714,7 @@
         <v>-0.045</v>
       </c>
       <c r="G564" t="n">
-        <v>0.761</v>
+        <v>0.756</v>
       </c>
       <c r="H564" t="n">
         <v>1.564</v>
@@ -33732,25 +33732,84 @@
         <v>2.415</v>
       </c>
       <c r="M564" t="n">
-        <v>2.686</v>
+        <v>2.671</v>
       </c>
       <c r="N564" t="n">
         <v>2.818</v>
       </c>
       <c r="O564" t="n">
-        <v>2.858</v>
+        <v>2.848</v>
       </c>
       <c r="P564" t="n">
         <v>3.002</v>
       </c>
       <c r="Q564" t="n">
-        <v>3.156</v>
+        <v>3.152</v>
       </c>
       <c r="R564" t="n">
         <v>3.214</v>
       </c>
       <c r="S564" t="n">
         <v>3.362</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="2" t="n">
+        <v>44684</v>
+      </c>
+      <c r="B565" t="n">
+        <v>-0.582</v>
+      </c>
+      <c r="C565" t="n">
+        <v>-0.644</v>
+      </c>
+      <c r="D565" t="n">
+        <v>-0.37</v>
+      </c>
+      <c r="E565" t="n">
+        <v>-0.251</v>
+      </c>
+      <c r="F565" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="H565" t="n">
+        <v>1.592</v>
+      </c>
+      <c r="I565" t="n">
+        <v>1.847</v>
+      </c>
+      <c r="J565" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="K565" t="n">
+        <v>2.207</v>
+      </c>
+      <c r="L565" t="n">
+        <v>2.423</v>
+      </c>
+      <c r="M565" t="n">
+        <v>2.678</v>
+      </c>
+      <c r="N565" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="O565" t="n">
+        <v>2.867</v>
+      </c>
+      <c r="P565" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="Q565" t="n">
+        <v>3.121</v>
+      </c>
+      <c r="R565" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="S565" t="n">
+        <v>3.328</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S565"/>
+  <dimension ref="A1:S566"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33726,10 +33726,10 @@
         <v>1.888</v>
       </c>
       <c r="K564" t="n">
-        <v>2.177</v>
+        <v>2.17</v>
       </c>
       <c r="L564" t="n">
-        <v>2.415</v>
+        <v>2.407</v>
       </c>
       <c r="M564" t="n">
         <v>2.671</v>
@@ -33750,7 +33750,7 @@
         <v>3.214</v>
       </c>
       <c r="S564" t="n">
-        <v>3.362</v>
+        <v>3.322</v>
       </c>
     </row>
     <row r="565">
@@ -33758,7 +33758,7 @@
         <v>44684</v>
       </c>
       <c r="B565" t="n">
-        <v>-0.582</v>
+        <v>-0.587</v>
       </c>
       <c r="C565" t="n">
         <v>-0.644</v>
@@ -33785,7 +33785,7 @@
         <v>1.925</v>
       </c>
       <c r="K565" t="n">
-        <v>2.207</v>
+        <v>2.197</v>
       </c>
       <c r="L565" t="n">
         <v>2.423</v>
@@ -33797,7 +33797,7 @@
         <v>2.81</v>
       </c>
       <c r="O565" t="n">
-        <v>2.867</v>
+        <v>2.85</v>
       </c>
       <c r="P565" t="n">
         <v>2.99</v>
@@ -33809,7 +33809,66 @@
         <v>3.217</v>
       </c>
       <c r="S565" t="n">
-        <v>3.328</v>
+        <v>3.384</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="2" t="n">
+        <v>44685</v>
+      </c>
+      <c r="B566" t="n">
+        <v>-0.599</v>
+      </c>
+      <c r="C566" t="n">
+        <v>-0.605</v>
+      </c>
+      <c r="D566" t="n">
+        <v>-0.356</v>
+      </c>
+      <c r="E566" t="n">
+        <v>-0.221</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.948</v>
+      </c>
+      <c r="H566" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I566" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J566" t="n">
+        <v>2.065</v>
+      </c>
+      <c r="K566" t="n">
+        <v>2.322</v>
+      </c>
+      <c r="L566" t="n">
+        <v>2.541</v>
+      </c>
+      <c r="M566" t="n">
+        <v>2.799</v>
+      </c>
+      <c r="N566" t="n">
+        <v>2.922</v>
+      </c>
+      <c r="O566" t="n">
+        <v>2.963</v>
+      </c>
+      <c r="P566" t="n">
+        <v>3.056</v>
+      </c>
+      <c r="Q566" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="R566" t="n">
+        <v>3.185</v>
+      </c>
+      <c r="S566" t="n">
+        <v>3.312</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S566"/>
+  <dimension ref="A1:S567"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33871,6 +33871,65 @@
         <v>3.312</v>
       </c>
     </row>
+    <row r="567">
+      <c r="A567" s="2" t="n">
+        <v>44686</v>
+      </c>
+      <c r="B567" t="n">
+        <v>-0.618</v>
+      </c>
+      <c r="C567" t="n">
+        <v>-0.635</v>
+      </c>
+      <c r="D567" t="n">
+        <v>-0.397</v>
+      </c>
+      <c r="E567" t="n">
+        <v>-0.262</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="G567" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="H567" t="n">
+        <v>1.757</v>
+      </c>
+      <c r="I567" t="n">
+        <v>2.022</v>
+      </c>
+      <c r="J567" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="K567" t="n">
+        <v>2.368</v>
+      </c>
+      <c r="L567" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="M567" t="n">
+        <v>2.852</v>
+      </c>
+      <c r="N567" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="O567" t="n">
+        <v>3.021</v>
+      </c>
+      <c r="P567" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="Q567" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="R567" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="S567" t="n">
+        <v>3.367</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S567"/>
+  <dimension ref="A1:S568"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33930,6 +33930,65 @@
         <v>3.367</v>
       </c>
     </row>
+    <row r="568">
+      <c r="A568" s="2" t="n">
+        <v>44687</v>
+      </c>
+      <c r="B568" t="n">
+        <v>-0.637</v>
+      </c>
+      <c r="C568" t="n">
+        <v>-0.632</v>
+      </c>
+      <c r="D568" t="n">
+        <v>-0.338</v>
+      </c>
+      <c r="E568" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G568" t="n">
+        <v>1.071</v>
+      </c>
+      <c r="H568" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="I568" t="n">
+        <v>2.153</v>
+      </c>
+      <c r="J568" t="n">
+        <v>2.212</v>
+      </c>
+      <c r="K568" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="L568" t="n">
+        <v>2.721</v>
+      </c>
+      <c r="M568" t="n">
+        <v>2.984</v>
+      </c>
+      <c r="N568" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="O568" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="P568" t="n">
+        <v>3.234</v>
+      </c>
+      <c r="Q568" t="n">
+        <v>3.341</v>
+      </c>
+      <c r="R568" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="S568" t="n">
+        <v>3.411</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S568"/>
+  <dimension ref="A1:S569"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33989,6 +33989,65 @@
         <v>3.411</v>
       </c>
     </row>
+    <row r="569">
+      <c r="A569" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B569" t="n">
+        <v>-0.6909999999999999</v>
+      </c>
+      <c r="C569" t="n">
+        <v>-0.61</v>
+      </c>
+      <c r="D569" t="n">
+        <v>-0.366</v>
+      </c>
+      <c r="E569" t="n">
+        <v>-0.193</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.131</v>
+      </c>
+      <c r="G569" t="n">
+        <v>1.035</v>
+      </c>
+      <c r="H569" t="n">
+        <v>1.828</v>
+      </c>
+      <c r="I569" t="n">
+        <v>2.115</v>
+      </c>
+      <c r="J569" t="n">
+        <v>2.182</v>
+      </c>
+      <c r="K569" t="n">
+        <v>2.475</v>
+      </c>
+      <c r="L569" t="n">
+        <v>2.711</v>
+      </c>
+      <c r="M569" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="N569" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="O569" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="P569" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q569" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="R569" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="S569" t="n">
+        <v>3.469</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S569"/>
+  <dimension ref="A1:S570"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -33708,10 +33708,10 @@
         <v>-0.373</v>
       </c>
       <c r="E564" t="n">
-        <v>-0.325</v>
+        <v>-0.315</v>
       </c>
       <c r="F564" t="n">
-        <v>-0.045</v>
+        <v>-0.035</v>
       </c>
       <c r="G564" t="n">
         <v>0.756</v>
@@ -33735,7 +33735,7 @@
         <v>2.671</v>
       </c>
       <c r="N564" t="n">
-        <v>2.818</v>
+        <v>2.807</v>
       </c>
       <c r="O564" t="n">
         <v>2.848</v>
@@ -33761,7 +33761,7 @@
         <v>-0.587</v>
       </c>
       <c r="C565" t="n">
-        <v>-0.644</v>
+        <v>-0.609</v>
       </c>
       <c r="D565" t="n">
         <v>-0.37</v>
@@ -33770,10 +33770,10 @@
         <v>-0.251</v>
       </c>
       <c r="F565" t="n">
-        <v>0.007</v>
+        <v>0.021</v>
       </c>
       <c r="G565" t="n">
-        <v>0.845</v>
+        <v>0.8159999999999999</v>
       </c>
       <c r="H565" t="n">
         <v>1.592</v>
@@ -33782,7 +33782,7 @@
         <v>1.847</v>
       </c>
       <c r="J565" t="n">
-        <v>1.925</v>
+        <v>1.922</v>
       </c>
       <c r="K565" t="n">
         <v>2.197</v>
@@ -33800,13 +33800,13 @@
         <v>2.85</v>
       </c>
       <c r="P565" t="n">
-        <v>2.99</v>
+        <v>2.976</v>
       </c>
       <c r="Q565" t="n">
         <v>3.121</v>
       </c>
       <c r="R565" t="n">
-        <v>3.217</v>
+        <v>3.177</v>
       </c>
       <c r="S565" t="n">
         <v>3.384</v>
@@ -33817,13 +33817,13 @@
         <v>44685</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.599</v>
+        <v>-0.591</v>
       </c>
       <c r="C566" t="n">
         <v>-0.605</v>
       </c>
       <c r="D566" t="n">
-        <v>-0.356</v>
+        <v>-0.35</v>
       </c>
       <c r="E566" t="n">
         <v>-0.221</v>
@@ -33835,40 +33835,40 @@
         <v>0.948</v>
       </c>
       <c r="H566" t="n">
-        <v>1.74</v>
+        <v>1.745</v>
       </c>
       <c r="I566" t="n">
-        <v>1.99</v>
+        <v>1.994</v>
       </c>
       <c r="J566" t="n">
         <v>2.065</v>
       </c>
       <c r="K566" t="n">
-        <v>2.322</v>
+        <v>2.327</v>
       </c>
       <c r="L566" t="n">
-        <v>2.541</v>
+        <v>2.546</v>
       </c>
       <c r="M566" t="n">
         <v>2.799</v>
       </c>
       <c r="N566" t="n">
-        <v>2.922</v>
+        <v>2.927</v>
       </c>
       <c r="O566" t="n">
         <v>2.963</v>
       </c>
       <c r="P566" t="n">
-        <v>3.056</v>
+        <v>3.059</v>
       </c>
       <c r="Q566" t="n">
-        <v>3.168</v>
+        <v>3.184</v>
       </c>
       <c r="R566" t="n">
-        <v>3.185</v>
+        <v>3.217</v>
       </c>
       <c r="S566" t="n">
-        <v>3.312</v>
+        <v>3.349</v>
       </c>
     </row>
     <row r="567">
@@ -33876,58 +33876,58 @@
         <v>44686</v>
       </c>
       <c r="B567" t="n">
-        <v>-0.618</v>
+        <v>-0.611</v>
       </c>
       <c r="C567" t="n">
-        <v>-0.635</v>
+        <v>-0.6</v>
       </c>
       <c r="D567" t="n">
-        <v>-0.397</v>
+        <v>-0.38</v>
       </c>
       <c r="E567" t="n">
-        <v>-0.262</v>
+        <v>-0.243</v>
       </c>
       <c r="F567" t="n">
-        <v>0.05</v>
+        <v>0.093</v>
       </c>
       <c r="G567" t="n">
-        <v>0.99</v>
+        <v>0.956</v>
       </c>
       <c r="H567" t="n">
-        <v>1.757</v>
+        <v>1.753</v>
       </c>
       <c r="I567" t="n">
-        <v>2.022</v>
+        <v>2.012</v>
       </c>
       <c r="J567" t="n">
-        <v>2.083</v>
+        <v>2.087</v>
       </c>
       <c r="K567" t="n">
         <v>2.368</v>
       </c>
       <c r="L567" t="n">
-        <v>2.596</v>
+        <v>2.599</v>
       </c>
       <c r="M567" t="n">
-        <v>2.852</v>
+        <v>2.858</v>
       </c>
       <c r="N567" t="n">
-        <v>2.986</v>
+        <v>2.987</v>
       </c>
       <c r="O567" t="n">
-        <v>3.021</v>
+        <v>3.022</v>
       </c>
       <c r="P567" t="n">
-        <v>3.124</v>
+        <v>3.131</v>
       </c>
       <c r="Q567" t="n">
-        <v>3.243</v>
+        <v>3.259</v>
       </c>
       <c r="R567" t="n">
-        <v>3.273</v>
+        <v>3.274</v>
       </c>
       <c r="S567" t="n">
-        <v>3.367</v>
+        <v>3.345</v>
       </c>
     </row>
     <row r="568">
@@ -33935,58 +33935,58 @@
         <v>44687</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.637</v>
+        <v>-0.597</v>
       </c>
       <c r="C568" t="n">
-        <v>-0.632</v>
+        <v>-0.593</v>
       </c>
       <c r="D568" t="n">
-        <v>-0.338</v>
+        <v>-0.275</v>
       </c>
       <c r="E568" t="n">
-        <v>-0.137</v>
+        <v>-0.112</v>
       </c>
       <c r="F568" t="n">
-        <v>0.115</v>
+        <v>0.129</v>
       </c>
       <c r="G568" t="n">
-        <v>1.071</v>
+        <v>1.062</v>
       </c>
       <c r="H568" t="n">
-        <v>1.866</v>
+        <v>1.873</v>
       </c>
       <c r="I568" t="n">
-        <v>2.153</v>
+        <v>2.152</v>
       </c>
       <c r="J568" t="n">
-        <v>2.212</v>
+        <v>2.224</v>
       </c>
       <c r="K568" t="n">
-        <v>2.497</v>
+        <v>2.502</v>
       </c>
       <c r="L568" t="n">
-        <v>2.721</v>
+        <v>2.728</v>
       </c>
       <c r="M568" t="n">
-        <v>2.984</v>
+        <v>2.988</v>
       </c>
       <c r="N568" t="n">
-        <v>3.109</v>
+        <v>3.114</v>
       </c>
       <c r="O568" t="n">
-        <v>3.143</v>
+        <v>3.15</v>
       </c>
       <c r="P568" t="n">
-        <v>3.234</v>
+        <v>3.249</v>
       </c>
       <c r="Q568" t="n">
-        <v>3.341</v>
+        <v>3.364</v>
       </c>
       <c r="R568" t="n">
-        <v>3.34</v>
+        <v>3.359</v>
       </c>
       <c r="S568" t="n">
-        <v>3.411</v>
+        <v>3.389</v>
       </c>
     </row>
     <row r="569">
@@ -33994,58 +33994,117 @@
         <v>44690</v>
       </c>
       <c r="B569" t="n">
-        <v>-0.6909999999999999</v>
+        <v>-0.6919999999999999</v>
       </c>
       <c r="C569" t="n">
-        <v>-0.61</v>
+        <v>-0.574</v>
       </c>
       <c r="D569" t="n">
-        <v>-0.366</v>
+        <v>-0.353</v>
       </c>
       <c r="E569" t="n">
-        <v>-0.193</v>
+        <v>-0.184</v>
       </c>
       <c r="F569" t="n">
-        <v>0.131</v>
+        <v>0.132</v>
       </c>
       <c r="G569" t="n">
-        <v>1.035</v>
+        <v>1.021</v>
       </c>
       <c r="H569" t="n">
-        <v>1.828</v>
+        <v>1.831</v>
       </c>
       <c r="I569" t="n">
-        <v>2.115</v>
+        <v>2.111</v>
       </c>
       <c r="J569" t="n">
-        <v>2.182</v>
+        <v>2.184</v>
       </c>
       <c r="K569" t="n">
-        <v>2.475</v>
+        <v>2.473</v>
       </c>
       <c r="L569" t="n">
-        <v>2.711</v>
+        <v>2.708</v>
       </c>
       <c r="M569" t="n">
-        <v>2.98</v>
+        <v>2.971</v>
       </c>
       <c r="N569" t="n">
-        <v>3.109</v>
+        <v>3.1</v>
       </c>
       <c r="O569" t="n">
-        <v>3.15</v>
+        <v>3.138</v>
       </c>
       <c r="P569" t="n">
-        <v>3.26</v>
+        <v>3.257</v>
       </c>
       <c r="Q569" t="n">
-        <v>3.37</v>
+        <v>3.377</v>
       </c>
       <c r="R569" t="n">
-        <v>3.391</v>
+        <v>3.381</v>
       </c>
       <c r="S569" t="n">
-        <v>3.469</v>
+        <v>3.433</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="2" t="n">
+        <v>44691</v>
+      </c>
+      <c r="B570" t="n">
+        <v>-0.605</v>
+      </c>
+      <c r="C570" t="n">
+        <v>-0.607</v>
+      </c>
+      <c r="D570" t="n">
+        <v>-0.338</v>
+      </c>
+      <c r="E570" t="n">
+        <v>-0.205</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G570" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="H570" t="n">
+        <v>1.703</v>
+      </c>
+      <c r="I570" t="n">
+        <v>1.985</v>
+      </c>
+      <c r="J570" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="K570" t="n">
+        <v>2.348</v>
+      </c>
+      <c r="L570" t="n">
+        <v>2.585</v>
+      </c>
+      <c r="M570" t="n">
+        <v>2.848</v>
+      </c>
+      <c r="N570" t="n">
+        <v>2.979</v>
+      </c>
+      <c r="O570" t="n">
+        <v>3.017</v>
+      </c>
+      <c r="P570" t="n">
+        <v>3.145</v>
+      </c>
+      <c r="Q570" t="n">
+        <v>3.256</v>
+      </c>
+      <c r="R570" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="S570" t="n">
+        <v>3.501</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -34065,7 +34065,7 @@
         <v>-0.205</v>
       </c>
       <c r="F570" t="n">
-        <v>0.075</v>
+        <v>0.08699999999999999</v>
       </c>
       <c r="G570" t="n">
         <v>0.916</v>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S570"/>
+  <dimension ref="A1:S571"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34053,7 +34053,7 @@
         <v>44691</v>
       </c>
       <c r="B570" t="n">
-        <v>-0.605</v>
+        <v>-0.597</v>
       </c>
       <c r="C570" t="n">
         <v>-0.607</v>
@@ -34105,6 +34105,65 @@
       </c>
       <c r="S570" t="n">
         <v>3.501</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="2" t="n">
+        <v>44693</v>
+      </c>
+      <c r="B571" t="n">
+        <v>-0.627</v>
+      </c>
+      <c r="C571" t="n">
+        <v>-0.662</v>
+      </c>
+      <c r="D571" t="n">
+        <v>-0.279</v>
+      </c>
+      <c r="E571" t="n">
+        <v>-0.075</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="G571" t="n">
+        <v>0.658</v>
+      </c>
+      <c r="H571" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="I571" t="n">
+        <v>1.659</v>
+      </c>
+      <c r="J571" t="n">
+        <v>1.853</v>
+      </c>
+      <c r="K571" t="n">
+        <v>2.025</v>
+      </c>
+      <c r="L571" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="M571" t="n">
+        <v>2.551</v>
+      </c>
+      <c r="N571" t="n">
+        <v>2.679</v>
+      </c>
+      <c r="O571" t="n">
+        <v>2.718</v>
+      </c>
+      <c r="P571" t="n">
+        <v>2.877</v>
+      </c>
+      <c r="Q571" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="R571" t="n">
+        <v>3.037</v>
+      </c>
+      <c r="S571" t="n">
+        <v>3.289</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S571"/>
+  <dimension ref="A1:S572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34166,6 +34166,65 @@
         <v>3.289</v>
       </c>
     </row>
+    <row r="572">
+      <c r="A572" s="2" t="n">
+        <v>44694</v>
+      </c>
+      <c r="B572" t="n">
+        <v>-0.627</v>
+      </c>
+      <c r="C572" t="n">
+        <v>-0.611</v>
+      </c>
+      <c r="D572" t="n">
+        <v>-0.274</v>
+      </c>
+      <c r="E572" t="n">
+        <v>-0.07199999999999999</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="H572" t="n">
+        <v>1.482</v>
+      </c>
+      <c r="I572" t="n">
+        <v>1.767</v>
+      </c>
+      <c r="J572" t="n">
+        <v>1.962</v>
+      </c>
+      <c r="K572" t="n">
+        <v>2.142</v>
+      </c>
+      <c r="L572" t="n">
+        <v>2.391</v>
+      </c>
+      <c r="M572" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="N572" t="n">
+        <v>2.813</v>
+      </c>
+      <c r="O572" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="P572" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="Q572" t="n">
+        <v>3.165</v>
+      </c>
+      <c r="R572" t="n">
+        <v>3.177</v>
+      </c>
+      <c r="S572" t="n">
+        <v>3.204</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S572"/>
+  <dimension ref="A1:S573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34225,6 +34225,65 @@
         <v>3.204</v>
       </c>
     </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B573" t="n">
+        <v>-0.629</v>
+      </c>
+      <c r="C573" t="n">
+        <v>-0.661</v>
+      </c>
+      <c r="D573" t="n">
+        <v>-0.278</v>
+      </c>
+      <c r="E573" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="G573" t="n">
+        <v>0.779</v>
+      </c>
+      <c r="H573" t="n">
+        <v>1.502</v>
+      </c>
+      <c r="I573" t="n">
+        <v>1.785</v>
+      </c>
+      <c r="J573" t="n">
+        <v>1.972</v>
+      </c>
+      <c r="K573" t="n">
+        <v>2.145</v>
+      </c>
+      <c r="L573" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="M573" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="N573" t="n">
+        <v>2.804</v>
+      </c>
+      <c r="O573" t="n">
+        <v>2.841</v>
+      </c>
+      <c r="P573" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="Q573" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="R573" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="S573" t="n">
+        <v>3.296</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S573"/>
+  <dimension ref="A1:S574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34284,6 +34284,65 @@
         <v>3.296</v>
       </c>
     </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>44698</v>
+      </c>
+      <c r="B574" t="n">
+        <v>-0.627</v>
+      </c>
+      <c r="C574" t="n">
+        <v>-0.586</v>
+      </c>
+      <c r="D574" t="n">
+        <v>-0.236</v>
+      </c>
+      <c r="E574" t="n">
+        <v>-0.002</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G574" t="n">
+        <v>0.904</v>
+      </c>
+      <c r="H574" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I574" t="n">
+        <v>1.925</v>
+      </c>
+      <c r="J574" t="n">
+        <v>2.116</v>
+      </c>
+      <c r="K574" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="L574" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="M574" t="n">
+        <v>2.803</v>
+      </c>
+      <c r="N574" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="O574" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="P574" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="Q574" t="n">
+        <v>3.251</v>
+      </c>
+      <c r="R574" t="n">
+        <v>3.248</v>
+      </c>
+      <c r="S574" t="n">
+        <v>3.283</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S574"/>
+  <dimension ref="A1:S575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34343,6 +34343,65 @@
         <v>3.283</v>
       </c>
     </row>
+    <row r="575">
+      <c r="A575" s="2" t="n">
+        <v>44699</v>
+      </c>
+      <c r="B575" t="n">
+        <v>-0.643</v>
+      </c>
+      <c r="C575" t="n">
+        <v>-0.588</v>
+      </c>
+      <c r="D575" t="n">
+        <v>-0.226</v>
+      </c>
+      <c r="E575" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0.236</v>
+      </c>
+      <c r="G575" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="H575" t="n">
+        <v>1.651</v>
+      </c>
+      <c r="I575" t="n">
+        <v>1.938</v>
+      </c>
+      <c r="J575" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="K575" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="L575" t="n">
+        <v>2.515</v>
+      </c>
+      <c r="M575" t="n">
+        <v>2.777</v>
+      </c>
+      <c r="N575" t="n">
+        <v>2.908</v>
+      </c>
+      <c r="O575" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="P575" t="n">
+        <v>3.088</v>
+      </c>
+      <c r="Q575" t="n">
+        <v>3.214</v>
+      </c>
+      <c r="R575" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="S575" t="n">
+        <v>3.346</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S575"/>
+  <dimension ref="A1:S576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34402,6 +34402,65 @@
         <v>3.346</v>
       </c>
     </row>
+    <row r="576">
+      <c r="A576" s="2" t="n">
+        <v>44700</v>
+      </c>
+      <c r="B576" t="n">
+        <v>-0.655</v>
+      </c>
+      <c r="C576" t="n">
+        <v>-0.593</v>
+      </c>
+      <c r="D576" t="n">
+        <v>-0.222</v>
+      </c>
+      <c r="E576" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.237</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.909</v>
+      </c>
+      <c r="H576" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="I576" t="n">
+        <v>1.912</v>
+      </c>
+      <c r="J576" t="n">
+        <v>2.091</v>
+      </c>
+      <c r="K576" t="n">
+        <v>2.244</v>
+      </c>
+      <c r="L576" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="M576" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="N576" t="n">
+        <v>2.857</v>
+      </c>
+      <c r="O576" t="n">
+        <v>2.892</v>
+      </c>
+      <c r="P576" t="n">
+        <v>3.048</v>
+      </c>
+      <c r="Q576" t="n">
+        <v>3.183</v>
+      </c>
+      <c r="R576" t="n">
+        <v>3.193</v>
+      </c>
+      <c r="S576" t="n">
+        <v>3.342</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S576"/>
+  <dimension ref="A1:S577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34461,6 +34461,65 @@
         <v>3.342</v>
       </c>
     </row>
+    <row r="577">
+      <c r="A577" s="2" t="n">
+        <v>44701</v>
+      </c>
+      <c r="B577" t="n">
+        <v>-0.632</v>
+      </c>
+      <c r="C577" t="n">
+        <v>-0.59</v>
+      </c>
+      <c r="D577" t="n">
+        <v>-0.212</v>
+      </c>
+      <c r="E577" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="G577" t="n">
+        <v>0.959</v>
+      </c>
+      <c r="H577" t="n">
+        <v>1.697</v>
+      </c>
+      <c r="I577" t="n">
+        <v>1.975</v>
+      </c>
+      <c r="J577" t="n">
+        <v>2.157</v>
+      </c>
+      <c r="K577" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="L577" t="n">
+        <v>2.553</v>
+      </c>
+      <c r="M577" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="N577" t="n">
+        <v>2.945</v>
+      </c>
+      <c r="O577" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="P577" t="n">
+        <v>3.162</v>
+      </c>
+      <c r="Q577" t="n">
+        <v>3.303</v>
+      </c>
+      <c r="R577" t="n">
+        <v>3.321</v>
+      </c>
+      <c r="S577" t="n">
+        <v>3.321</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S577"/>
+  <dimension ref="A1:S578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34520,6 +34520,65 @@
         <v>3.321</v>
       </c>
     </row>
+    <row r="578">
+      <c r="A578" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B578" t="n">
+        <v>-0.632</v>
+      </c>
+      <c r="C578" t="n">
+        <v>-0.589</v>
+      </c>
+      <c r="D578" t="n">
+        <v>-0.212</v>
+      </c>
+      <c r="E578" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F578" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="G578" t="n">
+        <v>0.998</v>
+      </c>
+      <c r="H578" t="n">
+        <v>1.749</v>
+      </c>
+      <c r="I578" t="n">
+        <v>2.032</v>
+      </c>
+      <c r="J578" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="K578" t="n">
+        <v>2.371</v>
+      </c>
+      <c r="L578" t="n">
+        <v>2.606</v>
+      </c>
+      <c r="M578" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="N578" t="n">
+        <v>3.004</v>
+      </c>
+      <c r="O578" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="P578" t="n">
+        <v>3.204</v>
+      </c>
+      <c r="Q578" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="R578" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="S578" t="n">
+        <v>3.443</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S578"/>
+  <dimension ref="A1:S579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34579,6 +34579,65 @@
         <v>3.443</v>
       </c>
     </row>
+    <row r="579">
+      <c r="A579" s="2" t="n">
+        <v>44705</v>
+      </c>
+      <c r="B579" t="n">
+        <v>-0.653</v>
+      </c>
+      <c r="C579" t="n">
+        <v>-0.591</v>
+      </c>
+      <c r="D579" t="n">
+        <v>-0.219</v>
+      </c>
+      <c r="E579" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.961</v>
+      </c>
+      <c r="H579" t="n">
+        <v>1.705</v>
+      </c>
+      <c r="I579" t="n">
+        <v>1.987</v>
+      </c>
+      <c r="J579" t="n">
+        <v>2.162</v>
+      </c>
+      <c r="K579" t="n">
+        <v>2.319</v>
+      </c>
+      <c r="L579" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M579" t="n">
+        <v>2.815</v>
+      </c>
+      <c r="N579" t="n">
+        <v>2.942</v>
+      </c>
+      <c r="O579" t="n">
+        <v>2.973</v>
+      </c>
+      <c r="P579" t="n">
+        <v>3.174</v>
+      </c>
+      <c r="Q579" t="n">
+        <v>3.334</v>
+      </c>
+      <c r="R579" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="S579" t="n">
+        <v>3.482</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S579"/>
+  <dimension ref="A1:S580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34638,6 +34638,65 @@
         <v>3.482</v>
       </c>
     </row>
+    <row r="580">
+      <c r="A580" s="2" t="n">
+        <v>44706</v>
+      </c>
+      <c r="B580" t="n">
+        <v>-0.572</v>
+      </c>
+      <c r="C580" t="n">
+        <v>-0.605</v>
+      </c>
+      <c r="D580" t="n">
+        <v>-0.235</v>
+      </c>
+      <c r="E580" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0.272</v>
+      </c>
+      <c r="G580" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="H580" t="n">
+        <v>1.641</v>
+      </c>
+      <c r="I580" t="n">
+        <v>1.929</v>
+      </c>
+      <c r="J580" t="n">
+        <v>2.106</v>
+      </c>
+      <c r="K580" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="L580" t="n">
+        <v>2.508</v>
+      </c>
+      <c r="M580" t="n">
+        <v>2.774</v>
+      </c>
+      <c r="N580" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="O580" t="n">
+        <v>2.941</v>
+      </c>
+      <c r="P580" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="Q580" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="R580" t="n">
+        <v>3.345</v>
+      </c>
+      <c r="S580" t="n">
+        <v>3.485</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S580"/>
+  <dimension ref="A1:S581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34697,6 +34697,65 @@
         <v>3.485</v>
       </c>
     </row>
+    <row r="581">
+      <c r="A581" s="2" t="n">
+        <v>44707</v>
+      </c>
+      <c r="B581" t="n">
+        <v>-0.635</v>
+      </c>
+      <c r="C581" t="n">
+        <v>-0.584</v>
+      </c>
+      <c r="D581" t="n">
+        <v>-0.237</v>
+      </c>
+      <c r="E581" t="n">
+        <v>-0.083</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0.214</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.826</v>
+      </c>
+      <c r="H581" t="n">
+        <v>1.566</v>
+      </c>
+      <c r="I581" t="n">
+        <v>1.859</v>
+      </c>
+      <c r="J581" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="K581" t="n">
+        <v>2.218</v>
+      </c>
+      <c r="L581" t="n">
+        <v>2.466</v>
+      </c>
+      <c r="M581" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="N581" t="n">
+        <v>2.874</v>
+      </c>
+      <c r="O581" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="P581" t="n">
+        <v>3.127</v>
+      </c>
+      <c r="Q581" t="n">
+        <v>3.295</v>
+      </c>
+      <c r="R581" t="n">
+        <v>3.341</v>
+      </c>
+      <c r="S581" t="n">
+        <v>3.455</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S581"/>
+  <dimension ref="A1:S582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34756,6 +34756,65 @@
         <v>3.455</v>
       </c>
     </row>
+    <row r="582">
+      <c r="A582" s="2" t="n">
+        <v>44708</v>
+      </c>
+      <c r="B582" t="n">
+        <v>-0.643</v>
+      </c>
+      <c r="C582" t="n">
+        <v>-0.622</v>
+      </c>
+      <c r="D582" t="n">
+        <v>-0.245</v>
+      </c>
+      <c r="E582" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.234</v>
+      </c>
+      <c r="G582" t="n">
+        <v>0.842</v>
+      </c>
+      <c r="H582" t="n">
+        <v>1.577</v>
+      </c>
+      <c r="I582" t="n">
+        <v>1.865</v>
+      </c>
+      <c r="J582" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="K582" t="n">
+        <v>2.216</v>
+      </c>
+      <c r="L582" t="n">
+        <v>2.455</v>
+      </c>
+      <c r="M582" t="n">
+        <v>2.728</v>
+      </c>
+      <c r="N582" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="O582" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="P582" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="Q582" t="n">
+        <v>3.237</v>
+      </c>
+      <c r="R582" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="S582" t="n">
+        <v>3.446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S582"/>
+  <dimension ref="A1:S583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34815,6 +34815,65 @@
         <v>3.446</v>
       </c>
     </row>
+    <row r="583">
+      <c r="A583" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B583" t="n">
+        <v>-0.647</v>
+      </c>
+      <c r="C583" t="n">
+        <v>-0.603</v>
+      </c>
+      <c r="D583" t="n">
+        <v>-0.199</v>
+      </c>
+      <c r="E583" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="F583" t="n">
+        <v>0.257</v>
+      </c>
+      <c r="G583" t="n">
+        <v>0.924</v>
+      </c>
+      <c r="H583" t="n">
+        <v>1.667</v>
+      </c>
+      <c r="I583" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="J583" t="n">
+        <v>2.144</v>
+      </c>
+      <c r="K583" t="n">
+        <v>2.306</v>
+      </c>
+      <c r="L583" t="n">
+        <v>2.547</v>
+      </c>
+      <c r="M583" t="n">
+        <v>2.817</v>
+      </c>
+      <c r="N583" t="n">
+        <v>2.948</v>
+      </c>
+      <c r="O583" t="n">
+        <v>2.989</v>
+      </c>
+      <c r="P583" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="Q583" t="n">
+        <v>3.301</v>
+      </c>
+      <c r="R583" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="S583" t="n">
+        <v>3.412</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S583"/>
+  <dimension ref="A1:S584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34874,6 +34874,65 @@
         <v>3.412</v>
       </c>
     </row>
+    <row r="584">
+      <c r="A584" s="2" t="n">
+        <v>44712</v>
+      </c>
+      <c r="B584" t="n">
+        <v>-0.658</v>
+      </c>
+      <c r="C584" t="n">
+        <v>-0.574</v>
+      </c>
+      <c r="D584" t="n">
+        <v>-0.193</v>
+      </c>
+      <c r="E584" t="n">
+        <v>-0.107</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="G584" t="n">
+        <v>1.026</v>
+      </c>
+      <c r="H584" t="n">
+        <v>1.799</v>
+      </c>
+      <c r="I584" t="n">
+        <v>2.099</v>
+      </c>
+      <c r="J584" t="n">
+        <v>2.283</v>
+      </c>
+      <c r="K584" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L584" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="M584" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="N584" t="n">
+        <v>3.095</v>
+      </c>
+      <c r="O584" t="n">
+        <v>3.135</v>
+      </c>
+      <c r="P584" t="n">
+        <v>3.269</v>
+      </c>
+      <c r="Q584" t="n">
+        <v>3.424</v>
+      </c>
+      <c r="R584" t="n">
+        <v>3.436</v>
+      </c>
+      <c r="S584" t="n">
+        <v>3.462</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S584"/>
+  <dimension ref="A1:S586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -34933,6 +34933,124 @@
         <v>3.462</v>
       </c>
     </row>
+    <row r="585">
+      <c r="A585" s="2" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B585" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="C585" t="n">
+        <v>-0.5580000000000001</v>
+      </c>
+      <c r="D585" t="n">
+        <v>-0.183</v>
+      </c>
+      <c r="E585" t="n">
+        <v>-0.121</v>
+      </c>
+      <c r="F585" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="G585" t="n">
+        <v>1.086</v>
+      </c>
+      <c r="H585" t="n">
+        <v>1.866</v>
+      </c>
+      <c r="I585" t="n">
+        <v>2.154</v>
+      </c>
+      <c r="J585" t="n">
+        <v>2.342</v>
+      </c>
+      <c r="K585" t="n">
+        <v>2.501</v>
+      </c>
+      <c r="L585" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M585" t="n">
+        <v>3.008</v>
+      </c>
+      <c r="N585" t="n">
+        <v>3.143</v>
+      </c>
+      <c r="O585" t="n">
+        <v>3.183</v>
+      </c>
+      <c r="P585" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="Q585" t="n">
+        <v>3.477</v>
+      </c>
+      <c r="R585" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S585" t="n">
+        <v>3.527</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="2" t="n">
+        <v>44714</v>
+      </c>
+      <c r="B586" t="n">
+        <v>-0.575</v>
+      </c>
+      <c r="C586" t="n">
+        <v>-0.496</v>
+      </c>
+      <c r="D586" t="n">
+        <v>-0.178</v>
+      </c>
+      <c r="E586" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="G586" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="H586" t="n">
+        <v>1.974</v>
+      </c>
+      <c r="I586" t="n">
+        <v>2.269</v>
+      </c>
+      <c r="J586" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="K586" t="n">
+        <v>2.612</v>
+      </c>
+      <c r="L586" t="n">
+        <v>2.844</v>
+      </c>
+      <c r="M586" t="n">
+        <v>3.109</v>
+      </c>
+      <c r="N586" t="n">
+        <v>3.244</v>
+      </c>
+      <c r="O586" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="P586" t="n">
+        <v>3.426</v>
+      </c>
+      <c r="Q586" t="n">
+        <v>3.576</v>
+      </c>
+      <c r="R586" t="n">
+        <v>3.573</v>
+      </c>
+      <c r="S586" t="n">
+        <v>3.591</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S586"/>
+  <dimension ref="A1:S587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35051,6 +35051,65 @@
         <v>3.591</v>
       </c>
     </row>
+    <row r="587">
+      <c r="A587" s="2" t="n">
+        <v>44715</v>
+      </c>
+      <c r="B587" t="n">
+        <v>-0.514</v>
+      </c>
+      <c r="C587" t="n">
+        <v>-0.484</v>
+      </c>
+      <c r="D587" t="n">
+        <v>-0.065</v>
+      </c>
+      <c r="E587" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="G587" t="n">
+        <v>1.249</v>
+      </c>
+      <c r="H587" t="n">
+        <v>2.057</v>
+      </c>
+      <c r="I587" t="n">
+        <v>2.366</v>
+      </c>
+      <c r="J587" t="n">
+        <v>2.558</v>
+      </c>
+      <c r="K587" t="n">
+        <v>2.712</v>
+      </c>
+      <c r="L587" t="n">
+        <v>2.945</v>
+      </c>
+      <c r="M587" t="n">
+        <v>3.201</v>
+      </c>
+      <c r="N587" t="n">
+        <v>3.346</v>
+      </c>
+      <c r="O587" t="n">
+        <v>3.402</v>
+      </c>
+      <c r="P587" t="n">
+        <v>3.548</v>
+      </c>
+      <c r="Q587" t="n">
+        <v>3.691</v>
+      </c>
+      <c r="R587" t="n">
+        <v>3.665</v>
+      </c>
+      <c r="S587" t="n">
+        <v>3.64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S587"/>
+  <dimension ref="A1:S588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35110,6 +35110,65 @@
         <v>3.64</v>
       </c>
     </row>
+    <row r="588">
+      <c r="A588" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B588" t="n">
+        <v>-0.552</v>
+      </c>
+      <c r="C588" t="n">
+        <v>-0.465</v>
+      </c>
+      <c r="D588" t="n">
+        <v>-0.059</v>
+      </c>
+      <c r="E588" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0.464</v>
+      </c>
+      <c r="G588" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="H588" t="n">
+        <v>2.097</v>
+      </c>
+      <c r="I588" t="n">
+        <v>2.393</v>
+      </c>
+      <c r="J588" t="n">
+        <v>2.588</v>
+      </c>
+      <c r="K588" t="n">
+        <v>2.726</v>
+      </c>
+      <c r="L588" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="M588" t="n">
+        <v>3.233</v>
+      </c>
+      <c r="N588" t="n">
+        <v>3.374</v>
+      </c>
+      <c r="O588" t="n">
+        <v>3.426</v>
+      </c>
+      <c r="P588" t="n">
+        <v>3.586</v>
+      </c>
+      <c r="Q588" t="n">
+        <v>3.731</v>
+      </c>
+      <c r="R588" t="n">
+        <v>3.708</v>
+      </c>
+      <c r="S588" t="n">
+        <v>3.723</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S588"/>
+  <dimension ref="A1:S589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35169,6 +35169,65 @@
         <v>3.723</v>
       </c>
     </row>
+    <row r="589">
+      <c r="A589" s="2" t="n">
+        <v>44719</v>
+      </c>
+      <c r="B589" t="n">
+        <v>-0.5669999999999999</v>
+      </c>
+      <c r="C589" t="n">
+        <v>-0.503</v>
+      </c>
+      <c r="D589" t="n">
+        <v>-0.003</v>
+      </c>
+      <c r="E589" t="n">
+        <v>-0.153</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="G589" t="n">
+        <v>1.163</v>
+      </c>
+      <c r="H589" t="n">
+        <v>2.003</v>
+      </c>
+      <c r="I589" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="J589" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="K589" t="n">
+        <v>2.625</v>
+      </c>
+      <c r="L589" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="M589" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="N589" t="n">
+        <v>3.238</v>
+      </c>
+      <c r="O589" t="n">
+        <v>3.391</v>
+      </c>
+      <c r="P589" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="Q589" t="n">
+        <v>3.589</v>
+      </c>
+      <c r="R589" t="n">
+        <v>3.602</v>
+      </c>
+      <c r="S589" t="n">
+        <v>3.746</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S589"/>
+  <dimension ref="A1:S591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35228,6 +35228,124 @@
         <v>3.746</v>
       </c>
     </row>
+    <row r="590">
+      <c r="A590" s="2" t="n">
+        <v>44720</v>
+      </c>
+      <c r="B590" t="n">
+        <v>-0.54</v>
+      </c>
+      <c r="C590" t="n">
+        <v>-0.508</v>
+      </c>
+      <c r="D590" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E590" t="n">
+        <v>-0.111</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0.456</v>
+      </c>
+      <c r="G590" t="n">
+        <v>1.185</v>
+      </c>
+      <c r="H590" t="n">
+        <v>2.036</v>
+      </c>
+      <c r="I590" t="n">
+        <v>2.353</v>
+      </c>
+      <c r="J590" t="n">
+        <v>2.548</v>
+      </c>
+      <c r="K590" t="n">
+        <v>2.688</v>
+      </c>
+      <c r="L590" t="n">
+        <v>2.918</v>
+      </c>
+      <c r="M590" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="N590" t="n">
+        <v>3.313</v>
+      </c>
+      <c r="O590" t="n">
+        <v>3.462</v>
+      </c>
+      <c r="P590" t="n">
+        <v>3.525</v>
+      </c>
+      <c r="Q590" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="R590" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="S590" t="n">
+        <v>3.686</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="2" t="n">
+        <v>44721</v>
+      </c>
+      <c r="B591" t="n">
+        <v>-0.478</v>
+      </c>
+      <c r="C591" t="n">
+        <v>-0.427</v>
+      </c>
+      <c r="D591" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="E591" t="n">
+        <v>-0.094</v>
+      </c>
+      <c r="F591" t="n">
+        <v>0.554</v>
+      </c>
+      <c r="G591" t="n">
+        <v>1.391</v>
+      </c>
+      <c r="H591" t="n">
+        <v>2.315</v>
+      </c>
+      <c r="I591" t="n">
+        <v>2.637</v>
+      </c>
+      <c r="J591" t="n">
+        <v>2.831</v>
+      </c>
+      <c r="K591" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="L591" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="M591" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="N591" t="n">
+        <v>3.561</v>
+      </c>
+      <c r="O591" t="n">
+        <v>3.712</v>
+      </c>
+      <c r="P591" t="n">
+        <v>3.758</v>
+      </c>
+      <c r="Q591" t="n">
+        <v>3.879</v>
+      </c>
+      <c r="R591" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="S591" t="n">
+        <v>3.765</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S591"/>
+  <dimension ref="A1:S592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35298,13 +35298,13 @@
         <v>-0.427</v>
       </c>
       <c r="D591" t="n">
-        <v>0.005</v>
+        <v>0.013</v>
       </c>
       <c r="E591" t="n">
         <v>-0.094</v>
       </c>
       <c r="F591" t="n">
-        <v>0.554</v>
+        <v>0.569</v>
       </c>
       <c r="G591" t="n">
         <v>1.391</v>
@@ -35344,6 +35344,65 @@
       </c>
       <c r="S591" t="n">
         <v>3.765</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="2" t="n">
+        <v>44722</v>
+      </c>
+      <c r="B592" t="n">
+        <v>-0.423</v>
+      </c>
+      <c r="C592" t="n">
+        <v>-0.502</v>
+      </c>
+      <c r="D592" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="E592" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="G592" t="n">
+        <v>1.645</v>
+      </c>
+      <c r="H592" t="n">
+        <v>2.545</v>
+      </c>
+      <c r="I592" t="n">
+        <v>2.856</v>
+      </c>
+      <c r="J592" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="K592" t="n">
+        <v>3.153</v>
+      </c>
+      <c r="L592" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="M592" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="N592" t="n">
+        <v>3.708</v>
+      </c>
+      <c r="O592" t="n">
+        <v>3.845</v>
+      </c>
+      <c r="P592" t="n">
+        <v>3.857</v>
+      </c>
+      <c r="Q592" t="n">
+        <v>3.944</v>
+      </c>
+      <c r="R592" t="n">
+        <v>3.915</v>
+      </c>
+      <c r="S592" t="n">
+        <v>3.905</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -35381,7 +35381,7 @@
         <v>3.153</v>
       </c>
       <c r="L592" t="n">
-        <v>3.365</v>
+        <v>3.364</v>
       </c>
       <c r="M592" t="n">
         <v>3.6</v>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S592"/>
+  <dimension ref="A1:S593"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35405,6 +35405,65 @@
         <v>3.905</v>
       </c>
     </row>
+    <row r="593">
+      <c r="A593" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B593" t="n">
+        <v>-0.423</v>
+      </c>
+      <c r="C593" t="n">
+        <v>-0.446</v>
+      </c>
+      <c r="D593" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="E593" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="F593" t="n">
+        <v>1</v>
+      </c>
+      <c r="G593" t="n">
+        <v>1.993</v>
+      </c>
+      <c r="H593" t="n">
+        <v>2.919</v>
+      </c>
+      <c r="I593" t="n">
+        <v>3.204</v>
+      </c>
+      <c r="J593" t="n">
+        <v>3.377</v>
+      </c>
+      <c r="K593" t="n">
+        <v>3.474</v>
+      </c>
+      <c r="L593" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="M593" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="N593" t="n">
+        <v>3.978</v>
+      </c>
+      <c r="O593" t="n">
+        <v>4.099</v>
+      </c>
+      <c r="P593" t="n">
+        <v>4.093</v>
+      </c>
+      <c r="Q593" t="n">
+        <v>4.162</v>
+      </c>
+      <c r="R593" t="n">
+        <v>4.101</v>
+      </c>
+      <c r="S593" t="n">
+        <v>3.966</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S593"/>
+  <dimension ref="A1:S594"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35464,6 +35464,65 @@
         <v>3.966</v>
       </c>
     </row>
+    <row r="594">
+      <c r="A594" s="2" t="n">
+        <v>44726</v>
+      </c>
+      <c r="B594" t="n">
+        <v>-0.525</v>
+      </c>
+      <c r="C594" t="n">
+        <v>-0.455</v>
+      </c>
+      <c r="D594" t="n">
+        <v>0.171</v>
+      </c>
+      <c r="E594" t="n">
+        <v>0.343</v>
+      </c>
+      <c r="F594" t="n">
+        <v>1.016</v>
+      </c>
+      <c r="G594" t="n">
+        <v>2.055</v>
+      </c>
+      <c r="H594" t="n">
+        <v>3.005</v>
+      </c>
+      <c r="I594" t="n">
+        <v>3.285</v>
+      </c>
+      <c r="J594" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="K594" t="n">
+        <v>3.563</v>
+      </c>
+      <c r="L594" t="n">
+        <v>3.759</v>
+      </c>
+      <c r="M594" t="n">
+        <v>3.988</v>
+      </c>
+      <c r="N594" t="n">
+        <v>4.085</v>
+      </c>
+      <c r="O594" t="n">
+        <v>4.219</v>
+      </c>
+      <c r="P594" t="n">
+        <v>4.203</v>
+      </c>
+      <c r="Q594" t="n">
+        <v>4.269</v>
+      </c>
+      <c r="R594" t="n">
+        <v>4.222</v>
+      </c>
+      <c r="S594" t="n">
+        <v>4.142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S594"/>
+  <dimension ref="A1:S597"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35523,6 +35523,183 @@
         <v>4.142</v>
       </c>
     </row>
+    <row r="595">
+      <c r="A595" s="2" t="n">
+        <v>44727</v>
+      </c>
+      <c r="B595" t="n">
+        <v>-0.46</v>
+      </c>
+      <c r="C595" t="n">
+        <v>-0.357</v>
+      </c>
+      <c r="D595" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="E595" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G595" t="n">
+        <v>1.696</v>
+      </c>
+      <c r="H595" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="I595" t="n">
+        <v>2.861</v>
+      </c>
+      <c r="J595" t="n">
+        <v>3.047</v>
+      </c>
+      <c r="K595" t="n">
+        <v>3.176</v>
+      </c>
+      <c r="L595" t="n">
+        <v>3.401</v>
+      </c>
+      <c r="M595" t="n">
+        <v>3.647</v>
+      </c>
+      <c r="N595" t="n">
+        <v>3.769</v>
+      </c>
+      <c r="O595" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="P595" t="n">
+        <v>3.892</v>
+      </c>
+      <c r="Q595" t="n">
+        <v>3.973</v>
+      </c>
+      <c r="R595" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="S595" t="n">
+        <v>4.292</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="2" t="n">
+        <v>44728</v>
+      </c>
+      <c r="B596" t="n">
+        <v>-0.392</v>
+      </c>
+      <c r="C596" t="n">
+        <v>-0.356</v>
+      </c>
+      <c r="D596" t="n">
+        <v>0.179</v>
+      </c>
+      <c r="E596" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G596" t="n">
+        <v>1.702</v>
+      </c>
+      <c r="H596" t="n">
+        <v>2.529</v>
+      </c>
+      <c r="I596" t="n">
+        <v>2.851</v>
+      </c>
+      <c r="J596" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="K596" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="L596" t="n">
+        <v>3.372</v>
+      </c>
+      <c r="M596" t="n">
+        <v>3.609</v>
+      </c>
+      <c r="N596" t="n">
+        <v>3.724</v>
+      </c>
+      <c r="O596" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="P596" t="n">
+        <v>3.836</v>
+      </c>
+      <c r="Q596" t="n">
+        <v>3.918</v>
+      </c>
+      <c r="R596" t="n">
+        <v>3.898</v>
+      </c>
+      <c r="S596" t="n">
+        <v>3.988</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="2" t="n">
+        <v>44729</v>
+      </c>
+      <c r="B597" t="n">
+        <v>-0.452</v>
+      </c>
+      <c r="C597" t="n">
+        <v>-0.288</v>
+      </c>
+      <c r="D597" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E597" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0.885</v>
+      </c>
+      <c r="G597" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="H597" t="n">
+        <v>2.336</v>
+      </c>
+      <c r="I597" t="n">
+        <v>2.661</v>
+      </c>
+      <c r="J597" t="n">
+        <v>2.855</v>
+      </c>
+      <c r="K597" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="L597" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="M597" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="N597" t="n">
+        <v>3.542</v>
+      </c>
+      <c r="O597" t="n">
+        <v>3.675</v>
+      </c>
+      <c r="P597" t="n">
+        <v>3.663</v>
+      </c>
+      <c r="Q597" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="R597" t="n">
+        <v>3.739</v>
+      </c>
+      <c r="S597" t="n">
+        <v>3.914</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S597"/>
+  <dimension ref="A1:S598"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35700,6 +35700,65 @@
         <v>3.914</v>
       </c>
     </row>
+    <row r="598">
+      <c r="A598" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B598" t="n">
+        <v>-0.513</v>
+      </c>
+      <c r="C598" t="n">
+        <v>-0.276</v>
+      </c>
+      <c r="D598" t="n">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="E598" t="n">
+        <v>0.266</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="G598" t="n">
+        <v>1.584</v>
+      </c>
+      <c r="H598" t="n">
+        <v>2.385</v>
+      </c>
+      <c r="I598" t="n">
+        <v>2.726</v>
+      </c>
+      <c r="J598" t="n">
+        <v>2.915</v>
+      </c>
+      <c r="K598" t="n">
+        <v>3.045</v>
+      </c>
+      <c r="L598" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="M598" t="n">
+        <v>3.519</v>
+      </c>
+      <c r="N598" t="n">
+        <v>3.659</v>
+      </c>
+      <c r="O598" t="n">
+        <v>3.804</v>
+      </c>
+      <c r="P598" t="n">
+        <v>3.768</v>
+      </c>
+      <c r="Q598" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="R598" t="n">
+        <v>3.836</v>
+      </c>
+      <c r="S598" t="n">
+        <v>3.817</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S598"/>
+  <dimension ref="A1:S599"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35705,58 +35705,117 @@
         <v>44732</v>
       </c>
       <c r="B598" t="n">
-        <v>-0.513</v>
+        <v>-0.452</v>
       </c>
       <c r="C598" t="n">
-        <v>-0.276</v>
+        <v>-0.288</v>
       </c>
       <c r="D598" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.01</v>
       </c>
       <c r="E598" t="n">
-        <v>0.266</v>
+        <v>0.185</v>
       </c>
       <c r="F598" t="n">
-        <v>0.884</v>
+        <v>0.885</v>
       </c>
       <c r="G598" t="n">
-        <v>1.584</v>
+        <v>1.56</v>
       </c>
       <c r="H598" t="n">
-        <v>2.385</v>
+        <v>2.336</v>
       </c>
       <c r="I598" t="n">
-        <v>2.726</v>
+        <v>2.661</v>
       </c>
       <c r="J598" t="n">
-        <v>2.915</v>
+        <v>2.855</v>
       </c>
       <c r="K598" t="n">
-        <v>3.045</v>
+        <v>2.974</v>
       </c>
       <c r="L598" t="n">
-        <v>3.28</v>
+        <v>3.191</v>
       </c>
       <c r="M598" t="n">
-        <v>3.519</v>
+        <v>3.417</v>
       </c>
       <c r="N598" t="n">
-        <v>3.659</v>
+        <v>3.542</v>
       </c>
       <c r="O598" t="n">
-        <v>3.804</v>
+        <v>3.675</v>
       </c>
       <c r="P598" t="n">
-        <v>3.768</v>
+        <v>3.663</v>
       </c>
       <c r="Q598" t="n">
-        <v>3.848</v>
+        <v>3.752</v>
       </c>
       <c r="R598" t="n">
-        <v>3.836</v>
+        <v>3.739</v>
       </c>
       <c r="S598" t="n">
         <v>3.817</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="2" t="n">
+        <v>44733</v>
+      </c>
+      <c r="B599" t="n">
+        <v>-0.494</v>
+      </c>
+      <c r="C599" t="n">
+        <v>-0.291</v>
+      </c>
+      <c r="D599" t="n">
+        <v>0.129</v>
+      </c>
+      <c r="E599" t="n">
+        <v>0.356</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.831</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.579</v>
+      </c>
+      <c r="H599" t="n">
+        <v>2.373</v>
+      </c>
+      <c r="I599" t="n">
+        <v>2.704</v>
+      </c>
+      <c r="J599" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="K599" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="L599" t="n">
+        <v>3.272</v>
+      </c>
+      <c r="M599" t="n">
+        <v>3.511</v>
+      </c>
+      <c r="N599" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="O599" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="P599" t="n">
+        <v>3.781</v>
+      </c>
+      <c r="Q599" t="n">
+        <v>3.875</v>
+      </c>
+      <c r="R599" t="n">
+        <v>3.841</v>
+      </c>
+      <c r="S599" t="n">
+        <v>3.933</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S599"/>
+  <dimension ref="A1:S600"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35776,7 +35776,7 @@
         <v>0.356</v>
       </c>
       <c r="F599" t="n">
-        <v>0.831</v>
+        <v>0.845</v>
       </c>
       <c r="G599" t="n">
         <v>1.579</v>
@@ -35816,6 +35816,65 @@
       </c>
       <c r="S599" t="n">
         <v>3.933</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="2" t="n">
+        <v>44734</v>
+      </c>
+      <c r="B600" t="n">
+        <v>-0.679</v>
+      </c>
+      <c r="C600" t="n">
+        <v>-0.306</v>
+      </c>
+      <c r="D600" t="n">
+        <v>0.116</v>
+      </c>
+      <c r="E600" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.728</v>
+      </c>
+      <c r="G600" t="n">
+        <v>1.461</v>
+      </c>
+      <c r="H600" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="I600" t="n">
+        <v>2.547</v>
+      </c>
+      <c r="J600" t="n">
+        <v>2.759</v>
+      </c>
+      <c r="K600" t="n">
+        <v>2.888</v>
+      </c>
+      <c r="L600" t="n">
+        <v>3.116</v>
+      </c>
+      <c r="M600" t="n">
+        <v>3.356</v>
+      </c>
+      <c r="N600" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="O600" t="n">
+        <v>3.637</v>
+      </c>
+      <c r="P600" t="n">
+        <v>3.656</v>
+      </c>
+      <c r="Q600" t="n">
+        <v>3.755</v>
+      </c>
+      <c r="R600" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="S600" t="n">
+        <v>3.955</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S600"/>
+  <dimension ref="A1:S601"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35744,7 +35744,7 @@
         <v>3.542</v>
       </c>
       <c r="O598" t="n">
-        <v>3.675</v>
+        <v>3.772</v>
       </c>
       <c r="P598" t="n">
         <v>3.663</v>
@@ -35875,6 +35875,65 @@
       </c>
       <c r="S600" t="n">
         <v>3.955</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="2" t="n">
+        <v>44735</v>
+      </c>
+      <c r="B601" t="n">
+        <v>-0.836</v>
+      </c>
+      <c r="C601" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="D601" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E601" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G601" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="H601" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="I601" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="J601" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="K601" t="n">
+        <v>2.711</v>
+      </c>
+      <c r="L601" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="M601" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="N601" t="n">
+        <v>3.329</v>
+      </c>
+      <c r="O601" t="n">
+        <v>3.485</v>
+      </c>
+      <c r="P601" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q601" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="R601" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="S601" t="n">
+        <v>3.912</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S601"/>
+  <dimension ref="A1:S602"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35936,6 +35936,65 @@
         <v>3.912</v>
       </c>
     </row>
+    <row r="602">
+      <c r="A602" s="2" t="n">
+        <v>44736</v>
+      </c>
+      <c r="B602" t="n">
+        <v>-0.836</v>
+      </c>
+      <c r="C602" t="n">
+        <v>-0.315</v>
+      </c>
+      <c r="D602" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E602" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="G602" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="H602" t="n">
+        <v>2.035</v>
+      </c>
+      <c r="I602" t="n">
+        <v>2.357</v>
+      </c>
+      <c r="J602" t="n">
+        <v>2.569</v>
+      </c>
+      <c r="K602" t="n">
+        <v>2.711</v>
+      </c>
+      <c r="L602" t="n">
+        <v>2.957</v>
+      </c>
+      <c r="M602" t="n">
+        <v>3.198</v>
+      </c>
+      <c r="N602" t="n">
+        <v>3.329</v>
+      </c>
+      <c r="O602" t="n">
+        <v>3.485</v>
+      </c>
+      <c r="P602" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q602" t="n">
+        <v>3.664</v>
+      </c>
+      <c r="R602" t="n">
+        <v>3.639</v>
+      </c>
+      <c r="S602" t="n">
+        <v>3.825</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S602"/>
+  <dimension ref="A1:S603"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -35995,6 +35995,65 @@
         <v>3.825</v>
       </c>
     </row>
+    <row r="603">
+      <c r="A603" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B603" t="n">
+        <v>-0.735</v>
+      </c>
+      <c r="C603" t="n">
+        <v>-0.382</v>
+      </c>
+      <c r="D603" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E603" t="n">
+        <v>0.397</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G603" t="n">
+        <v>1.431</v>
+      </c>
+      <c r="H603" t="n">
+        <v>2.194</v>
+      </c>
+      <c r="I603" t="n">
+        <v>2.503</v>
+      </c>
+      <c r="J603" t="n">
+        <v>2.714</v>
+      </c>
+      <c r="K603" t="n">
+        <v>2.868</v>
+      </c>
+      <c r="L603" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="M603" t="n">
+        <v>3.343</v>
+      </c>
+      <c r="N603" t="n">
+        <v>3.476</v>
+      </c>
+      <c r="O603" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="P603" t="n">
+        <v>3.682</v>
+      </c>
+      <c r="Q603" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="R603" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="S603" t="n">
+        <v>3.901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S603"/>
+  <dimension ref="A1:S604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36054,6 +36054,65 @@
         <v>3.901</v>
       </c>
     </row>
+    <row r="604">
+      <c r="A604" s="2" t="n">
+        <v>44740</v>
+      </c>
+      <c r="B604" t="n">
+        <v>-0.6850000000000001</v>
+      </c>
+      <c r="C604" t="n">
+        <v>-0.371</v>
+      </c>
+      <c r="D604" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E604" t="n">
+        <v>0.414</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0.736</v>
+      </c>
+      <c r="G604" t="n">
+        <v>1.437</v>
+      </c>
+      <c r="H604" t="n">
+        <v>2.217</v>
+      </c>
+      <c r="I604" t="n">
+        <v>2.525</v>
+      </c>
+      <c r="J604" t="n">
+        <v>2.737</v>
+      </c>
+      <c r="K604" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="L604" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="M604" t="n">
+        <v>3.383</v>
+      </c>
+      <c r="N604" t="n">
+        <v>3.516</v>
+      </c>
+      <c r="O604" t="n">
+        <v>3.669</v>
+      </c>
+      <c r="P604" t="n">
+        <v>3.719</v>
+      </c>
+      <c r="Q604" t="n">
+        <v>3.819</v>
+      </c>
+      <c r="R604" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S604" t="n">
+        <v>3.907</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S604"/>
+  <dimension ref="A1:S605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36113,6 +36113,65 @@
         <v>3.907</v>
       </c>
     </row>
+    <row r="605">
+      <c r="A605" s="2" t="n">
+        <v>44741</v>
+      </c>
+      <c r="B605" t="n">
+        <v>-0.6879999999999999</v>
+      </c>
+      <c r="C605" t="n">
+        <v>-0.252</v>
+      </c>
+      <c r="D605" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E605" t="n">
+        <v>0.341</v>
+      </c>
+      <c r="F605" t="n">
+        <v>0.629</v>
+      </c>
+      <c r="G605" t="n">
+        <v>1.316</v>
+      </c>
+      <c r="H605" t="n">
+        <v>2.052</v>
+      </c>
+      <c r="I605" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="J605" t="n">
+        <v>2.549</v>
+      </c>
+      <c r="K605" t="n">
+        <v>2.743</v>
+      </c>
+      <c r="L605" t="n">
+        <v>2.966</v>
+      </c>
+      <c r="M605" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="N605" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="O605" t="n">
+        <v>3.493</v>
+      </c>
+      <c r="P605" t="n">
+        <v>3.556</v>
+      </c>
+      <c r="Q605" t="n">
+        <v>3.665</v>
+      </c>
+      <c r="R605" t="n">
+        <v>3.631</v>
+      </c>
+      <c r="S605" t="n">
+        <v>3.938</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S605"/>
+  <dimension ref="A1:S606"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36172,6 +36172,65 @@
         <v>3.938</v>
       </c>
     </row>
+    <row r="606">
+      <c r="A606" s="2" t="n">
+        <v>44742</v>
+      </c>
+      <c r="B606" t="n">
+        <v>-0.708</v>
+      </c>
+      <c r="C606" t="n">
+        <v>-0.295</v>
+      </c>
+      <c r="D606" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E606" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G606" t="n">
+        <v>1.228</v>
+      </c>
+      <c r="H606" t="n">
+        <v>1.937</v>
+      </c>
+      <c r="I606" t="n">
+        <v>2.242</v>
+      </c>
+      <c r="J606" t="n">
+        <v>2.439</v>
+      </c>
+      <c r="K606" t="n">
+        <v>2.653</v>
+      </c>
+      <c r="L606" t="n">
+        <v>2.873</v>
+      </c>
+      <c r="M606" t="n">
+        <v>3.119</v>
+      </c>
+      <c r="N606" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="O606" t="n">
+        <v>3.392</v>
+      </c>
+      <c r="P606" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q606" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="R606" t="n">
+        <v>3.555</v>
+      </c>
+      <c r="S606" t="n">
+        <v>3.834</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S606"/>
+  <dimension ref="A1:S607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36231,6 +36231,65 @@
         <v>3.834</v>
       </c>
     </row>
+    <row r="607">
+      <c r="A607" s="2" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B607" t="n">
+        <v>-0.704</v>
+      </c>
+      <c r="C607" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="D607" t="n">
+        <v>0.055</v>
+      </c>
+      <c r="E607" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0.503</v>
+      </c>
+      <c r="G607" t="n">
+        <v>1.028</v>
+      </c>
+      <c r="H607" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I607" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="J607" t="n">
+        <v>2.221</v>
+      </c>
+      <c r="K607" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="L607" t="n">
+        <v>2.672</v>
+      </c>
+      <c r="M607" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="N607" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="O607" t="n">
+        <v>3.205</v>
+      </c>
+      <c r="P607" t="n">
+        <v>3.319</v>
+      </c>
+      <c r="Q607" t="n">
+        <v>3.446</v>
+      </c>
+      <c r="R607" t="n">
+        <v>3.461</v>
+      </c>
+      <c r="S607" t="n">
+        <v>3.732</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -36236,58 +36236,58 @@
         <v>44743</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.704</v>
+        <v>-0.6830000000000001</v>
       </c>
       <c r="C607" t="n">
-        <v>-0.31</v>
+        <v>-0.33</v>
       </c>
       <c r="D607" t="n">
-        <v>0.055</v>
+        <v>0.016</v>
       </c>
       <c r="E607" t="n">
-        <v>0.158</v>
+        <v>0.123</v>
       </c>
       <c r="F607" t="n">
-        <v>0.503</v>
+        <v>0.467</v>
       </c>
       <c r="G607" t="n">
-        <v>1.028</v>
+        <v>1.015</v>
       </c>
       <c r="H607" t="n">
         <v>1.72</v>
       </c>
       <c r="I607" t="n">
-        <v>2.02</v>
+        <v>2.017</v>
       </c>
       <c r="J607" t="n">
-        <v>2.221</v>
+        <v>2.203</v>
       </c>
       <c r="K607" t="n">
-        <v>2.45</v>
+        <v>2.428</v>
       </c>
       <c r="L607" t="n">
-        <v>2.672</v>
+        <v>2.654</v>
       </c>
       <c r="M607" t="n">
-        <v>2.92</v>
+        <v>2.904</v>
       </c>
       <c r="N607" t="n">
         <v>3.053</v>
       </c>
       <c r="O607" t="n">
-        <v>3.205</v>
+        <v>3.199</v>
       </c>
       <c r="P607" t="n">
-        <v>3.319</v>
+        <v>3.306</v>
       </c>
       <c r="Q607" t="n">
-        <v>3.446</v>
+        <v>3.424</v>
       </c>
       <c r="R607" t="n">
-        <v>3.461</v>
+        <v>3.434</v>
       </c>
       <c r="S607" t="n">
-        <v>3.732</v>
+        <v>3.641</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S607"/>
+  <dimension ref="A1:S608"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36236,13 +36236,13 @@
         <v>44743</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.6830000000000001</v>
+        <v>-0.704</v>
       </c>
       <c r="C607" t="n">
         <v>-0.33</v>
       </c>
       <c r="D607" t="n">
-        <v>0.016</v>
+        <v>0.055</v>
       </c>
       <c r="E607" t="n">
         <v>0.123</v>
@@ -36263,10 +36263,10 @@
         <v>2.203</v>
       </c>
       <c r="K607" t="n">
-        <v>2.428</v>
+        <v>2.45</v>
       </c>
       <c r="L607" t="n">
-        <v>2.654</v>
+        <v>2.672</v>
       </c>
       <c r="M607" t="n">
         <v>2.904</v>
@@ -36275,19 +36275,78 @@
         <v>3.053</v>
       </c>
       <c r="O607" t="n">
-        <v>3.199</v>
+        <v>3.205</v>
       </c>
       <c r="P607" t="n">
-        <v>3.306</v>
+        <v>3.319</v>
       </c>
       <c r="Q607" t="n">
-        <v>3.424</v>
+        <v>3.446</v>
       </c>
       <c r="R607" t="n">
-        <v>3.434</v>
+        <v>3.461</v>
       </c>
       <c r="S607" t="n">
-        <v>3.641</v>
+        <v>3.732</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B608" t="n">
+        <v>-0.639</v>
+      </c>
+      <c r="C608" t="n">
+        <v>-0.333</v>
+      </c>
+      <c r="D608" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E608" t="n">
+        <v>0.216</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0.481</v>
+      </c>
+      <c r="G608" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="H608" t="n">
+        <v>1.839</v>
+      </c>
+      <c r="I608" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="J608" t="n">
+        <v>2.344</v>
+      </c>
+      <c r="K608" t="n">
+        <v>2.597</v>
+      </c>
+      <c r="L608" t="n">
+        <v>2.813</v>
+      </c>
+      <c r="M608" t="n">
+        <v>3.064</v>
+      </c>
+      <c r="N608" t="n">
+        <v>3.188</v>
+      </c>
+      <c r="O608" t="n">
+        <v>3.348</v>
+      </c>
+      <c r="P608" t="n">
+        <v>3.445</v>
+      </c>
+      <c r="Q608" t="n">
+        <v>3.562</v>
+      </c>
+      <c r="R608" t="n">
+        <v>3.558</v>
+      </c>
+      <c r="S608" t="n">
+        <v>3.668</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S608"/>
+  <dimension ref="A1:S609"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36239,28 +36239,28 @@
         <v>-0.704</v>
       </c>
       <c r="C607" t="n">
-        <v>-0.33</v>
+        <v>-0.31</v>
       </c>
       <c r="D607" t="n">
         <v>0.055</v>
       </c>
       <c r="E607" t="n">
-        <v>0.123</v>
+        <v>0.158</v>
       </c>
       <c r="F607" t="n">
-        <v>0.467</v>
+        <v>0.503</v>
       </c>
       <c r="G607" t="n">
-        <v>1.015</v>
+        <v>1.028</v>
       </c>
       <c r="H607" t="n">
         <v>1.72</v>
       </c>
       <c r="I607" t="n">
-        <v>2.017</v>
+        <v>2.02</v>
       </c>
       <c r="J607" t="n">
-        <v>2.203</v>
+        <v>2.221</v>
       </c>
       <c r="K607" t="n">
         <v>2.45</v>
@@ -36269,7 +36269,7 @@
         <v>2.672</v>
       </c>
       <c r="M607" t="n">
-        <v>2.904</v>
+        <v>2.92</v>
       </c>
       <c r="N607" t="n">
         <v>3.053</v>
@@ -36298,28 +36298,28 @@
         <v>-0.639</v>
       </c>
       <c r="C608" t="n">
-        <v>-0.333</v>
+        <v>-0.323</v>
       </c>
       <c r="D608" t="n">
         <v>0.01</v>
       </c>
       <c r="E608" t="n">
-        <v>0.216</v>
+        <v>0.271</v>
       </c>
       <c r="F608" t="n">
-        <v>0.481</v>
+        <v>0.495</v>
       </c>
       <c r="G608" t="n">
-        <v>1.078</v>
+        <v>1.103</v>
       </c>
       <c r="H608" t="n">
-        <v>1.839</v>
+        <v>1.852</v>
       </c>
       <c r="I608" t="n">
-        <v>2.148</v>
+        <v>2.155</v>
       </c>
       <c r="J608" t="n">
-        <v>2.344</v>
+        <v>2.356</v>
       </c>
       <c r="K608" t="n">
         <v>2.597</v>
@@ -36328,10 +36328,10 @@
         <v>2.813</v>
       </c>
       <c r="M608" t="n">
-        <v>3.064</v>
+        <v>3.069</v>
       </c>
       <c r="N608" t="n">
-        <v>3.188</v>
+        <v>3.199</v>
       </c>
       <c r="O608" t="n">
         <v>3.348</v>
@@ -36347,6 +36347,65 @@
       </c>
       <c r="S608" t="n">
         <v>3.668</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="2" t="n">
+        <v>44747</v>
+      </c>
+      <c r="B609" t="n">
+        <v>-0.654</v>
+      </c>
+      <c r="C609" t="n">
+        <v>-0.289</v>
+      </c>
+      <c r="D609" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="E609" t="n">
+        <v>0.243</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="G609" t="n">
+        <v>1.017</v>
+      </c>
+      <c r="H609" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="I609" t="n">
+        <v>2.049</v>
+      </c>
+      <c r="J609" t="n">
+        <v>2.249</v>
+      </c>
+      <c r="K609" t="n">
+        <v>2.497</v>
+      </c>
+      <c r="L609" t="n">
+        <v>2.713</v>
+      </c>
+      <c r="M609" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="N609" t="n">
+        <v>3.125</v>
+      </c>
+      <c r="O609" t="n">
+        <v>3.277</v>
+      </c>
+      <c r="P609" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q609" t="n">
+        <v>3.489</v>
+      </c>
+      <c r="R609" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="S609" t="n">
+        <v>3.738</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S609"/>
+  <dimension ref="A1:S610"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36408,6 +36408,65 @@
         <v>3.738</v>
       </c>
     </row>
+    <row r="610">
+      <c r="A610" s="2" t="n">
+        <v>44748</v>
+      </c>
+      <c r="B610" t="n">
+        <v>-0.669</v>
+      </c>
+      <c r="C610" t="n">
+        <v>-0.317</v>
+      </c>
+      <c r="D610" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E610" t="n">
+        <v>0.244</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.496</v>
+      </c>
+      <c r="G610" t="n">
+        <v>0.975</v>
+      </c>
+      <c r="H610" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="I610" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="J610" t="n">
+        <v>2.192</v>
+      </c>
+      <c r="K610" t="n">
+        <v>2.446</v>
+      </c>
+      <c r="L610" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="M610" t="n">
+        <v>2.947</v>
+      </c>
+      <c r="N610" t="n">
+        <v>3.087</v>
+      </c>
+      <c r="O610" t="n">
+        <v>3.244</v>
+      </c>
+      <c r="P610" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="Q610" t="n">
+        <v>3.478</v>
+      </c>
+      <c r="R610" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S610" t="n">
+        <v>3.675</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S610"/>
+  <dimension ref="A1:S611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36467,6 +36467,65 @@
         <v>3.675</v>
       </c>
     </row>
+    <row r="611">
+      <c r="A611" s="2" t="n">
+        <v>44749</v>
+      </c>
+      <c r="B611" t="n">
+        <v>-0.609</v>
+      </c>
+      <c r="C611" t="n">
+        <v>-0.299</v>
+      </c>
+      <c r="D611" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E611" t="n">
+        <v>0.307</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="G611" t="n">
+        <v>1.102</v>
+      </c>
+      <c r="H611" t="n">
+        <v>1.846</v>
+      </c>
+      <c r="I611" t="n">
+        <v>2.165</v>
+      </c>
+      <c r="J611" t="n">
+        <v>2.364</v>
+      </c>
+      <c r="K611" t="n">
+        <v>2.592</v>
+      </c>
+      <c r="L611" t="n">
+        <v>2.807</v>
+      </c>
+      <c r="M611" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="N611" t="n">
+        <v>3.218</v>
+      </c>
+      <c r="O611" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="P611" t="n">
+        <v>3.481</v>
+      </c>
+      <c r="Q611" t="n">
+        <v>3.596</v>
+      </c>
+      <c r="R611" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="S611" t="n">
+        <v>3.775</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S611"/>
+  <dimension ref="A1:S612"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36526,6 +36526,65 @@
         <v>3.775</v>
       </c>
     </row>
+    <row r="612">
+      <c r="A612" s="2" t="n">
+        <v>44750</v>
+      </c>
+      <c r="B612" t="n">
+        <v>-0.649</v>
+      </c>
+      <c r="C612" t="n">
+        <v>-0.319</v>
+      </c>
+      <c r="D612" t="n">
+        <v>0.092</v>
+      </c>
+      <c r="E612" t="n">
+        <v>0.282</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.522</v>
+      </c>
+      <c r="G612" t="n">
+        <v>1.041</v>
+      </c>
+      <c r="H612" t="n">
+        <v>1.809</v>
+      </c>
+      <c r="I612" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="J612" t="n">
+        <v>2.352</v>
+      </c>
+      <c r="K612" t="n">
+        <v>2.589</v>
+      </c>
+      <c r="L612" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="M612" t="n">
+        <v>3.086</v>
+      </c>
+      <c r="N612" t="n">
+        <v>3.222</v>
+      </c>
+      <c r="O612" t="n">
+        <v>3.365</v>
+      </c>
+      <c r="P612" t="n">
+        <v>3.503</v>
+      </c>
+      <c r="Q612" t="n">
+        <v>3.619</v>
+      </c>
+      <c r="R612" t="n">
+        <v>3.641</v>
+      </c>
+      <c r="S612" t="n">
+        <v>3.911</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -36573,16 +36573,16 @@
         <v>3.365</v>
       </c>
       <c r="P612" t="n">
-        <v>3.503</v>
+        <v>3.499</v>
       </c>
       <c r="Q612" t="n">
         <v>3.619</v>
       </c>
       <c r="R612" t="n">
-        <v>3.641</v>
+        <v>3.64</v>
       </c>
       <c r="S612" t="n">
-        <v>3.911</v>
+        <v>3.9</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -36552,10 +36552,10 @@
         <v>1.809</v>
       </c>
       <c r="I612" t="n">
-        <v>2.148</v>
+        <v>2.144</v>
       </c>
       <c r="J612" t="n">
-        <v>2.352</v>
+        <v>2.355</v>
       </c>
       <c r="K612" t="n">
         <v>2.589</v>
@@ -36570,7 +36570,7 @@
         <v>3.222</v>
       </c>
       <c r="O612" t="n">
-        <v>3.365</v>
+        <v>3.362</v>
       </c>
       <c r="P612" t="n">
         <v>3.499</v>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S612"/>
+  <dimension ref="A1:S613"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36585,6 +36585,65 @@
         <v>3.9</v>
       </c>
     </row>
+    <row r="613">
+      <c r="A613" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B613" t="n">
+        <v>-0.642</v>
+      </c>
+      <c r="C613" t="n">
+        <v>-0.307</v>
+      </c>
+      <c r="D613" t="n">
+        <v>0.063</v>
+      </c>
+      <c r="E613" t="n">
+        <v>0.242</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.507</v>
+      </c>
+      <c r="G613" t="n">
+        <v>1.014</v>
+      </c>
+      <c r="H613" t="n">
+        <v>1.778</v>
+      </c>
+      <c r="I613" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="J613" t="n">
+        <v>2.289</v>
+      </c>
+      <c r="K613" t="n">
+        <v>2.524</v>
+      </c>
+      <c r="L613" t="n">
+        <v>2.748</v>
+      </c>
+      <c r="M613" t="n">
+        <v>3.014</v>
+      </c>
+      <c r="N613" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="O613" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="P613" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="Q613" t="n">
+        <v>3.572</v>
+      </c>
+      <c r="R613" t="n">
+        <v>3.605</v>
+      </c>
+      <c r="S613" t="n">
+        <v>3.882</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S613"/>
+  <dimension ref="A1:S614"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36644,6 +36644,65 @@
         <v>3.882</v>
       </c>
     </row>
+    <row r="614">
+      <c r="A614" s="2" t="n">
+        <v>44755</v>
+      </c>
+      <c r="B614" t="n">
+        <v>-0.393</v>
+      </c>
+      <c r="C614" t="n">
+        <v>-0.271</v>
+      </c>
+      <c r="D614" t="n">
+        <v>0.127</v>
+      </c>
+      <c r="E614" t="n">
+        <v>0.301</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="G614" t="n">
+        <v>1.038</v>
+      </c>
+      <c r="H614" t="n">
+        <v>1.803</v>
+      </c>
+      <c r="I614" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="J614" t="n">
+        <v>2.274</v>
+      </c>
+      <c r="K614" t="n">
+        <v>2.506</v>
+      </c>
+      <c r="L614" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M614" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="N614" t="n">
+        <v>3.078</v>
+      </c>
+      <c r="O614" t="n">
+        <v>3.226</v>
+      </c>
+      <c r="P614" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="Q614" t="n">
+        <v>3.409</v>
+      </c>
+      <c r="R614" t="n">
+        <v>3.402</v>
+      </c>
+      <c r="S614" t="n">
+        <v>3.664</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S614"/>
+  <dimension ref="A1:S615"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36703,6 +36703,65 @@
         <v>3.664</v>
       </c>
     </row>
+    <row r="615">
+      <c r="A615" s="2" t="n">
+        <v>44756</v>
+      </c>
+      <c r="B615" t="n">
+        <v>-0.401</v>
+      </c>
+      <c r="C615" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="D615" t="n">
+        <v>0.182</v>
+      </c>
+      <c r="E615" t="n">
+        <v>0.398</v>
+      </c>
+      <c r="F615" t="n">
+        <v>0.706</v>
+      </c>
+      <c r="G615" t="n">
+        <v>1.416</v>
+      </c>
+      <c r="H615" t="n">
+        <v>2.217</v>
+      </c>
+      <c r="I615" t="n">
+        <v>2.404</v>
+      </c>
+      <c r="J615" t="n">
+        <v>2.454</v>
+      </c>
+      <c r="K615" t="n">
+        <v>2.681</v>
+      </c>
+      <c r="L615" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="M615" t="n">
+        <v>3.268</v>
+      </c>
+      <c r="N615" t="n">
+        <v>3.382</v>
+      </c>
+      <c r="O615" t="n">
+        <v>3.377</v>
+      </c>
+      <c r="P615" t="n">
+        <v>3.411</v>
+      </c>
+      <c r="Q615" t="n">
+        <v>3.478</v>
+      </c>
+      <c r="R615" t="n">
+        <v>3.441</v>
+      </c>
+      <c r="S615" t="n">
+        <v>3.644</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S615"/>
+  <dimension ref="A1:S616"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36762,6 +36762,65 @@
         <v>3.644</v>
       </c>
     </row>
+    <row r="616">
+      <c r="A616" s="2" t="n">
+        <v>44757</v>
+      </c>
+      <c r="B616" t="n">
+        <v>-0.34</v>
+      </c>
+      <c r="C616" t="n">
+        <v>-0.286</v>
+      </c>
+      <c r="D616" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E616" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.738</v>
+      </c>
+      <c r="G616" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="H616" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="I616" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="J616" t="n">
+        <v>2.463</v>
+      </c>
+      <c r="K616" t="n">
+        <v>2.692</v>
+      </c>
+      <c r="L616" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="M616" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="N616" t="n">
+        <v>3.236</v>
+      </c>
+      <c r="O616" t="n">
+        <v>3.364</v>
+      </c>
+      <c r="P616" t="n">
+        <v>3.387</v>
+      </c>
+      <c r="Q616" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="R616" t="n">
+        <v>3.442</v>
+      </c>
+      <c r="S616" t="n">
+        <v>3.667</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S616"/>
+  <dimension ref="A1:S617"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36821,6 +36821,65 @@
         <v>3.667</v>
       </c>
     </row>
+    <row r="617">
+      <c r="A617" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B617" t="n">
+        <v>-0.412</v>
+      </c>
+      <c r="C617" t="n">
+        <v>-0.27</v>
+      </c>
+      <c r="D617" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="E617" t="n">
+        <v>0.317</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0.717</v>
+      </c>
+      <c r="G617" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="H617" t="n">
+        <v>1.995</v>
+      </c>
+      <c r="I617" t="n">
+        <v>2.266</v>
+      </c>
+      <c r="J617" t="n">
+        <v>2.426</v>
+      </c>
+      <c r="K617" t="n">
+        <v>2.666</v>
+      </c>
+      <c r="L617" t="n">
+        <v>2.866</v>
+      </c>
+      <c r="M617" t="n">
+        <v>3.115</v>
+      </c>
+      <c r="N617" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="O617" t="n">
+        <v>3.371</v>
+      </c>
+      <c r="P617" t="n">
+        <v>3.373</v>
+      </c>
+      <c r="Q617" t="n">
+        <v>3.468</v>
+      </c>
+      <c r="R617" t="n">
+        <v>3.443</v>
+      </c>
+      <c r="S617" t="n">
+        <v>3.654</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S617"/>
+  <dimension ref="A1:S619"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36880,6 +36880,124 @@
         <v>3.654</v>
       </c>
     </row>
+    <row r="618">
+      <c r="A618" s="2" t="n">
+        <v>44761</v>
+      </c>
+      <c r="B618" t="n">
+        <v>-0.301</v>
+      </c>
+      <c r="C618" t="n">
+        <v>-0.246</v>
+      </c>
+      <c r="D618" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="E618" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0.786</v>
+      </c>
+      <c r="G618" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="H618" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="I618" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="J618" t="n">
+        <v>2.556</v>
+      </c>
+      <c r="K618" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="L618" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="M618" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="N618" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="O618" t="n">
+        <v>3.443</v>
+      </c>
+      <c r="P618" t="n">
+        <v>3.424</v>
+      </c>
+      <c r="Q618" t="n">
+        <v>3.502</v>
+      </c>
+      <c r="R618" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="S618" t="n">
+        <v>3.645</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="2" t="n">
+        <v>44762</v>
+      </c>
+      <c r="B619" t="n">
+        <v>-0.283</v>
+      </c>
+      <c r="C619" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="D619" t="n">
+        <v>0.186</v>
+      </c>
+      <c r="E619" t="n">
+        <v>0.516</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0.845</v>
+      </c>
+      <c r="G619" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="H619" t="n">
+        <v>2.363</v>
+      </c>
+      <c r="I619" t="n">
+        <v>2.576</v>
+      </c>
+      <c r="J619" t="n">
+        <v>2.656</v>
+      </c>
+      <c r="K619" t="n">
+        <v>2.862</v>
+      </c>
+      <c r="L619" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="M619" t="n">
+        <v>3.355</v>
+      </c>
+      <c r="N619" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="O619" t="n">
+        <v>3.503</v>
+      </c>
+      <c r="P619" t="n">
+        <v>3.487</v>
+      </c>
+      <c r="Q619" t="n">
+        <v>3.557</v>
+      </c>
+      <c r="R619" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="S619" t="n">
+        <v>3.681</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S619"/>
+  <dimension ref="A1:S620"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -36998,6 +36998,65 @@
         <v>3.681</v>
       </c>
     </row>
+    <row r="620">
+      <c r="A620" s="2" t="n">
+        <v>44763</v>
+      </c>
+      <c r="B620" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C620" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="D620" t="n">
+        <v>0.219</v>
+      </c>
+      <c r="E620" t="n">
+        <v>0.731</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+      <c r="G620" t="n">
+        <v>1.627</v>
+      </c>
+      <c r="H620" t="n">
+        <v>2.418</v>
+      </c>
+      <c r="I620" t="n">
+        <v>2.665</v>
+      </c>
+      <c r="J620" t="n">
+        <v>2.845</v>
+      </c>
+      <c r="K620" t="n">
+        <v>3.022</v>
+      </c>
+      <c r="L620" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="M620" t="n">
+        <v>3.432</v>
+      </c>
+      <c r="N620" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="O620" t="n">
+        <v>3.648</v>
+      </c>
+      <c r="P620" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="Q620" t="n">
+        <v>3.704</v>
+      </c>
+      <c r="R620" t="n">
+        <v>3.634</v>
+      </c>
+      <c r="S620" t="n">
+        <v>3.779</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S620"/>
+  <dimension ref="A1:S621"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37057,6 +37057,65 @@
         <v>3.779</v>
       </c>
     </row>
+    <row r="621">
+      <c r="A621" s="2" t="n">
+        <v>44764</v>
+      </c>
+      <c r="B621" t="n">
+        <v>-0.127</v>
+      </c>
+      <c r="C621" t="n">
+        <v>-0.037</v>
+      </c>
+      <c r="D621" t="n">
+        <v>0.114</v>
+      </c>
+      <c r="E621" t="n">
+        <v>0.553</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="G621" t="n">
+        <v>1.322</v>
+      </c>
+      <c r="H621" t="n">
+        <v>2.105</v>
+      </c>
+      <c r="I621" t="n">
+        <v>2.384</v>
+      </c>
+      <c r="J621" t="n">
+        <v>2.578</v>
+      </c>
+      <c r="K621" t="n">
+        <v>2.754</v>
+      </c>
+      <c r="L621" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="M621" t="n">
+        <v>3.148</v>
+      </c>
+      <c r="N621" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="O621" t="n">
+        <v>3.423</v>
+      </c>
+      <c r="P621" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q621" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="R621" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="S621" t="n">
+        <v>3.631</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S621"/>
+  <dimension ref="A1:S622"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37116,6 +37116,65 @@
         <v>3.631</v>
       </c>
     </row>
+    <row r="622">
+      <c r="A622" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B622" t="n">
+        <v>-0.109</v>
+      </c>
+      <c r="C622" t="n">
+        <v>-0.046</v>
+      </c>
+      <c r="D622" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="E622" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="G622" t="n">
+        <v>1.362</v>
+      </c>
+      <c r="H622" t="n">
+        <v>2.148</v>
+      </c>
+      <c r="I622" t="n">
+        <v>2.381</v>
+      </c>
+      <c r="J622" t="n">
+        <v>2.539</v>
+      </c>
+      <c r="K622" t="n">
+        <v>2.734</v>
+      </c>
+      <c r="L622" t="n">
+        <v>2.914</v>
+      </c>
+      <c r="M622" t="n">
+        <v>3.155</v>
+      </c>
+      <c r="N622" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O622" t="n">
+        <v>3.389</v>
+      </c>
+      <c r="P622" t="n">
+        <v>3.435</v>
+      </c>
+      <c r="Q622" t="n">
+        <v>3.534</v>
+      </c>
+      <c r="R622" t="n">
+        <v>3.501</v>
+      </c>
+      <c r="S622" t="n">
+        <v>3.648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S622"/>
+  <dimension ref="A1:S623"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37175,6 +37175,65 @@
         <v>3.648</v>
       </c>
     </row>
+    <row r="623">
+      <c r="A623" s="2" t="n">
+        <v>44768</v>
+      </c>
+      <c r="B623" t="n">
+        <v>-0.201</v>
+      </c>
+      <c r="C623" t="n">
+        <v>0.151</v>
+      </c>
+      <c r="D623" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="E623" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+      <c r="G623" t="n">
+        <v>1.605</v>
+      </c>
+      <c r="H623" t="n">
+        <v>2.043</v>
+      </c>
+      <c r="I623" t="n">
+        <v>2.313</v>
+      </c>
+      <c r="J623" t="n">
+        <v>2.498</v>
+      </c>
+      <c r="K623" t="n">
+        <v>2.683</v>
+      </c>
+      <c r="L623" t="n">
+        <v>2.867</v>
+      </c>
+      <c r="M623" t="n">
+        <v>3.083</v>
+      </c>
+      <c r="N623" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="O623" t="n">
+        <v>3.349</v>
+      </c>
+      <c r="P623" t="n">
+        <v>3.407</v>
+      </c>
+      <c r="Q623" t="n">
+        <v>3.507</v>
+      </c>
+      <c r="R623" t="n">
+        <v>3.458</v>
+      </c>
+      <c r="S623" t="n">
+        <v>3.401</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S623"/>
+  <dimension ref="A1:S624"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37234,6 +37234,65 @@
         <v>3.401</v>
       </c>
     </row>
+    <row r="624">
+      <c r="A624" s="2" t="n">
+        <v>44769</v>
+      </c>
+      <c r="B624" t="n">
+        <v>-0.15</v>
+      </c>
+      <c r="C624" t="n">
+        <v>0.156</v>
+      </c>
+      <c r="D624" t="n">
+        <v>0.361</v>
+      </c>
+      <c r="E624" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.834</v>
+      </c>
+      <c r="G624" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="H624" t="n">
+        <v>2.147</v>
+      </c>
+      <c r="I624" t="n">
+        <v>2.411</v>
+      </c>
+      <c r="J624" t="n">
+        <v>2.596</v>
+      </c>
+      <c r="K624" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="L624" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="M624" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="N624" t="n">
+        <v>3.266</v>
+      </c>
+      <c r="O624" t="n">
+        <v>3.417</v>
+      </c>
+      <c r="P624" t="n">
+        <v>3.463</v>
+      </c>
+      <c r="Q624" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="R624" t="n">
+        <v>3.506</v>
+      </c>
+      <c r="S624" t="n">
+        <v>3.428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S624"/>
+  <dimension ref="A1:S625"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37293,6 +37293,65 @@
         <v>3.428</v>
       </c>
     </row>
+    <row r="625">
+      <c r="A625" s="2" t="n">
+        <v>44770</v>
+      </c>
+      <c r="B625" t="n">
+        <v>-0.127</v>
+      </c>
+      <c r="C625" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="D625" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="E625" t="n">
+        <v>0.454</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0.766</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1.513</v>
+      </c>
+      <c r="H625" t="n">
+        <v>1.944</v>
+      </c>
+      <c r="I625" t="n">
+        <v>2.213</v>
+      </c>
+      <c r="J625" t="n">
+        <v>2.391</v>
+      </c>
+      <c r="K625" t="n">
+        <v>2.581</v>
+      </c>
+      <c r="L625" t="n">
+        <v>2.769</v>
+      </c>
+      <c r="M625" t="n">
+        <v>2.994</v>
+      </c>
+      <c r="N625" t="n">
+        <v>3.106</v>
+      </c>
+      <c r="O625" t="n">
+        <v>3.254</v>
+      </c>
+      <c r="P625" t="n">
+        <v>3.321</v>
+      </c>
+      <c r="Q625" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="R625" t="n">
+        <v>3.415</v>
+      </c>
+      <c r="S625" t="n">
+        <v>3.381</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S625"/>
+  <dimension ref="A1:S626"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37352,6 +37352,65 @@
         <v>3.381</v>
       </c>
     </row>
+    <row r="626">
+      <c r="A626" s="2" t="n">
+        <v>44771</v>
+      </c>
+      <c r="B626" t="n">
+        <v>-0.057</v>
+      </c>
+      <c r="C626" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="D626" t="n">
+        <v>0.306</v>
+      </c>
+      <c r="E626" t="n">
+        <v>0.328</v>
+      </c>
+      <c r="F626" t="n">
+        <v>0.6919999999999999</v>
+      </c>
+      <c r="G626" t="n">
+        <v>1.332</v>
+      </c>
+      <c r="H626" t="n">
+        <v>1.737</v>
+      </c>
+      <c r="I626" t="n">
+        <v>2.024</v>
+      </c>
+      <c r="J626" t="n">
+        <v>2.257</v>
+      </c>
+      <c r="K626" t="n">
+        <v>2.447</v>
+      </c>
+      <c r="L626" t="n">
+        <v>2.567</v>
+      </c>
+      <c r="M626" t="n">
+        <v>2.792</v>
+      </c>
+      <c r="N626" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="O626" t="n">
+        <v>3.152</v>
+      </c>
+      <c r="P626" t="n">
+        <v>3.228</v>
+      </c>
+      <c r="Q626" t="n">
+        <v>3.323</v>
+      </c>
+      <c r="R626" t="n">
+        <v>3.299</v>
+      </c>
+      <c r="S626" t="n">
+        <v>3.224</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S626"/>
+  <dimension ref="A1:S627"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37411,6 +37411,65 @@
         <v>3.224</v>
       </c>
     </row>
+    <row r="627">
+      <c r="A627" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B627" t="n">
+        <v>-0.063</v>
+      </c>
+      <c r="C627" t="n">
+        <v>0.067</v>
+      </c>
+      <c r="D627" t="n">
+        <v>0.544</v>
+      </c>
+      <c r="E627" t="n">
+        <v>0.534</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+      <c r="G627" t="n">
+        <v>1.224</v>
+      </c>
+      <c r="H627" t="n">
+        <v>1.622</v>
+      </c>
+      <c r="I627" t="n">
+        <v>1.885</v>
+      </c>
+      <c r="J627" t="n">
+        <v>2.074</v>
+      </c>
+      <c r="K627" t="n">
+        <v>2.267</v>
+      </c>
+      <c r="L627" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="M627" t="n">
+        <v>2.698</v>
+      </c>
+      <c r="N627" t="n">
+        <v>2.815</v>
+      </c>
+      <c r="O627" t="n">
+        <v>2.985</v>
+      </c>
+      <c r="P627" t="n">
+        <v>3.082</v>
+      </c>
+      <c r="Q627" t="n">
+        <v>3.184</v>
+      </c>
+      <c r="R627" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="S627" t="n">
+        <v>3.181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S627"/>
+  <dimension ref="A1:S628"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37470,6 +37470,65 @@
         <v>3.181</v>
       </c>
     </row>
+    <row r="628">
+      <c r="A628" s="2" t="n">
+        <v>44775</v>
+      </c>
+      <c r="B628" t="n">
+        <v>-0.149</v>
+      </c>
+      <c r="C628" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="D628" t="n">
+        <v>0.539</v>
+      </c>
+      <c r="E628" t="n">
+        <v>0.523</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0.734</v>
+      </c>
+      <c r="G628" t="n">
+        <v>1.323</v>
+      </c>
+      <c r="H628" t="n">
+        <v>1.723</v>
+      </c>
+      <c r="I628" t="n">
+        <v>1.973</v>
+      </c>
+      <c r="J628" t="n">
+        <v>2.141</v>
+      </c>
+      <c r="K628" t="n">
+        <v>2.329</v>
+      </c>
+      <c r="L628" t="n">
+        <v>2.542</v>
+      </c>
+      <c r="M628" t="n">
+        <v>2.796</v>
+      </c>
+      <c r="N628" t="n">
+        <v>2.909</v>
+      </c>
+      <c r="O628" t="n">
+        <v>3.027</v>
+      </c>
+      <c r="P628" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="Q628" t="n">
+        <v>3.187</v>
+      </c>
+      <c r="R628" t="n">
+        <v>3.151</v>
+      </c>
+      <c r="S628" t="n">
+        <v>3.177</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S632"/>
+  <dimension ref="A1:S633"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37711,58 +37711,117 @@
         <v>44776</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.121</v>
+        <v>-0.082</v>
       </c>
       <c r="C632" t="n">
         <v>0.01</v>
       </c>
       <c r="D632" t="n">
-        <v>0.55</v>
+        <v>0.579</v>
       </c>
       <c r="E632" t="n">
-        <v>0.516</v>
+        <v>0.553</v>
       </c>
       <c r="F632" t="n">
-        <v>0.708</v>
+        <v>0.768</v>
       </c>
       <c r="G632" t="n">
-        <v>1.255</v>
+        <v>1.321</v>
       </c>
       <c r="H632" t="n">
-        <v>1.651</v>
+        <v>1.71</v>
       </c>
       <c r="I632" t="n">
-        <v>1.926</v>
+        <v>1.973</v>
       </c>
       <c r="J632" t="n">
-        <v>2.149</v>
+        <v>2.156</v>
       </c>
       <c r="K632" t="n">
-        <v>2.333</v>
+        <v>2.347</v>
       </c>
       <c r="L632" t="n">
-        <v>2.501</v>
+        <v>2.526</v>
       </c>
       <c r="M632" t="n">
-        <v>2.717</v>
+        <v>2.758</v>
       </c>
       <c r="N632" t="n">
-        <v>2.824</v>
+        <v>2.88</v>
       </c>
       <c r="O632" t="n">
+        <v>3.032</v>
+      </c>
+      <c r="P632" t="n">
+        <v>3.099</v>
+      </c>
+      <c r="Q632" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="R632" t="n">
+        <v>3.142</v>
+      </c>
+      <c r="S632" t="n">
+        <v>3.164</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="2" t="n">
+        <v>44777</v>
+      </c>
+      <c r="B633" t="n">
+        <v>-0.099</v>
+      </c>
+      <c r="C633" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D633" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="E633" t="n">
+        <v>0.5590000000000001</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0.749</v>
+      </c>
+      <c r="G633" t="n">
+        <v>1.233</v>
+      </c>
+      <c r="H633" t="n">
+        <v>1.614</v>
+      </c>
+      <c r="I633" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="J633" t="n">
+        <v>2.066</v>
+      </c>
+      <c r="K633" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="L633" t="n">
+        <v>2.439</v>
+      </c>
+      <c r="M633" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="N633" t="n">
+        <v>2.786</v>
+      </c>
+      <c r="O633" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="P633" t="n">
         <v>3.02</v>
       </c>
-      <c r="P632" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="Q632" t="n">
-        <v>3.167</v>
-      </c>
-      <c r="R632" t="n">
-        <v>3.118</v>
-      </c>
-      <c r="S632" t="n">
-        <v>3.097</v>
+      <c r="Q633" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="R633" t="n">
+        <v>3.065</v>
+      </c>
+      <c r="S633" t="n">
+        <v>3.095</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S633"/>
+  <dimension ref="A1:S634"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37824,6 +37824,65 @@
         <v>3.095</v>
       </c>
     </row>
+    <row r="634">
+      <c r="A634" s="2" t="n">
+        <v>44778</v>
+      </c>
+      <c r="B634" t="n">
+        <v>-0.105</v>
+      </c>
+      <c r="C634" t="n">
+        <v>0.061</v>
+      </c>
+      <c r="D634" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="E634" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.794</v>
+      </c>
+      <c r="G634" t="n">
+        <v>1.295</v>
+      </c>
+      <c r="H634" t="n">
+        <v>1.681</v>
+      </c>
+      <c r="I634" t="n">
+        <v>1.943</v>
+      </c>
+      <c r="J634" t="n">
+        <v>2.126</v>
+      </c>
+      <c r="K634" t="n">
+        <v>2.332</v>
+      </c>
+      <c r="L634" t="n">
+        <v>2.509</v>
+      </c>
+      <c r="M634" t="n">
+        <v>2.746</v>
+      </c>
+      <c r="N634" t="n">
+        <v>2.874</v>
+      </c>
+      <c r="O634" t="n">
+        <v>3.026</v>
+      </c>
+      <c r="P634" t="n">
+        <v>3.085</v>
+      </c>
+      <c r="Q634" t="n">
+        <v>3.189</v>
+      </c>
+      <c r="R634" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="S634" t="n">
+        <v>3.139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S634"/>
+  <dimension ref="A1:S636"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37859,7 +37859,7 @@
         <v>2.332</v>
       </c>
       <c r="L634" t="n">
-        <v>2.509</v>
+        <v>2.511</v>
       </c>
       <c r="M634" t="n">
         <v>2.746</v>
@@ -37881,6 +37881,124 @@
       </c>
       <c r="S634" t="n">
         <v>3.139</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B635" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C635" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D635" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="E635" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0.805</v>
+      </c>
+      <c r="G635" t="n">
+        <v>1.345</v>
+      </c>
+      <c r="H635" t="n">
+        <v>1.721</v>
+      </c>
+      <c r="I635" t="n">
+        <v>1.984</v>
+      </c>
+      <c r="J635" t="n">
+        <v>2.157</v>
+      </c>
+      <c r="K635" t="n">
+        <v>2.353</v>
+      </c>
+      <c r="L635" t="n">
+        <v>2.536</v>
+      </c>
+      <c r="M635" t="n">
+        <v>2.762</v>
+      </c>
+      <c r="N635" t="n">
+        <v>2.893</v>
+      </c>
+      <c r="O635" t="n">
+        <v>3.039</v>
+      </c>
+      <c r="P635" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="Q635" t="n">
+        <v>3.208</v>
+      </c>
+      <c r="R635" t="n">
+        <v>3.154</v>
+      </c>
+      <c r="S635" t="n">
+        <v>3.148</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="2" t="n">
+        <v>44782</v>
+      </c>
+      <c r="B636" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="C636" t="n">
+        <v>-0.025</v>
+      </c>
+      <c r="D636" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E636" t="n">
+        <v>0.632</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0.837</v>
+      </c>
+      <c r="G636" t="n">
+        <v>1.331</v>
+      </c>
+      <c r="H636" t="n">
+        <v>1.738</v>
+      </c>
+      <c r="I636" t="n">
+        <v>1.992</v>
+      </c>
+      <c r="J636" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K636" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="L636" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M636" t="n">
+        <v>2.769</v>
+      </c>
+      <c r="N636" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="O636" t="n">
+        <v>3.053</v>
+      </c>
+      <c r="P636" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Q636" t="n">
+        <v>3.247</v>
+      </c>
+      <c r="R636" t="n">
+        <v>3.197</v>
+      </c>
+      <c r="S636" t="n">
+        <v>3.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S636"/>
+  <dimension ref="A1:S637"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37947,58 +37947,117 @@
         <v>44782</v>
       </c>
       <c r="B636" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="C636" t="n">
-        <v>-0.025</v>
+        <v>0.01</v>
       </c>
       <c r="D636" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.594</v>
       </c>
       <c r="E636" t="n">
-        <v>0.632</v>
+        <v>0.676</v>
       </c>
       <c r="F636" t="n">
-        <v>0.837</v>
+        <v>0.883</v>
       </c>
       <c r="G636" t="n">
-        <v>1.331</v>
+        <v>1.361</v>
       </c>
       <c r="H636" t="n">
-        <v>1.738</v>
+        <v>1.745</v>
       </c>
       <c r="I636" t="n">
-        <v>1.992</v>
+        <v>2.008</v>
       </c>
       <c r="J636" t="n">
-        <v>2.17</v>
+        <v>2.177</v>
       </c>
       <c r="K636" t="n">
-        <v>2.36</v>
+        <v>2.374</v>
       </c>
       <c r="L636" t="n">
-        <v>2.55</v>
+        <v>2.562</v>
       </c>
       <c r="M636" t="n">
-        <v>2.769</v>
+        <v>2.784</v>
       </c>
       <c r="N636" t="n">
-        <v>2.898</v>
+        <v>2.912</v>
       </c>
       <c r="O636" t="n">
-        <v>3.053</v>
+        <v>3.058</v>
       </c>
       <c r="P636" t="n">
-        <v>3.15</v>
+        <v>3.158</v>
       </c>
       <c r="Q636" t="n">
-        <v>3.247</v>
+        <v>3.266</v>
       </c>
       <c r="R636" t="n">
-        <v>3.197</v>
+        <v>3.215</v>
       </c>
       <c r="S636" t="n">
-        <v>3.2</v>
+        <v>3.214</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="2" t="n">
+        <v>44783</v>
+      </c>
+      <c r="B637" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C637" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D637" t="n">
+        <v>0.591</v>
+      </c>
+      <c r="E637" t="n">
+        <v>0.667</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="G637" t="n">
+        <v>1.299</v>
+      </c>
+      <c r="H637" t="n">
+        <v>1.677</v>
+      </c>
+      <c r="I637" t="n">
+        <v>1.946</v>
+      </c>
+      <c r="J637" t="n">
+        <v>2.107</v>
+      </c>
+      <c r="K637" t="n">
+        <v>2.301</v>
+      </c>
+      <c r="L637" t="n">
+        <v>2.495</v>
+      </c>
+      <c r="M637" t="n">
+        <v>2.716</v>
+      </c>
+      <c r="N637" t="n">
+        <v>2.843</v>
+      </c>
+      <c r="O637" t="n">
+        <v>2.986</v>
+      </c>
+      <c r="P637" t="n">
+        <v>3.108</v>
+      </c>
+      <c r="Q637" t="n">
+        <v>3.219</v>
+      </c>
+      <c r="R637" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="S637" t="n">
+        <v>3.165</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S637"/>
+  <dimension ref="A1:S638"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38060,6 +38060,65 @@
         <v>3.165</v>
       </c>
     </row>
+    <row r="638">
+      <c r="A638" s="2" t="n">
+        <v>44784</v>
+      </c>
+      <c r="B638" t="n">
+        <v>-0.146</v>
+      </c>
+      <c r="C638" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D638" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="E638" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F638" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="G638" t="n">
+        <v>1.279</v>
+      </c>
+      <c r="H638" t="n">
+        <v>1.664</v>
+      </c>
+      <c r="I638" t="n">
+        <v>1.946</v>
+      </c>
+      <c r="J638" t="n">
+        <v>2.112</v>
+      </c>
+      <c r="K638" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="L638" t="n">
+        <v>2.517</v>
+      </c>
+      <c r="M638" t="n">
+        <v>2.749</v>
+      </c>
+      <c r="N638" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="O638" t="n">
+        <v>3.016</v>
+      </c>
+      <c r="P638" t="n">
+        <v>3.139</v>
+      </c>
+      <c r="Q638" t="n">
+        <v>3.281</v>
+      </c>
+      <c r="R638" t="n">
+        <v>3.217</v>
+      </c>
+      <c r="S638" t="n">
+        <v>3.216</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S638"/>
+  <dimension ref="A1:S639"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38086,10 +38086,10 @@
         <v>1.664</v>
       </c>
       <c r="I638" t="n">
-        <v>1.946</v>
+        <v>1.947</v>
       </c>
       <c r="J638" t="n">
-        <v>2.112</v>
+        <v>2.12</v>
       </c>
       <c r="K638" t="n">
         <v>2.321</v>
@@ -38117,6 +38117,65 @@
       </c>
       <c r="S638" t="n">
         <v>3.216</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="2" t="n">
+        <v>44785</v>
+      </c>
+      <c r="B639" t="n">
+        <v>-0.145</v>
+      </c>
+      <c r="C639" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D639" t="n">
+        <v>0.5610000000000001</v>
+      </c>
+      <c r="E639" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.827</v>
+      </c>
+      <c r="G639" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="H639" t="n">
+        <v>1.728</v>
+      </c>
+      <c r="I639" t="n">
+        <v>2.016</v>
+      </c>
+      <c r="J639" t="n">
+        <v>2.189</v>
+      </c>
+      <c r="K639" t="n">
+        <v>2.387</v>
+      </c>
+      <c r="L639" t="n">
+        <v>2.582</v>
+      </c>
+      <c r="M639" t="n">
+        <v>2.811</v>
+      </c>
+      <c r="N639" t="n">
+        <v>2.938</v>
+      </c>
+      <c r="O639" t="n">
+        <v>3.072</v>
+      </c>
+      <c r="P639" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="Q639" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="R639" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="S639" t="n">
+        <v>3.252</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S639"/>
+  <dimension ref="A1:S640"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38178,6 +38178,65 @@
         <v>3.252</v>
       </c>
     </row>
+    <row r="640">
+      <c r="A640" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B640" t="n">
+        <v>-0.004</v>
+      </c>
+      <c r="C640" t="n">
+        <v>-0.154</v>
+      </c>
+      <c r="D640" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E640" t="n">
+        <v>0.488</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.916</v>
+      </c>
+      <c r="G640" t="n">
+        <v>1.275</v>
+      </c>
+      <c r="H640" t="n">
+        <v>1.674</v>
+      </c>
+      <c r="I640" t="n">
+        <v>1.954</v>
+      </c>
+      <c r="J640" t="n">
+        <v>2.118</v>
+      </c>
+      <c r="K640" t="n">
+        <v>2.306</v>
+      </c>
+      <c r="L640" t="n">
+        <v>2.494</v>
+      </c>
+      <c r="M640" t="n">
+        <v>2.712</v>
+      </c>
+      <c r="N640" t="n">
+        <v>2.841</v>
+      </c>
+      <c r="O640" t="n">
+        <v>2.974</v>
+      </c>
+      <c r="P640" t="n">
+        <v>3.102</v>
+      </c>
+      <c r="Q640" t="n">
+        <v>3.247</v>
+      </c>
+      <c r="R640" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="S640" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S640"/>
+  <dimension ref="A1:S641"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38183,58 +38183,117 @@
         <v>44788</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.004</v>
+        <v>0.01</v>
       </c>
       <c r="C640" t="n">
-        <v>-0.154</v>
+        <v>0.01</v>
       </c>
       <c r="D640" t="n">
-        <v>0.49</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="E640" t="n">
-        <v>0.488</v>
+        <v>0.545</v>
       </c>
       <c r="F640" t="n">
-        <v>0.916</v>
+        <v>0.973</v>
       </c>
       <c r="G640" t="n">
-        <v>1.275</v>
+        <v>1.33</v>
       </c>
       <c r="H640" t="n">
-        <v>1.674</v>
+        <v>1.728</v>
       </c>
       <c r="I640" t="n">
-        <v>1.954</v>
+        <v>2.016</v>
       </c>
       <c r="J640" t="n">
-        <v>2.118</v>
+        <v>2.189</v>
       </c>
       <c r="K640" t="n">
-        <v>2.306</v>
+        <v>2.387</v>
       </c>
       <c r="L640" t="n">
-        <v>2.494</v>
+        <v>2.582</v>
       </c>
       <c r="M640" t="n">
-        <v>2.712</v>
+        <v>2.811</v>
       </c>
       <c r="N640" t="n">
-        <v>2.841</v>
+        <v>2.938</v>
       </c>
       <c r="O640" t="n">
-        <v>2.974</v>
+        <v>3.072</v>
       </c>
       <c r="P640" t="n">
-        <v>3.102</v>
+        <v>3.186</v>
       </c>
       <c r="Q640" t="n">
-        <v>3.247</v>
+        <v>3.33</v>
       </c>
       <c r="R640" t="n">
-        <v>3.2</v>
+        <v>3.273</v>
       </c>
       <c r="S640" t="n">
-        <v>3.23</v>
+        <v>3.252</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="2" t="n">
+        <v>44789</v>
+      </c>
+      <c r="B641" t="n">
+        <v>0.007</v>
+      </c>
+      <c r="C641" t="n">
+        <v>-0.137</v>
+      </c>
+      <c r="D641" t="n">
+        <v>0.497</v>
+      </c>
+      <c r="E641" t="n">
+        <v>0.5620000000000001</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="G641" t="n">
+        <v>1.378</v>
+      </c>
+      <c r="H641" t="n">
+        <v>1.796</v>
+      </c>
+      <c r="I641" t="n">
+        <v>2.083</v>
+      </c>
+      <c r="J641" t="n">
+        <v>2.258</v>
+      </c>
+      <c r="K641" t="n">
+        <v>2.453</v>
+      </c>
+      <c r="L641" t="n">
+        <v>2.638</v>
+      </c>
+      <c r="M641" t="n">
+        <v>2.859</v>
+      </c>
+      <c r="N641" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="O641" t="n">
+        <v>3.132</v>
+      </c>
+      <c r="P641" t="n">
+        <v>3.257</v>
+      </c>
+      <c r="Q641" t="n">
+        <v>3.414</v>
+      </c>
+      <c r="R641" t="n">
+        <v>3.354</v>
+      </c>
+      <c r="S641" t="n">
+        <v>3.312</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S641"/>
+  <dimension ref="A1:S642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38245,55 +38245,114 @@
         <v>0.007</v>
       </c>
       <c r="C641" t="n">
-        <v>-0.137</v>
+        <v>-0.117</v>
       </c>
       <c r="D641" t="n">
-        <v>0.497</v>
+        <v>0.48</v>
       </c>
       <c r="E641" t="n">
-        <v>0.5620000000000001</v>
+        <v>0.518</v>
       </c>
       <c r="F641" t="n">
-        <v>0.967</v>
+        <v>0.9370000000000001</v>
       </c>
       <c r="G641" t="n">
-        <v>1.378</v>
+        <v>1.287</v>
       </c>
       <c r="H641" t="n">
-        <v>1.796</v>
+        <v>1.676</v>
       </c>
       <c r="I641" t="n">
-        <v>2.083</v>
+        <v>1.951</v>
       </c>
       <c r="J641" t="n">
-        <v>2.258</v>
+        <v>2.118</v>
       </c>
       <c r="K641" t="n">
-        <v>2.453</v>
+        <v>2.311</v>
       </c>
       <c r="L641" t="n">
-        <v>2.638</v>
+        <v>2.493</v>
       </c>
       <c r="M641" t="n">
-        <v>2.859</v>
+        <v>2.714</v>
       </c>
       <c r="N641" t="n">
-        <v>2.98</v>
+        <v>2.833</v>
       </c>
       <c r="O641" t="n">
-        <v>3.132</v>
+        <v>2.972</v>
       </c>
       <c r="P641" t="n">
-        <v>3.257</v>
+        <v>3.113</v>
       </c>
       <c r="Q641" t="n">
-        <v>3.414</v>
+        <v>3.268</v>
       </c>
       <c r="R641" t="n">
-        <v>3.354</v>
+        <v>3.207</v>
       </c>
       <c r="S641" t="n">
-        <v>3.312</v>
+        <v>3.249</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="2" t="n">
+        <v>44790</v>
+      </c>
+      <c r="B642" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C642" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D642" t="n">
+        <v>0.599</v>
+      </c>
+      <c r="E642" t="n">
+        <v>0.677</v>
+      </c>
+      <c r="F642" t="n">
+        <v>1.067</v>
+      </c>
+      <c r="G642" t="n">
+        <v>1.606</v>
+      </c>
+      <c r="H642" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="I642" t="n">
+        <v>2.303</v>
+      </c>
+      <c r="J642" t="n">
+        <v>2.471</v>
+      </c>
+      <c r="K642" t="n">
+        <v>2.653</v>
+      </c>
+      <c r="L642" t="n">
+        <v>2.829</v>
+      </c>
+      <c r="M642" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="N642" t="n">
+        <v>3.171</v>
+      </c>
+      <c r="O642" t="n">
+        <v>3.309</v>
+      </c>
+      <c r="P642" t="n">
+        <v>3.406</v>
+      </c>
+      <c r="Q642" t="n">
+        <v>3.562</v>
+      </c>
+      <c r="R642" t="n">
+        <v>3.482</v>
+      </c>
+      <c r="S642" t="n">
+        <v>3.444</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S642"/>
+  <dimension ref="A1:S643"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38322,10 +38322,10 @@
         <v>2.02</v>
       </c>
       <c r="I642" t="n">
-        <v>2.303</v>
+        <v>2.295</v>
       </c>
       <c r="J642" t="n">
-        <v>2.471</v>
+        <v>2.464</v>
       </c>
       <c r="K642" t="n">
         <v>2.653</v>
@@ -38340,7 +38340,7 @@
         <v>3.171</v>
       </c>
       <c r="O642" t="n">
-        <v>3.309</v>
+        <v>3.302</v>
       </c>
       <c r="P642" t="n">
         <v>3.406</v>
@@ -38353,6 +38353,65 @@
       </c>
       <c r="S642" t="n">
         <v>3.444</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="2" t="n">
+        <v>44791</v>
+      </c>
+      <c r="B643" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C643" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D643" t="n">
+        <v>0.551</v>
+      </c>
+      <c r="E643" t="n">
+        <v>0.714</v>
+      </c>
+      <c r="F643" t="n">
+        <v>1.039</v>
+      </c>
+      <c r="G643" t="n">
+        <v>1.635</v>
+      </c>
+      <c r="H643" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="I643" t="n">
+        <v>2.314</v>
+      </c>
+      <c r="J643" t="n">
+        <v>2.482</v>
+      </c>
+      <c r="K643" t="n">
+        <v>2.675</v>
+      </c>
+      <c r="L643" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="M643" t="n">
+        <v>3.062</v>
+      </c>
+      <c r="N643" t="n">
+        <v>3.181</v>
+      </c>
+      <c r="O643" t="n">
+        <v>3.322</v>
+      </c>
+      <c r="P643" t="n">
+        <v>3.394</v>
+      </c>
+      <c r="Q643" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="R643" t="n">
+        <v>3.448</v>
+      </c>
+      <c r="S643" t="n">
+        <v>3.399</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S643"/>
+  <dimension ref="A1:S644"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38414,6 +38414,65 @@
         <v>3.399</v>
       </c>
     </row>
+    <row r="644">
+      <c r="A644" s="2" t="n">
+        <v>44792</v>
+      </c>
+      <c r="B644" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C644" t="n">
+        <v>0.038</v>
+      </c>
+      <c r="D644" t="n">
+        <v>0.597</v>
+      </c>
+      <c r="E644" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="F644" t="n">
+        <v>1.118</v>
+      </c>
+      <c r="G644" t="n">
+        <v>1.751</v>
+      </c>
+      <c r="H644" t="n">
+        <v>2.158</v>
+      </c>
+      <c r="I644" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="J644" t="n">
+        <v>2.622</v>
+      </c>
+      <c r="K644" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="L644" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="M644" t="n">
+        <v>3.216</v>
+      </c>
+      <c r="N644" t="n">
+        <v>3.346</v>
+      </c>
+      <c r="O644" t="n">
+        <v>3.491</v>
+      </c>
+      <c r="P644" t="n">
+        <v>3.535</v>
+      </c>
+      <c r="Q644" t="n">
+        <v>3.662</v>
+      </c>
+      <c r="R644" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S644" t="n">
+        <v>3.499</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S644"/>
+  <dimension ref="A1:S645"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38473,6 +38473,65 @@
         <v>3.499</v>
       </c>
     </row>
+    <row r="645">
+      <c r="A645" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B645" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C645" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D645" t="n">
+        <v>0.582</v>
+      </c>
+      <c r="E645" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+      <c r="F645" t="n">
+        <v>1.154</v>
+      </c>
+      <c r="G645" t="n">
+        <v>1.862</v>
+      </c>
+      <c r="H645" t="n">
+        <v>2.276</v>
+      </c>
+      <c r="I645" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="J645" t="n">
+        <v>2.749</v>
+      </c>
+      <c r="K645" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="L645" t="n">
+        <v>3.079</v>
+      </c>
+      <c r="M645" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="N645" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="O645" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="P645" t="n">
+        <v>3.626</v>
+      </c>
+      <c r="Q645" t="n">
+        <v>3.742</v>
+      </c>
+      <c r="R645" t="n">
+        <v>3.654</v>
+      </c>
+      <c r="S645" t="n">
+        <v>3.56</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S645"/>
+  <dimension ref="A1:S646"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38532,6 +38532,65 @@
         <v>3.56</v>
       </c>
     </row>
+    <row r="646">
+      <c r="A646" s="2" t="n">
+        <v>44796</v>
+      </c>
+      <c r="B646" t="n">
+        <v>-0.12</v>
+      </c>
+      <c r="C646" t="n">
+        <v>0.031</v>
+      </c>
+      <c r="D646" t="n">
+        <v>0.586</v>
+      </c>
+      <c r="E646" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="F646" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="G646" t="n">
+        <v>1.842</v>
+      </c>
+      <c r="H646" t="n">
+        <v>2.293</v>
+      </c>
+      <c r="I646" t="n">
+        <v>2.562</v>
+      </c>
+      <c r="J646" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="K646" t="n">
+        <v>2.922</v>
+      </c>
+      <c r="L646" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="M646" t="n">
+        <v>3.342</v>
+      </c>
+      <c r="N646" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O646" t="n">
+        <v>4.582</v>
+      </c>
+      <c r="P646" t="n">
+        <v>3.653</v>
+      </c>
+      <c r="Q646" t="n">
+        <v>3.763</v>
+      </c>
+      <c r="R646" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="S646" t="n">
+        <v>3.588</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S646"/>
+  <dimension ref="A1:S647"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38591,6 +38591,65 @@
         <v>3.588</v>
       </c>
     </row>
+    <row r="647">
+      <c r="A647" s="2" t="n">
+        <v>44797</v>
+      </c>
+      <c r="B647" t="n">
+        <v>-0.126</v>
+      </c>
+      <c r="C647" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="D647" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="E647" t="n">
+        <v>0.8169999999999999</v>
+      </c>
+      <c r="F647" t="n">
+        <v>1.127</v>
+      </c>
+      <c r="G647" t="n">
+        <v>1.881</v>
+      </c>
+      <c r="H647" t="n">
+        <v>2.336</v>
+      </c>
+      <c r="I647" t="n">
+        <v>2.598</v>
+      </c>
+      <c r="J647" t="n">
+        <v>2.782</v>
+      </c>
+      <c r="K647" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="L647" t="n">
+        <v>3.146</v>
+      </c>
+      <c r="M647" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="N647" t="n">
+        <v>3.516</v>
+      </c>
+      <c r="O647" t="n">
+        <v>4.604</v>
+      </c>
+      <c r="P647" t="n">
+        <v>3.697</v>
+      </c>
+      <c r="Q647" t="n">
+        <v>3.796</v>
+      </c>
+      <c r="R647" t="n">
+        <v>3.709</v>
+      </c>
+      <c r="S647" t="n">
+        <v>3.625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S647"/>
+  <dimension ref="A1:S648"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38499,10 +38499,10 @@
         <v>2.276</v>
       </c>
       <c r="I645" t="n">
-        <v>2.51</v>
+        <v>2.54</v>
       </c>
       <c r="J645" t="n">
-        <v>2.749</v>
+        <v>2.727</v>
       </c>
       <c r="K645" t="n">
         <v>2.906</v>
@@ -38517,7 +38517,7 @@
         <v>3.444</v>
       </c>
       <c r="O645" t="n">
-        <v>4.13</v>
+        <v>3.6</v>
       </c>
       <c r="P645" t="n">
         <v>3.626</v>
@@ -38537,58 +38537,58 @@
         <v>44796</v>
       </c>
       <c r="B646" t="n">
-        <v>-0.12</v>
+        <v>0.01</v>
       </c>
       <c r="C646" t="n">
-        <v>0.031</v>
+        <v>0.01</v>
       </c>
       <c r="D646" t="n">
-        <v>0.586</v>
+        <v>0.626</v>
       </c>
       <c r="E646" t="n">
-        <v>0.82</v>
+        <v>0.851</v>
       </c>
       <c r="F646" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="G646" t="n">
-        <v>1.842</v>
+        <v>1.864</v>
       </c>
       <c r="H646" t="n">
-        <v>2.293</v>
+        <v>2.299</v>
       </c>
       <c r="I646" t="n">
-        <v>2.562</v>
+        <v>2.544</v>
       </c>
       <c r="J646" t="n">
-        <v>2.73</v>
+        <v>2.735</v>
       </c>
       <c r="K646" t="n">
         <v>2.922</v>
       </c>
       <c r="L646" t="n">
-        <v>3.112</v>
+        <v>3.125</v>
       </c>
       <c r="M646" t="n">
-        <v>3.342</v>
+        <v>3.343</v>
       </c>
       <c r="N646" t="n">
-        <v>3.49</v>
+        <v>3.485</v>
       </c>
       <c r="O646" t="n">
-        <v>4.582</v>
+        <v>3.635</v>
       </c>
       <c r="P646" t="n">
-        <v>3.653</v>
+        <v>3.656</v>
       </c>
       <c r="Q646" t="n">
-        <v>3.763</v>
+        <v>3.775</v>
       </c>
       <c r="R646" t="n">
-        <v>3.676</v>
+        <v>3.685</v>
       </c>
       <c r="S646" t="n">
-        <v>3.588</v>
+        <v>3.616</v>
       </c>
     </row>
     <row r="647">
@@ -38596,58 +38596,117 @@
         <v>44797</v>
       </c>
       <c r="B647" t="n">
-        <v>-0.126</v>
+        <v>-0.101</v>
       </c>
       <c r="C647" t="n">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="D647" t="n">
-        <v>0.615</v>
+        <v>0.645</v>
       </c>
       <c r="E647" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.837</v>
       </c>
       <c r="F647" t="n">
-        <v>1.127</v>
+        <v>1.148</v>
       </c>
       <c r="G647" t="n">
-        <v>1.881</v>
+        <v>1.919</v>
       </c>
       <c r="H647" t="n">
-        <v>2.336</v>
+        <v>2.341</v>
       </c>
       <c r="I647" t="n">
-        <v>2.598</v>
+        <v>2.593</v>
       </c>
       <c r="J647" t="n">
-        <v>2.782</v>
+        <v>2.785</v>
       </c>
       <c r="K647" t="n">
-        <v>2.962</v>
+        <v>2.971</v>
       </c>
       <c r="L647" t="n">
-        <v>3.146</v>
+        <v>3.153</v>
       </c>
       <c r="M647" t="n">
-        <v>3.375</v>
+        <v>3.381</v>
       </c>
       <c r="N647" t="n">
-        <v>3.516</v>
+        <v>3.52</v>
       </c>
       <c r="O647" t="n">
-        <v>4.604</v>
+        <v>3.671</v>
       </c>
       <c r="P647" t="n">
-        <v>3.697</v>
+        <v>3.701</v>
       </c>
       <c r="Q647" t="n">
-        <v>3.796</v>
+        <v>3.806</v>
       </c>
       <c r="R647" t="n">
-        <v>3.709</v>
+        <v>3.715</v>
       </c>
       <c r="S647" t="n">
+        <v>3.633</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="2" t="n">
+        <v>44798</v>
+      </c>
+      <c r="B648" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C648" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D648" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="E648" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F648" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="G648" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="H648" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="I648" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="J648" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="K648" t="n">
+        <v>2.821</v>
+      </c>
+      <c r="L648" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="M648" t="n">
+        <v>3.258</v>
+      </c>
+      <c r="N648" t="n">
+        <v>3.401</v>
+      </c>
+      <c r="O648" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="P648" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q648" t="n">
+        <v>3.706</v>
+      </c>
+      <c r="R648" t="n">
         <v>3.625</v>
+      </c>
+      <c r="S648" t="n">
+        <v>3.561</v>
       </c>
     </row>
   </sheetData>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S648"/>
+  <dimension ref="A1:S649"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38691,7 +38691,7 @@
         <v>3.258</v>
       </c>
       <c r="N648" t="n">
-        <v>3.401</v>
+        <v>3.408</v>
       </c>
       <c r="O648" t="n">
         <v>3.553</v>
@@ -38706,6 +38706,65 @@
         <v>3.625</v>
       </c>
       <c r="S648" t="n">
+        <v>3.561</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="2" t="n">
+        <v>44799</v>
+      </c>
+      <c r="B649" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C649" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="D649" t="n">
+        <v>0.626</v>
+      </c>
+      <c r="E649" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="F649" t="n">
+        <v>1.104</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1.768</v>
+      </c>
+      <c r="H649" t="n">
+        <v>2.177</v>
+      </c>
+      <c r="I649" t="n">
+        <v>2.437</v>
+      </c>
+      <c r="J649" t="n">
+        <v>2.632</v>
+      </c>
+      <c r="K649" t="n">
+        <v>2.821</v>
+      </c>
+      <c r="L649" t="n">
+        <v>3.015</v>
+      </c>
+      <c r="M649" t="n">
+        <v>3.258</v>
+      </c>
+      <c r="N649" t="n">
+        <v>3.408</v>
+      </c>
+      <c r="O649" t="n">
+        <v>3.553</v>
+      </c>
+      <c r="P649" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q649" t="n">
+        <v>3.706</v>
+      </c>
+      <c r="R649" t="n">
+        <v>3.625</v>
+      </c>
+      <c r="S649" t="n">
         <v>3.561</v>
       </c>
     </row>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S649"/>
+  <dimension ref="A1:S650"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38768,6 +38768,65 @@
         <v>3.561</v>
       </c>
     </row>
+    <row r="650">
+      <c r="A650" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B650" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="C650" t="n">
+        <v>0.158</v>
+      </c>
+      <c r="D650" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E650" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="F650" t="n">
+        <v>1.317</v>
+      </c>
+      <c r="G650" t="n">
+        <v>2.048</v>
+      </c>
+      <c r="H650" t="n">
+        <v>2.462</v>
+      </c>
+      <c r="I650" t="n">
+        <v>2.719</v>
+      </c>
+      <c r="J650" t="n">
+        <v>2.919</v>
+      </c>
+      <c r="K650" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="L650" t="n">
+        <v>3.278</v>
+      </c>
+      <c r="M650" t="n">
+        <v>3.509</v>
+      </c>
+      <c r="N650" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O650" t="n">
+        <v>3.791</v>
+      </c>
+      <c r="P650" t="n">
+        <v>3.805</v>
+      </c>
+      <c r="Q650" t="n">
+        <v>3.896</v>
+      </c>
+      <c r="R650" t="n">
+        <v>3.793</v>
+      </c>
+      <c r="S650" t="n">
+        <v>3.703</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S650"/>
+  <dimension ref="A1:S651"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38827,6 +38827,65 @@
         <v>3.703</v>
       </c>
     </row>
+    <row r="651">
+      <c r="A651" s="2" t="n">
+        <v>44803</v>
+      </c>
+      <c r="B651" t="n">
+        <v>-0.053</v>
+      </c>
+      <c r="C651" t="n">
+        <v>0.167</v>
+      </c>
+      <c r="D651" t="n">
+        <v>0.792</v>
+      </c>
+      <c r="E651" t="n">
+        <v>0.965</v>
+      </c>
+      <c r="F651" t="n">
+        <v>1.349</v>
+      </c>
+      <c r="G651" t="n">
+        <v>2.113</v>
+      </c>
+      <c r="H651" t="n">
+        <v>2.523</v>
+      </c>
+      <c r="I651" t="n">
+        <v>2.769</v>
+      </c>
+      <c r="J651" t="n">
+        <v>2.955</v>
+      </c>
+      <c r="K651" t="n">
+        <v>3.144</v>
+      </c>
+      <c r="L651" t="n">
+        <v>3.316</v>
+      </c>
+      <c r="M651" t="n">
+        <v>3.546</v>
+      </c>
+      <c r="N651" t="n">
+        <v>3.696</v>
+      </c>
+      <c r="O651" t="n">
+        <v>3.824</v>
+      </c>
+      <c r="P651" t="n">
+        <v>3.836</v>
+      </c>
+      <c r="Q651" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="R651" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="S651" t="n">
+        <v>3.73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S651"/>
+  <dimension ref="A1:S652"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38886,6 +38886,65 @@
         <v>3.73</v>
       </c>
     </row>
+    <row r="652">
+      <c r="A652" s="2" t="n">
+        <v>44804</v>
+      </c>
+      <c r="B652" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="C652" t="n">
+        <v>0.233</v>
+      </c>
+      <c r="D652" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E652" t="n">
+        <v>1.018</v>
+      </c>
+      <c r="F652" t="n">
+        <v>1.393</v>
+      </c>
+      <c r="G652" t="n">
+        <v>2.203</v>
+      </c>
+      <c r="H652" t="n">
+        <v>2.601</v>
+      </c>
+      <c r="I652" t="n">
+        <v>2.854</v>
+      </c>
+      <c r="J652" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="K652" t="n">
+        <v>3.211</v>
+      </c>
+      <c r="L652" t="n">
+        <v>3.375</v>
+      </c>
+      <c r="M652" t="n">
+        <v>3.612</v>
+      </c>
+      <c r="N652" t="n">
+        <v>3.752</v>
+      </c>
+      <c r="O652" t="n">
+        <v>3.883</v>
+      </c>
+      <c r="P652" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="Q652" t="n">
+        <v>3.996</v>
+      </c>
+      <c r="R652" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="S652" t="n">
+        <v>3.776</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S652"/>
+  <dimension ref="A1:S653"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -38945,6 +38945,65 @@
         <v>3.776</v>
       </c>
     </row>
+    <row r="653">
+      <c r="A653" s="2" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B653" t="n">
+        <v>0.338</v>
+      </c>
+      <c r="C653" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="D653" t="n">
+        <v>1.068</v>
+      </c>
+      <c r="E653" t="n">
+        <v>1.151</v>
+      </c>
+      <c r="F653" t="n">
+        <v>1.507</v>
+      </c>
+      <c r="G653" t="n">
+        <v>2.256</v>
+      </c>
+      <c r="H653" t="n">
+        <v>2.641</v>
+      </c>
+      <c r="I653" t="n">
+        <v>2.886</v>
+      </c>
+      <c r="J653" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K653" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="L653" t="n">
+        <v>3.408</v>
+      </c>
+      <c r="M653" t="n">
+        <v>3.671</v>
+      </c>
+      <c r="N653" t="n">
+        <v>3.774</v>
+      </c>
+      <c r="O653" t="n">
+        <v>3.914</v>
+      </c>
+      <c r="P653" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q653" t="n">
+        <v>4.062</v>
+      </c>
+      <c r="R653" t="n">
+        <v>3.947</v>
+      </c>
+      <c r="S653" t="n">
+        <v>3.84</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S653"/>
+  <dimension ref="A1:S654"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39004,6 +39004,65 @@
         <v>3.84</v>
       </c>
     </row>
+    <row r="654">
+      <c r="A654" s="2" t="n">
+        <v>44806</v>
+      </c>
+      <c r="B654" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="C654" t="n">
+        <v>0.388</v>
+      </c>
+      <c r="D654" t="n">
+        <v>1.073</v>
+      </c>
+      <c r="E654" t="n">
+        <v>1.122</v>
+      </c>
+      <c r="F654" t="n">
+        <v>1.551</v>
+      </c>
+      <c r="G654" t="n">
+        <v>2.114</v>
+      </c>
+      <c r="H654" t="n">
+        <v>2.464</v>
+      </c>
+      <c r="I654" t="n">
+        <v>2.727</v>
+      </c>
+      <c r="J654" t="n">
+        <v>2.906</v>
+      </c>
+      <c r="K654" t="n">
+        <v>3.104</v>
+      </c>
+      <c r="L654" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="M654" t="n">
+        <v>3.524</v>
+      </c>
+      <c r="N654" t="n">
+        <v>3.655</v>
+      </c>
+      <c r="O654" t="n">
+        <v>3.796</v>
+      </c>
+      <c r="P654" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q654" t="n">
+        <v>3.981</v>
+      </c>
+      <c r="R654" t="n">
+        <v>3.878</v>
+      </c>
+      <c r="S654" t="n">
+        <v>3.786</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S654"/>
+  <dimension ref="A1:S655"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39063,6 +39063,65 @@
         <v>3.786</v>
       </c>
     </row>
+    <row r="655">
+      <c r="A655" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B655" t="n">
+        <v>0.347</v>
+      </c>
+      <c r="C655" t="n">
+        <v>0.413</v>
+      </c>
+      <c r="D655" t="n">
+        <v>1.173</v>
+      </c>
+      <c r="E655" t="n">
+        <v>1.241</v>
+      </c>
+      <c r="F655" t="n">
+        <v>1.599</v>
+      </c>
+      <c r="G655" t="n">
+        <v>2.174</v>
+      </c>
+      <c r="H655" t="n">
+        <v>2.543</v>
+      </c>
+      <c r="I655" t="n">
+        <v>2.839</v>
+      </c>
+      <c r="J655" t="n">
+        <v>3.013</v>
+      </c>
+      <c r="K655" t="n">
+        <v>3.207</v>
+      </c>
+      <c r="L655" t="n">
+        <v>3.395</v>
+      </c>
+      <c r="M655" t="n">
+        <v>3.644</v>
+      </c>
+      <c r="N655" t="n">
+        <v>3.786</v>
+      </c>
+      <c r="O655" t="n">
+        <v>3.931</v>
+      </c>
+      <c r="P655" t="n">
+        <v>3.974</v>
+      </c>
+      <c r="Q655" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="R655" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="S655" t="n">
+        <v>3.823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S655"/>
+  <dimension ref="A1:S656"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39122,6 +39122,65 @@
         <v>3.823</v>
       </c>
     </row>
+    <row r="656">
+      <c r="A656" s="2" t="n">
+        <v>44810</v>
+      </c>
+      <c r="B656" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="C656" t="n">
+        <v>0.403</v>
+      </c>
+      <c r="D656" t="n">
+        <v>1.158</v>
+      </c>
+      <c r="E656" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="F656" t="n">
+        <v>1.589</v>
+      </c>
+      <c r="G656" t="n">
+        <v>2.191</v>
+      </c>
+      <c r="H656" t="n">
+        <v>2.566</v>
+      </c>
+      <c r="I656" t="n">
+        <v>2.865</v>
+      </c>
+      <c r="J656" t="n">
+        <v>3.051</v>
+      </c>
+      <c r="K656" t="n">
+        <v>3.243</v>
+      </c>
+      <c r="L656" t="n">
+        <v>3.451</v>
+      </c>
+      <c r="M656" t="n">
+        <v>3.666</v>
+      </c>
+      <c r="N656" t="n">
+        <v>3.805</v>
+      </c>
+      <c r="O656" t="n">
+        <v>3.957</v>
+      </c>
+      <c r="P656" t="n">
+        <v>4.015</v>
+      </c>
+      <c r="Q656" t="n">
+        <v>4.082</v>
+      </c>
+      <c r="R656" t="n">
+        <v>3.941</v>
+      </c>
+      <c r="S656" t="n">
+        <v>3.816</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S656"/>
+  <dimension ref="A1:S658"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39181,6 +39181,124 @@
         <v>3.816</v>
       </c>
     </row>
+    <row r="657">
+      <c r="A657" s="2" t="n">
+        <v>44811</v>
+      </c>
+      <c r="B657" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C657" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="D657" t="n">
+        <v>1.153</v>
+      </c>
+      <c r="E657" t="n">
+        <v>1.359</v>
+      </c>
+      <c r="F657" t="n">
+        <v>1.596</v>
+      </c>
+      <c r="G657" t="n">
+        <v>2.134</v>
+      </c>
+      <c r="H657" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="I657" t="n">
+        <v>2.764</v>
+      </c>
+      <c r="J657" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="K657" t="n">
+        <v>3.141</v>
+      </c>
+      <c r="L657" t="n">
+        <v>3.327</v>
+      </c>
+      <c r="M657" t="n">
+        <v>3.548</v>
+      </c>
+      <c r="N657" t="n">
+        <v>3.695</v>
+      </c>
+      <c r="O657" t="n">
+        <v>3.826</v>
+      </c>
+      <c r="P657" t="n">
+        <v>3.858</v>
+      </c>
+      <c r="Q657" t="n">
+        <v>4.005</v>
+      </c>
+      <c r="R657" t="n">
+        <v>3.876</v>
+      </c>
+      <c r="S657" t="n">
+        <v>3.754</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="2" t="n">
+        <v>44812</v>
+      </c>
+      <c r="B658" t="n">
+        <v>0.577</v>
+      </c>
+      <c r="C658" t="n">
+        <v>0.5639999999999999</v>
+      </c>
+      <c r="D658" t="n">
+        <v>1.342</v>
+      </c>
+      <c r="E658" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="F658" t="n">
+        <v>1.633</v>
+      </c>
+      <c r="G658" t="n">
+        <v>2.395</v>
+      </c>
+      <c r="H658" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="I658" t="n">
+        <v>3.069</v>
+      </c>
+      <c r="J658" t="n">
+        <v>3.246</v>
+      </c>
+      <c r="K658" t="n">
+        <v>3.432</v>
+      </c>
+      <c r="L658" t="n">
+        <v>3.441</v>
+      </c>
+      <c r="M658" t="n">
+        <v>3.677</v>
+      </c>
+      <c r="N658" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="O658" t="n">
+        <v>4.077</v>
+      </c>
+      <c r="P658" t="n">
+        <v>4.056</v>
+      </c>
+      <c r="Q658" t="n">
+        <v>4.074</v>
+      </c>
+      <c r="R658" t="n">
+        <v>3.934</v>
+      </c>
+      <c r="S658" t="n">
+        <v>3.789</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S658"/>
+  <dimension ref="A1:S659"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39299,6 +39299,65 @@
         <v>3.789</v>
       </c>
     </row>
+    <row r="659">
+      <c r="A659" s="2" t="n">
+        <v>44813</v>
+      </c>
+      <c r="B659" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="C659" t="n">
+        <v>0.601</v>
+      </c>
+      <c r="D659" t="n">
+        <v>1.462</v>
+      </c>
+      <c r="E659" t="n">
+        <v>1.609</v>
+      </c>
+      <c r="F659" t="n">
+        <v>1.981</v>
+      </c>
+      <c r="G659" t="n">
+        <v>2.414</v>
+      </c>
+      <c r="H659" t="n">
+        <v>2.725</v>
+      </c>
+      <c r="I659" t="n">
+        <v>3.001</v>
+      </c>
+      <c r="J659" t="n">
+        <v>3.173</v>
+      </c>
+      <c r="K659" t="n">
+        <v>3.362</v>
+      </c>
+      <c r="L659" t="n">
+        <v>3.518</v>
+      </c>
+      <c r="M659" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="N659" t="n">
+        <v>3.897</v>
+      </c>
+      <c r="O659" t="n">
+        <v>4.027</v>
+      </c>
+      <c r="P659" t="n">
+        <v>4.047</v>
+      </c>
+      <c r="Q659" t="n">
+        <v>4.122</v>
+      </c>
+      <c r="R659" t="n">
+        <v>3.967</v>
+      </c>
+      <c r="S659" t="n">
+        <v>3.823</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S659"/>
+  <dimension ref="A1:S661"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39358,6 +39358,124 @@
         <v>3.823</v>
       </c>
     </row>
+    <row r="660">
+      <c r="A660" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B660" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="C660" t="n">
+        <v>0.659</v>
+      </c>
+      <c r="D660" t="n">
+        <v>1.357</v>
+      </c>
+      <c r="E660" t="n">
+        <v>1.658</v>
+      </c>
+      <c r="F660" t="n">
+        <v>1.944</v>
+      </c>
+      <c r="G660" t="n">
+        <v>2.391</v>
+      </c>
+      <c r="H660" t="n">
+        <v>2.679</v>
+      </c>
+      <c r="I660" t="n">
+        <v>2.944</v>
+      </c>
+      <c r="J660" t="n">
+        <v>3.105</v>
+      </c>
+      <c r="K660" t="n">
+        <v>3.289</v>
+      </c>
+      <c r="L660" t="n">
+        <v>3.444</v>
+      </c>
+      <c r="M660" t="n">
+        <v>3.672</v>
+      </c>
+      <c r="N660" t="n">
+        <v>3.809</v>
+      </c>
+      <c r="O660" t="n">
+        <v>3.938</v>
+      </c>
+      <c r="P660" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="Q660" t="n">
+        <v>4.073</v>
+      </c>
+      <c r="R660" t="n">
+        <v>3.913</v>
+      </c>
+      <c r="S660" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="2" t="n">
+        <v>44817</v>
+      </c>
+      <c r="B661" t="n">
+        <v>0.619</v>
+      </c>
+      <c r="C661" t="n">
+        <v>0.637</v>
+      </c>
+      <c r="D661" t="n">
+        <v>1.304</v>
+      </c>
+      <c r="E661" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="F661" t="n">
+        <v>1.987</v>
+      </c>
+      <c r="G661" t="n">
+        <v>2.451</v>
+      </c>
+      <c r="H661" t="n">
+        <v>2.739</v>
+      </c>
+      <c r="I661" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="J661" t="n">
+        <v>3.158</v>
+      </c>
+      <c r="K661" t="n">
+        <v>3.352</v>
+      </c>
+      <c r="L661" t="n">
+        <v>3.492</v>
+      </c>
+      <c r="M661" t="n">
+        <v>3.722</v>
+      </c>
+      <c r="N661" t="n">
+        <v>3.859</v>
+      </c>
+      <c r="O661" t="n">
+        <v>3.987</v>
+      </c>
+      <c r="P661" t="n">
+        <v>3.989</v>
+      </c>
+      <c r="Q661" t="n">
+        <v>4.094</v>
+      </c>
+      <c r="R661" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="S661" t="n">
+        <v>3.77</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Bonds_Italy.xlsx
+++ b/Bonds_Italy.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S661"/>
+  <dimension ref="A1:S662"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39476,6 +39476,65 @@
         <v>3.77</v>
       </c>
     </row>
+    <row r="662">
+      <c r="A662" s="2" t="n">
+        <v>44818</v>
+      </c>
+      <c r="B662" t="n">
+        <v>0.587</v>
+      </c>
+      <c r="C662" t="n">
+        <v>0.645</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1.273</v>
+      </c>
+      <c r="E662" t="n">
+        <v>1.616</v>
+      </c>
+      <c r="F662" t="n">
+        <v>2.005</v>
+      </c>
+      <c r="G662" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="H662" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="I662" t="n">
+        <v>3.031</v>
+      </c>
+      <c r="J662" t="n">
+        <v>3.185</v>
+      </c>
+      <c r="K662" t="n">
+        <v>3.367</v>
+      </c>
+      <c r="L662" t="n">
+        <v>3.497</v>
+      </c>
+      <c r="M662" t="n">
+        <v>3.718</v>
+      </c>
+      <c r="N662" t="n">
+        <v>3.848</v>
+      </c>
+      <c r="O662" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="P662" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="Q662" t="n">
+        <v>4.065</v>
+      </c>
+      <c r="R662" t="n">
+        <v>3.882</v>
+      </c>
+      <c r="S662" t="n">
+        <v>3.742</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
